--- a/data/MethylScoreAML_Px_167_cpg_genes.xlsx
+++ b/data/MethylScoreAML_Px_167_cpg_genes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="381">
   <si>
     <t>chrm</t>
   </si>
@@ -640,24 +640,24 @@
     <t>NCR3LG1</t>
   </si>
   <si>
+    <t>BNIP3</t>
+  </si>
+  <si>
     <t>RP11-45A17.2</t>
   </si>
   <si>
-    <t>BNIP3</t>
-  </si>
-  <si>
     <t>SERINC5</t>
   </si>
   <si>
+    <t>NEAT1_3</t>
+  </si>
+  <si>
+    <t>NEAT1</t>
+  </si>
+  <si>
     <t>NEAT1_2</t>
   </si>
   <si>
-    <t>NEAT1</t>
-  </si>
-  <si>
-    <t>NEAT1_3</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -676,12 +676,12 @@
     <t>EDARADD</t>
   </si>
   <si>
+    <t>CTD-2162K18.3</t>
+  </si>
+  <si>
     <t>CTD-2162K18.4</t>
   </si>
   <si>
-    <t>CTD-2162K18.3</t>
-  </si>
-  <si>
     <t>PSMB9</t>
   </si>
   <si>
@@ -739,12 +739,12 @@
     <t>TSC2</t>
   </si>
   <si>
+    <t>SHBG</t>
+  </si>
+  <si>
     <t>FXR2</t>
   </si>
   <si>
-    <t>SHBG</t>
-  </si>
-  <si>
     <t>IRF8</t>
   </si>
   <si>
@@ -754,12 +754,12 @@
     <t>RP11-449P15.1</t>
   </si>
   <si>
+    <t>GPR146</t>
+  </si>
+  <si>
     <t>C7orf50</t>
   </si>
   <si>
-    <t>GPR146</t>
-  </si>
-  <si>
     <t>TIMM10B</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>MANEAL</t>
   </si>
   <si>
+    <t>SPON2</t>
+  </si>
+  <si>
     <t>CTBP1-AS</t>
   </si>
   <si>
-    <t>SPON2</t>
-  </si>
-  <si>
     <t>PDIA5</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>SLC39A11</t>
   </si>
   <si>
+    <t>CAPN9</t>
+  </si>
+  <si>
     <t>RP11-99J16__A.2</t>
   </si>
   <si>
-    <t>CAPN9</t>
-  </si>
-  <si>
     <t>SUMO3</t>
   </si>
   <si>
@@ -823,12 +823,12 @@
     <t>ZC3H3</t>
   </si>
   <si>
+    <t>TMEM169</t>
+  </si>
+  <si>
     <t>PECR</t>
   </si>
   <si>
-    <t>TMEM169</t>
-  </si>
-  <si>
     <t>RP11-418J17.3</t>
   </si>
   <si>
@@ -880,36 +880,36 @@
     <t>LINC01006</t>
   </si>
   <si>
+    <t>LL22NC03-86G7.1</t>
+  </si>
+  <si>
     <t>PPM1F</t>
   </si>
   <si>
-    <t>LL22NC03-86G7.1</t>
-  </si>
-  <si>
     <t>PMM2</t>
   </si>
   <si>
+    <t>RP11-77H9.2</t>
+  </si>
+  <si>
     <t>RP11-152P23.2</t>
   </si>
   <si>
-    <t>RP11-77H9.2</t>
-  </si>
-  <si>
     <t>KIF7</t>
   </si>
   <si>
+    <t>ZNF750</t>
+  </si>
+  <si>
     <t>TBCD</t>
   </si>
   <si>
-    <t>ZNF750</t>
+    <t>SIRPA</t>
   </si>
   <si>
     <t>RP5-858L17.1</t>
   </si>
   <si>
-    <t>SIRPA</t>
-  </si>
-  <si>
     <t>SNCA-AS1</t>
   </si>
   <si>
@@ -1015,12 +1015,12 @@
     <t>PDE10A</t>
   </si>
   <si>
+    <t>TOE1</t>
+  </si>
+  <si>
     <t>MUTYH</t>
   </si>
   <si>
-    <t>TOE1</t>
-  </si>
-  <si>
     <t>PTPRN2</t>
   </si>
   <si>
@@ -1036,12 +1036,12 @@
     <t>LRP1</t>
   </si>
   <si>
+    <t>TATDN3</t>
+  </si>
+  <si>
     <t>NSL1</t>
   </si>
   <si>
-    <t>TATDN3</t>
-  </si>
-  <si>
     <t>BRD1</t>
   </si>
   <si>
@@ -1057,18 +1057,18 @@
     <t>RP11-84C10.4</t>
   </si>
   <si>
+    <t>TPRG1-AS1</t>
+  </si>
+  <si>
     <t>TPRG1</t>
   </si>
   <si>
-    <t>TPRG1-AS1</t>
+    <t>RP11-55K13.1</t>
   </si>
   <si>
     <t>GAN</t>
   </si>
   <si>
-    <t>RP11-55K13.1</t>
-  </si>
-  <si>
     <t>CCNY</t>
   </si>
   <si>
@@ -1078,12 +1078,12 @@
     <t>HMOX2</t>
   </si>
   <si>
+    <t>RP11-12J10.3</t>
+  </si>
+  <si>
     <t>FAM53B</t>
   </si>
   <si>
-    <t>RP11-12J10.3</t>
-  </si>
-  <si>
     <t>RPN1</t>
   </si>
   <si>
@@ -1093,21 +1093,21 @@
     <t>RP11-465B22.8</t>
   </si>
   <si>
+    <t>NHEJ1</t>
+  </si>
+  <si>
     <t>RP11-33O4.2</t>
   </si>
   <si>
-    <t>NHEJ1</t>
-  </si>
-  <si>
     <t>CHD7</t>
   </si>
   <si>
+    <t>TNFRSF9</t>
+  </si>
+  <si>
     <t>RP5-892F13.2</t>
   </si>
   <si>
-    <t>TNFRSF9</t>
-  </si>
-  <si>
     <t>protein_coding</t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>lincRNA;misc_RNA</t>
@@ -1126,7 +1126,7 @@
     <t>lincRNA</t>
   </si>
   <si>
-    <t>sense_intronic;protein_coding</t>
+    <t>protein_coding;sense_intronic</t>
   </si>
   <si>
     <t>processed_pseudogene</t>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>lincRNA;protein_coding</t>
+  </si>
+  <si>
+    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>processed_pseudogene;protein_coding</t>
@@ -1563,7 +1566,7 @@
         <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H2">
         <v>0.1649028305157629</v>
@@ -1615,7 +1618,7 @@
         <v>364</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H4">
         <v>0.08905797668532893</v>
@@ -1641,7 +1644,7 @@
         <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H5">
         <v>0.08669651961992604</v>
@@ -1667,7 +1670,7 @@
         <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H6">
         <v>0.07738182767122098</v>
@@ -1719,7 +1722,7 @@
         <v>364</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H8">
         <v>0.07320136628661969</v>
@@ -1771,7 +1774,7 @@
         <v>366</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H10">
         <v>0.06280911307235237</v>
@@ -1823,7 +1826,7 @@
         <v>364</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H12">
         <v>0.0485251619655532</v>
@@ -1927,7 +1930,7 @@
         <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H16">
         <v>0.03028008381413899</v>
@@ -1953,7 +1956,7 @@
         <v>368</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H17">
         <v>0.03028008381413899</v>
@@ -1979,7 +1982,7 @@
         <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H18">
         <v>0.03028008381413899</v>
@@ -2031,7 +2034,7 @@
         <v>364</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H20">
         <v>-0.002808440068965501</v>
@@ -2057,7 +2060,7 @@
         <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H21">
         <v>-0.008283092760132105</v>
@@ -2109,7 +2112,7 @@
         <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H23">
         <v>-0.02295324624049051</v>
@@ -2135,7 +2138,7 @@
         <v>364</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H24">
         <v>-0.02295324624049051</v>
@@ -2161,7 +2164,7 @@
         <v>364</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H25">
         <v>-0.02301172966945214</v>
@@ -2187,7 +2190,7 @@
         <v>369</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H26">
         <v>-0.02589865387852076</v>
@@ -2213,7 +2216,7 @@
         <v>369</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H27">
         <v>-0.02589865387852076</v>
@@ -2239,7 +2242,7 @@
         <v>364</v>
       </c>
       <c r="G28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H28">
         <v>-0.02626756414832453</v>
@@ -2447,7 +2450,7 @@
         <v>364</v>
       </c>
       <c r="G36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H36">
         <v>-0.06005061753433311</v>
@@ -2499,7 +2502,7 @@
         <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H38">
         <v>-0.06906247360740075</v>
@@ -2525,7 +2528,7 @@
         <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H39">
         <v>-0.07114955823238968</v>
@@ -2551,7 +2554,7 @@
         <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H40">
         <v>-0.07119358194302988</v>
@@ -2629,7 +2632,7 @@
         <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H43">
         <v>-0.10892797108307</v>
@@ -2747,7 +2750,7 @@
         <v>364</v>
       </c>
       <c r="G48" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2770,7 +2773,7 @@
         <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2793,7 +2796,7 @@
         <v>364</v>
       </c>
       <c r="G50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2816,7 +2819,7 @@
         <v>364</v>
       </c>
       <c r="G51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2885,7 +2888,7 @@
         <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2908,7 +2911,7 @@
         <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2931,7 +2934,7 @@
         <v>367</v>
       </c>
       <c r="G56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2977,7 +2980,7 @@
         <v>364</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3092,7 +3095,7 @@
         <v>364</v>
       </c>
       <c r="G63" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3115,7 +3118,7 @@
         <v>364</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3138,7 +3141,7 @@
         <v>367</v>
       </c>
       <c r="G65" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3161,7 +3164,7 @@
         <v>367</v>
       </c>
       <c r="G66" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3184,7 +3187,7 @@
         <v>364</v>
       </c>
       <c r="G67" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3253,7 +3256,7 @@
         <v>364</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3276,7 +3279,7 @@
         <v>364</v>
       </c>
       <c r="G71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3299,7 +3302,7 @@
         <v>364</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3414,7 +3417,7 @@
         <v>364</v>
       </c>
       <c r="G77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3460,7 +3463,7 @@
         <v>364</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3529,7 +3532,7 @@
         <v>364</v>
       </c>
       <c r="G82" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3552,7 +3555,7 @@
         <v>364</v>
       </c>
       <c r="G83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3575,7 +3578,7 @@
         <v>369</v>
       </c>
       <c r="G84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3690,7 +3693,7 @@
         <v>364</v>
       </c>
       <c r="G89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3782,7 +3785,7 @@
         <v>364</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3874,7 +3877,7 @@
         <v>372</v>
       </c>
       <c r="G97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3943,7 +3946,7 @@
         <v>214</v>
       </c>
       <c r="G100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3966,7 +3969,7 @@
         <v>364</v>
       </c>
       <c r="G101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3989,7 +3992,7 @@
         <v>364</v>
       </c>
       <c r="G102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4035,7 +4038,7 @@
         <v>214</v>
       </c>
       <c r="G104" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4058,7 +4061,7 @@
         <v>364</v>
       </c>
       <c r="G105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4104,7 +4107,7 @@
         <v>364</v>
       </c>
       <c r="G107" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4173,7 +4176,7 @@
         <v>373</v>
       </c>
       <c r="G110" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4196,7 +4199,7 @@
         <v>373</v>
       </c>
       <c r="G111" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4219,7 +4222,7 @@
         <v>367</v>
       </c>
       <c r="G112" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4242,7 +4245,7 @@
         <v>367</v>
       </c>
       <c r="G113" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4334,7 +4337,7 @@
         <v>364</v>
       </c>
       <c r="G117" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4357,7 +4360,7 @@
         <v>364</v>
       </c>
       <c r="G118" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4380,7 +4383,7 @@
         <v>364</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4403,7 +4406,7 @@
         <v>214</v>
       </c>
       <c r="G120" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4426,7 +4429,7 @@
         <v>364</v>
       </c>
       <c r="G121" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4449,7 +4452,7 @@
         <v>367</v>
       </c>
       <c r="G122" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4472,7 +4475,7 @@
         <v>367</v>
       </c>
       <c r="G123" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4495,7 +4498,7 @@
         <v>367</v>
       </c>
       <c r="G124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4518,7 +4521,7 @@
         <v>367</v>
       </c>
       <c r="G125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4541,7 +4544,7 @@
         <v>369</v>
       </c>
       <c r="G126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4610,7 +4613,7 @@
         <v>214</v>
       </c>
       <c r="G129" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4630,10 +4633,10 @@
         <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4653,10 +4656,10 @@
         <v>302</v>
       </c>
       <c r="F131" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G131" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4679,7 +4682,7 @@
         <v>367</v>
       </c>
       <c r="G132" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4702,7 +4705,7 @@
         <v>367</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4725,7 +4728,7 @@
         <v>364</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4748,7 +4751,7 @@
         <v>364</v>
       </c>
       <c r="G135" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4932,7 +4935,7 @@
         <v>364</v>
       </c>
       <c r="G143" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5070,7 +5073,7 @@
         <v>364</v>
       </c>
       <c r="G149" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5139,7 +5142,7 @@
         <v>364</v>
       </c>
       <c r="G152" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5162,7 +5165,7 @@
         <v>364</v>
       </c>
       <c r="G153" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5208,7 +5211,7 @@
         <v>369</v>
       </c>
       <c r="G155" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5231,7 +5234,7 @@
         <v>364</v>
       </c>
       <c r="G156" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5346,7 +5349,7 @@
         <v>364</v>
       </c>
       <c r="G161" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5369,7 +5372,7 @@
         <v>364</v>
       </c>
       <c r="G162" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5415,7 +5418,7 @@
         <v>364</v>
       </c>
       <c r="G164" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5507,7 +5510,7 @@
         <v>364</v>
       </c>
       <c r="G168" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5530,7 +5533,7 @@
         <v>364</v>
       </c>
       <c r="G169" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5553,7 +5556,7 @@
         <v>364</v>
       </c>
       <c r="G170" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5599,7 +5602,7 @@
         <v>364</v>
       </c>
       <c r="G172" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5622,7 +5625,7 @@
         <v>364</v>
       </c>
       <c r="G173" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5645,7 +5648,7 @@
         <v>364</v>
       </c>
       <c r="G174" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5668,7 +5671,7 @@
         <v>364</v>
       </c>
       <c r="G175" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5691,7 +5694,7 @@
         <v>364</v>
       </c>
       <c r="G176" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5737,7 +5740,7 @@
         <v>364</v>
       </c>
       <c r="G178" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5760,7 +5763,7 @@
         <v>364</v>
       </c>
       <c r="G179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5783,7 +5786,7 @@
         <v>364</v>
       </c>
       <c r="G180" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5806,7 +5809,7 @@
         <v>364</v>
       </c>
       <c r="G181" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5829,7 +5832,7 @@
         <v>364</v>
       </c>
       <c r="G182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5852,7 +5855,7 @@
         <v>364</v>
       </c>
       <c r="G183" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5875,7 +5878,7 @@
         <v>364</v>
       </c>
       <c r="G184" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5941,10 +5944,10 @@
         <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G187" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5964,10 +5967,10 @@
         <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G188" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5990,7 +5993,7 @@
         <v>367</v>
       </c>
       <c r="G189" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6013,7 +6016,7 @@
         <v>367</v>
       </c>
       <c r="G190" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6151,7 +6154,7 @@
         <v>364</v>
       </c>
       <c r="G196" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6174,7 +6177,7 @@
         <v>214</v>
       </c>
       <c r="G197" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6197,7 +6200,7 @@
         <v>364</v>
       </c>
       <c r="G198" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6220,7 +6223,7 @@
         <v>369</v>
       </c>
       <c r="G199" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6243,7 +6246,7 @@
         <v>364</v>
       </c>
       <c r="G200" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6266,7 +6269,7 @@
         <v>364</v>
       </c>
       <c r="G201" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6332,10 +6335,10 @@
         <v>362</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6355,10 +6358,10 @@
         <v>363</v>
       </c>
       <c r="F205" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G205" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/MethylScoreAML_Px_167_cpg_genes.xlsx
+++ b/data/MethylScoreAML_Px_167_cpg_genes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="380">
   <si>
     <t>chrm</t>
   </si>
@@ -640,21 +640,21 @@
     <t>NCR3LG1</t>
   </si>
   <si>
+    <t>RP11-45A17.2</t>
+  </si>
+  <si>
     <t>BNIP3</t>
   </si>
   <si>
-    <t>RP11-45A17.2</t>
-  </si>
-  <si>
     <t>SERINC5</t>
   </si>
   <si>
+    <t>NEAT1</t>
+  </si>
+  <si>
     <t>NEAT1_3</t>
   </si>
   <si>
-    <t>NEAT1</t>
-  </si>
-  <si>
     <t>NEAT1_2</t>
   </si>
   <si>
@@ -667,21 +667,21 @@
     <t>HCAR1</t>
   </si>
   <si>
+    <t>AGAP2</t>
+  </si>
+  <si>
     <t>TSPAN31</t>
   </si>
   <si>
-    <t>AGAP2</t>
-  </si>
-  <si>
     <t>EDARADD</t>
   </si>
   <si>
+    <t>CTD-2162K18.4</t>
+  </si>
+  <si>
     <t>CTD-2162K18.3</t>
   </si>
   <si>
-    <t>CTD-2162K18.4</t>
-  </si>
-  <si>
     <t>PSMB9</t>
   </si>
   <si>
@@ -694,15 +694,15 @@
     <t>CD93</t>
   </si>
   <si>
+    <t>RP11-45M22.4</t>
+  </si>
+  <si>
+    <t>MPRIP</t>
+  </si>
+  <si>
     <t>FLCN</t>
   </si>
   <si>
-    <t>RP11-45M22.4</t>
-  </si>
-  <si>
-    <t>MPRIP</t>
-  </si>
-  <si>
     <t>FPR3</t>
   </si>
   <si>
@@ -727,39 +727,39 @@
     <t>PRKAR1B</t>
   </si>
   <si>
+    <t>ANKRD11</t>
+  </si>
+  <si>
     <t>RP1-168P16.2</t>
   </si>
   <si>
-    <t>ANKRD11</t>
-  </si>
-  <si>
     <t>MFAP4</t>
   </si>
   <si>
     <t>TSC2</t>
   </si>
   <si>
+    <t>FXR2</t>
+  </si>
+  <si>
     <t>SHBG</t>
   </si>
   <si>
-    <t>FXR2</t>
-  </si>
-  <si>
     <t>IRF8</t>
   </si>
   <si>
     <t>SEMA3D</t>
   </si>
   <si>
+    <t>GPR146</t>
+  </si>
+  <si>
+    <t>C7orf50</t>
+  </si>
+  <si>
     <t>RP11-449P15.1</t>
   </si>
   <si>
-    <t>GPR146</t>
-  </si>
-  <si>
-    <t>C7orf50</t>
-  </si>
-  <si>
     <t>TIMM10B</t>
   </si>
   <si>
@@ -781,12 +781,12 @@
     <t>MANEAL</t>
   </si>
   <si>
+    <t>CTBP1-AS</t>
+  </si>
+  <si>
     <t>SPON2</t>
   </si>
   <si>
-    <t>CTBP1-AS</t>
-  </si>
-  <si>
     <t>PDIA5</t>
   </si>
   <si>
@@ -880,21 +880,21 @@
     <t>LINC01006</t>
   </si>
   <si>
+    <t>PPM1F</t>
+  </si>
+  <si>
     <t>LL22NC03-86G7.1</t>
   </si>
   <si>
-    <t>PPM1F</t>
-  </si>
-  <si>
     <t>PMM2</t>
   </si>
   <si>
+    <t>RP11-152P23.2</t>
+  </si>
+  <si>
     <t>RP11-77H9.2</t>
   </si>
   <si>
-    <t>RP11-152P23.2</t>
-  </si>
-  <si>
     <t>KIF7</t>
   </si>
   <si>
@@ -910,12 +910,12 @@
     <t>RP5-858L17.1</t>
   </si>
   <si>
+    <t>SNCA</t>
+  </si>
+  <si>
     <t>SNCA-AS1</t>
   </si>
   <si>
-    <t>SNCA</t>
-  </si>
-  <si>
     <t>LYPD6B</t>
   </si>
   <si>
@@ -940,12 +940,12 @@
     <t>PLVAP</t>
   </si>
   <si>
+    <t>KLK6</t>
+  </si>
+  <si>
     <t>CTB-147C22.9</t>
   </si>
   <si>
-    <t>KLK6</t>
-  </si>
-  <si>
     <t>DNAJC28</t>
   </si>
   <si>
@@ -1015,60 +1015,60 @@
     <t>PDE10A</t>
   </si>
   <si>
+    <t>MUTYH</t>
+  </si>
+  <si>
     <t>TOE1</t>
   </si>
   <si>
-    <t>MUTYH</t>
-  </si>
-  <si>
     <t>PTPRN2</t>
   </si>
   <si>
+    <t>ARHGAP9</t>
+  </si>
+  <si>
     <t>MARS</t>
   </si>
   <si>
-    <t>ARHGAP9</t>
-  </si>
-  <si>
     <t>MYCN</t>
   </si>
   <si>
     <t>LRP1</t>
   </si>
   <si>
+    <t>NSL1</t>
+  </si>
+  <si>
     <t>TATDN3</t>
   </si>
   <si>
-    <t>NSL1</t>
-  </si>
-  <si>
     <t>BRD1</t>
   </si>
   <si>
+    <t>ZNF432</t>
+  </si>
+  <si>
     <t>ZNF841</t>
   </si>
   <si>
-    <t>ZNF432</t>
-  </si>
-  <si>
     <t>SLC39A2</t>
   </si>
   <si>
     <t>RP11-84C10.4</t>
   </si>
   <si>
+    <t>TPRG1</t>
+  </si>
+  <si>
     <t>TPRG1-AS1</t>
   </si>
   <si>
-    <t>TPRG1</t>
+    <t>GAN</t>
   </si>
   <si>
     <t>RP11-55K13.1</t>
   </si>
   <si>
-    <t>GAN</t>
-  </si>
-  <si>
     <t>CCNY</t>
   </si>
   <si>
@@ -1078,12 +1078,12 @@
     <t>HMOX2</t>
   </si>
   <si>
+    <t>FAM53B</t>
+  </si>
+  <si>
     <t>RP11-12J10.3</t>
   </si>
   <si>
-    <t>FAM53B</t>
-  </si>
-  <si>
     <t>RPN1</t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>protein_coding;antisense</t>
+    <t>antisense;protein_coding</t>
   </si>
   <si>
     <t>lincRNA;misc_RNA</t>
@@ -1126,7 +1126,7 @@
     <t>lincRNA</t>
   </si>
   <si>
-    <t>protein_coding;sense_intronic</t>
+    <t>sense_intronic;protein_coding</t>
   </si>
   <si>
     <t>processed_pseudogene</t>
@@ -1136,9 +1136,6 @@
   </si>
   <si>
     <t>lincRNA;protein_coding</t>
-  </si>
-  <si>
-    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>processed_pseudogene;protein_coding</t>
@@ -1566,7 +1563,7 @@
         <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H2">
         <v>0.1649028305157629</v>
@@ -1618,7 +1615,7 @@
         <v>364</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4">
         <v>0.08905797668532893</v>
@@ -1644,7 +1641,7 @@
         <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5">
         <v>0.08669651961992604</v>
@@ -1670,7 +1667,7 @@
         <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H6">
         <v>0.07738182767122098</v>
@@ -1722,7 +1719,7 @@
         <v>364</v>
       </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8">
         <v>0.07320136628661969</v>
@@ -1774,7 +1771,7 @@
         <v>366</v>
       </c>
       <c r="G10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10">
         <v>0.06280911307235237</v>
@@ -1826,7 +1823,7 @@
         <v>364</v>
       </c>
       <c r="G12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12">
         <v>0.0485251619655532</v>
@@ -1930,7 +1927,7 @@
         <v>368</v>
       </c>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H16">
         <v>0.03028008381413899</v>
@@ -1956,7 +1953,7 @@
         <v>368</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H17">
         <v>0.03028008381413899</v>
@@ -1982,7 +1979,7 @@
         <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18">
         <v>0.03028008381413899</v>
@@ -2034,7 +2031,7 @@
         <v>364</v>
       </c>
       <c r="G20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20">
         <v>-0.002808440068965501</v>
@@ -2060,7 +2057,7 @@
         <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H21">
         <v>-0.008283092760132105</v>
@@ -2112,7 +2109,7 @@
         <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H23">
         <v>-0.02295324624049051</v>
@@ -2138,7 +2135,7 @@
         <v>364</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24">
         <v>-0.02295324624049051</v>
@@ -2164,7 +2161,7 @@
         <v>364</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H25">
         <v>-0.02301172966945214</v>
@@ -2190,7 +2187,7 @@
         <v>369</v>
       </c>
       <c r="G26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26">
         <v>-0.02589865387852076</v>
@@ -2216,7 +2213,7 @@
         <v>369</v>
       </c>
       <c r="G27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H27">
         <v>-0.02589865387852076</v>
@@ -2242,7 +2239,7 @@
         <v>364</v>
       </c>
       <c r="G28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H28">
         <v>-0.02626756414832453</v>
@@ -2450,7 +2447,7 @@
         <v>364</v>
       </c>
       <c r="G36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H36">
         <v>-0.06005061753433311</v>
@@ -2502,7 +2499,7 @@
         <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H38">
         <v>-0.06906247360740075</v>
@@ -2528,7 +2525,7 @@
         <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H39">
         <v>-0.07114955823238968</v>
@@ -2554,7 +2551,7 @@
         <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H40">
         <v>-0.07119358194302988</v>
@@ -2632,7 +2629,7 @@
         <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H43">
         <v>-0.10892797108307</v>
@@ -2750,7 +2747,7 @@
         <v>364</v>
       </c>
       <c r="G48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2773,7 +2770,7 @@
         <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2796,7 +2793,7 @@
         <v>364</v>
       </c>
       <c r="G50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2819,7 +2816,7 @@
         <v>364</v>
       </c>
       <c r="G51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2888,7 +2885,7 @@
         <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2911,7 +2908,7 @@
         <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2934,7 +2931,7 @@
         <v>367</v>
       </c>
       <c r="G56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2980,7 +2977,7 @@
         <v>364</v>
       </c>
       <c r="G58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3095,7 +3092,7 @@
         <v>364</v>
       </c>
       <c r="G63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3118,7 +3115,7 @@
         <v>364</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3141,7 +3138,7 @@
         <v>367</v>
       </c>
       <c r="G65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3164,7 +3161,7 @@
         <v>367</v>
       </c>
       <c r="G66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3187,7 +3184,7 @@
         <v>364</v>
       </c>
       <c r="G67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3256,7 +3253,7 @@
         <v>364</v>
       </c>
       <c r="G70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3279,7 +3276,7 @@
         <v>364</v>
       </c>
       <c r="G71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3302,7 +3299,7 @@
         <v>364</v>
       </c>
       <c r="G72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3417,7 +3414,7 @@
         <v>364</v>
       </c>
       <c r="G77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3463,7 +3460,7 @@
         <v>364</v>
       </c>
       <c r="G79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3532,7 +3529,7 @@
         <v>364</v>
       </c>
       <c r="G82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3555,7 +3552,7 @@
         <v>364</v>
       </c>
       <c r="G83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3578,7 +3575,7 @@
         <v>369</v>
       </c>
       <c r="G84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3693,7 +3690,7 @@
         <v>364</v>
       </c>
       <c r="G89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3785,7 +3782,7 @@
         <v>364</v>
       </c>
       <c r="G93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3877,7 +3874,7 @@
         <v>372</v>
       </c>
       <c r="G97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3946,7 +3943,7 @@
         <v>214</v>
       </c>
       <c r="G100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3969,7 +3966,7 @@
         <v>364</v>
       </c>
       <c r="G101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3992,7 +3989,7 @@
         <v>364</v>
       </c>
       <c r="G102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4038,7 +4035,7 @@
         <v>214</v>
       </c>
       <c r="G104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4061,7 +4058,7 @@
         <v>364</v>
       </c>
       <c r="G105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4107,7 +4104,7 @@
         <v>364</v>
       </c>
       <c r="G107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4176,7 +4173,7 @@
         <v>373</v>
       </c>
       <c r="G110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4199,7 +4196,7 @@
         <v>373</v>
       </c>
       <c r="G111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4222,7 +4219,7 @@
         <v>367</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4245,7 +4242,7 @@
         <v>367</v>
       </c>
       <c r="G113" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4337,7 +4334,7 @@
         <v>364</v>
       </c>
       <c r="G117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4360,7 +4357,7 @@
         <v>364</v>
       </c>
       <c r="G118" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4383,7 +4380,7 @@
         <v>364</v>
       </c>
       <c r="G119" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4406,7 +4403,7 @@
         <v>214</v>
       </c>
       <c r="G120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4429,7 +4426,7 @@
         <v>364</v>
       </c>
       <c r="G121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4452,7 +4449,7 @@
         <v>367</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4475,7 +4472,7 @@
         <v>367</v>
       </c>
       <c r="G123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4498,7 +4495,7 @@
         <v>367</v>
       </c>
       <c r="G124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4521,7 +4518,7 @@
         <v>367</v>
       </c>
       <c r="G125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4538,13 +4535,13 @@
         <v>65424237</v>
       </c>
       <c r="E126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F126" t="s">
         <v>369</v>
       </c>
       <c r="G126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4584,7 +4581,7 @@
         <v>17051540</v>
       </c>
       <c r="E128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
         <v>364</v>
@@ -4613,7 +4610,7 @@
         <v>214</v>
       </c>
       <c r="G129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4633,10 +4630,10 @@
         <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4656,10 +4653,10 @@
         <v>302</v>
       </c>
       <c r="F131" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4682,7 +4679,7 @@
         <v>367</v>
       </c>
       <c r="G132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4705,7 +4702,7 @@
         <v>367</v>
       </c>
       <c r="G133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4728,7 +4725,7 @@
         <v>364</v>
       </c>
       <c r="G134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4751,7 +4748,7 @@
         <v>364</v>
       </c>
       <c r="G135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4935,7 +4932,7 @@
         <v>364</v>
       </c>
       <c r="G143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5073,7 +5070,7 @@
         <v>364</v>
       </c>
       <c r="G149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5142,7 +5139,7 @@
         <v>364</v>
       </c>
       <c r="G152" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5165,7 +5162,7 @@
         <v>364</v>
       </c>
       <c r="G153" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5211,7 +5208,7 @@
         <v>369</v>
       </c>
       <c r="G155" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5234,7 +5231,7 @@
         <v>364</v>
       </c>
       <c r="G156" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5349,7 +5346,7 @@
         <v>364</v>
       </c>
       <c r="G161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5372,7 +5369,7 @@
         <v>364</v>
       </c>
       <c r="G162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5418,7 +5415,7 @@
         <v>364</v>
       </c>
       <c r="G164" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5510,7 +5507,7 @@
         <v>364</v>
       </c>
       <c r="G168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5533,7 +5530,7 @@
         <v>364</v>
       </c>
       <c r="G169" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5556,7 +5553,7 @@
         <v>364</v>
       </c>
       <c r="G170" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5602,7 +5599,7 @@
         <v>364</v>
       </c>
       <c r="G172" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5625,7 +5622,7 @@
         <v>364</v>
       </c>
       <c r="G173" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5648,7 +5645,7 @@
         <v>364</v>
       </c>
       <c r="G174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5671,7 +5668,7 @@
         <v>364</v>
       </c>
       <c r="G175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5694,7 +5691,7 @@
         <v>364</v>
       </c>
       <c r="G176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5740,7 +5737,7 @@
         <v>364</v>
       </c>
       <c r="G178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5763,7 +5760,7 @@
         <v>364</v>
       </c>
       <c r="G179" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5786,7 +5783,7 @@
         <v>364</v>
       </c>
       <c r="G180" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5809,7 +5806,7 @@
         <v>364</v>
       </c>
       <c r="G181" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5832,7 +5829,7 @@
         <v>364</v>
       </c>
       <c r="G182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5855,7 +5852,7 @@
         <v>364</v>
       </c>
       <c r="G183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5878,7 +5875,7 @@
         <v>364</v>
       </c>
       <c r="G184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5944,10 +5941,10 @@
         <v>347</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G187" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5967,10 +5964,10 @@
         <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G188" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5993,7 +5990,7 @@
         <v>367</v>
       </c>
       <c r="G189" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6016,7 +6013,7 @@
         <v>367</v>
       </c>
       <c r="G190" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6154,7 +6151,7 @@
         <v>364</v>
       </c>
       <c r="G196" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6177,7 +6174,7 @@
         <v>214</v>
       </c>
       <c r="G197" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6200,7 +6197,7 @@
         <v>364</v>
       </c>
       <c r="G198" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6223,7 +6220,7 @@
         <v>369</v>
       </c>
       <c r="G199" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6246,7 +6243,7 @@
         <v>364</v>
       </c>
       <c r="G200" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6269,7 +6266,7 @@
         <v>364</v>
       </c>
       <c r="G201" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6335,10 +6332,10 @@
         <v>362</v>
       </c>
       <c r="F204" t="s">
+        <v>374</v>
+      </c>
+      <c r="G204" t="s">
         <v>375</v>
-      </c>
-      <c r="G204" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6358,10 +6355,10 @@
         <v>363</v>
       </c>
       <c r="F205" t="s">
+        <v>374</v>
+      </c>
+      <c r="G205" t="s">
         <v>375</v>
-      </c>
-      <c r="G205" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/data/MethylScoreAML_Px_167_cpg_genes.xlsx
+++ b/data/MethylScoreAML_Px_167_cpg_genes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="420">
   <si>
     <t>chrm</t>
   </si>
@@ -40,7 +40,22 @@
     <t>probeID</t>
   </si>
   <si>
-    <t>cg22855993</t>
+    <t>cg20219911</t>
+  </si>
+  <si>
+    <t>cg02678414</t>
+  </si>
+  <si>
+    <t>cg00151914</t>
+  </si>
+  <si>
+    <t>cg25035655</t>
+  </si>
+  <si>
+    <t>cg14978242</t>
+  </si>
+  <si>
+    <t>cg14882966</t>
   </si>
   <si>
     <t>cg17099306</t>
@@ -49,505 +64,577 @@
     <t>cg10089193</t>
   </si>
   <si>
-    <t>cg22162847</t>
+    <t>cg16147063</t>
   </si>
   <si>
     <t>cg09890699</t>
   </si>
   <si>
+    <t>cg17389427</t>
+  </si>
+  <si>
+    <t>cg04665204</t>
+  </si>
+  <si>
+    <t>cg00532502</t>
+  </si>
+  <si>
+    <t>cg05800336</t>
+  </si>
+  <si>
+    <t>cg17669009</t>
+  </si>
+  <si>
+    <t>cg04663203</t>
+  </si>
+  <si>
+    <t>cg19706516</t>
+  </si>
+  <si>
+    <t>cg05348324</t>
+  </si>
+  <si>
+    <t>cg19839026</t>
+  </si>
+  <si>
+    <t>cg04516952</t>
+  </si>
+  <si>
+    <t>cg18072388</t>
+  </si>
+  <si>
+    <t>cg13440692</t>
+  </si>
+  <si>
+    <t>cg10098541</t>
+  </si>
+  <si>
+    <t>cg00945409</t>
+  </si>
+  <si>
+    <t>cg04092699</t>
+  </si>
+  <si>
+    <t>cg06785302</t>
+  </si>
+  <si>
+    <t>cg13360395</t>
+  </si>
+  <si>
+    <t>cg03601372</t>
+  </si>
+  <si>
+    <t>cg04205653</t>
+  </si>
+  <si>
+    <t>cg11064395</t>
+  </si>
+  <si>
+    <t>cg23458843</t>
+  </si>
+  <si>
+    <t>cg21170304</t>
+  </si>
+  <si>
+    <t>cg11818438</t>
+  </si>
+  <si>
+    <t>cg07080653</t>
+  </si>
+  <si>
+    <t>cg18964582</t>
+  </si>
+  <si>
+    <t>cg10280339</t>
+  </si>
+  <si>
+    <t>cg13702536</t>
+  </si>
+  <si>
+    <t>cg18156551</t>
+  </si>
+  <si>
+    <t>cg00059652</t>
+  </si>
+  <si>
+    <t>cg14928764</t>
+  </si>
+  <si>
+    <t>cg26223555</t>
+  </si>
+  <si>
+    <t>cg16424082</t>
+  </si>
+  <si>
+    <t>cg08900363</t>
+  </si>
+  <si>
+    <t>cg06748884</t>
+  </si>
+  <si>
+    <t>cg06339275</t>
+  </si>
+  <si>
+    <t>cg17632028</t>
+  </si>
+  <si>
+    <t>cg04839706</t>
+  </si>
+  <si>
+    <t>cg02905663</t>
+  </si>
+  <si>
+    <t>cg00920892</t>
+  </si>
+  <si>
+    <t>cg08404702</t>
+  </si>
+  <si>
+    <t>cg01543603</t>
+  </si>
+  <si>
+    <t>cg00192882</t>
+  </si>
+  <si>
     <t>cg08329113</t>
   </si>
   <si>
-    <t>cg18072388</t>
-  </si>
-  <si>
-    <t>cg00920892</t>
-  </si>
-  <si>
-    <t>cg19706516</t>
-  </si>
-  <si>
-    <t>cg17669009</t>
+    <t>cg20018344</t>
+  </si>
+  <si>
+    <t>cg26361535</t>
+  </si>
+  <si>
+    <t>cg01052291</t>
+  </si>
+  <si>
+    <t>cg05430997</t>
+  </si>
+  <si>
+    <t>cg07660635</t>
+  </si>
+  <si>
+    <t>cg04220636</t>
+  </si>
+  <si>
+    <t>cg07143043</t>
+  </si>
+  <si>
+    <t>cg18062721</t>
+  </si>
+  <si>
+    <t>cg19432033</t>
+  </si>
+  <si>
+    <t>cg22410826</t>
+  </si>
+  <si>
+    <t>cg22760287</t>
+  </si>
+  <si>
+    <t>cg25292309</t>
+  </si>
+  <si>
+    <t>cg20310759</t>
+  </si>
+  <si>
+    <t>cg27049094</t>
+  </si>
+  <si>
+    <t>cg11801959</t>
+  </si>
+  <si>
+    <t>cg06585893</t>
+  </si>
+  <si>
+    <t>cg03801691</t>
+  </si>
+  <si>
+    <t>cg27064178</t>
+  </si>
+  <si>
+    <t>cg15787807</t>
+  </si>
+  <si>
+    <t>cg10009497</t>
+  </si>
+  <si>
+    <t>cg13213755</t>
+  </si>
+  <si>
+    <t>cg21229337</t>
+  </si>
+  <si>
+    <t>cg20703895</t>
+  </si>
+  <si>
+    <t>cg04857395</t>
+  </si>
+  <si>
+    <t>cg13984533</t>
+  </si>
+  <si>
+    <t>cg19708903</t>
+  </si>
+  <si>
+    <t>cg00206490</t>
+  </si>
+  <si>
+    <t>cg10187365</t>
+  </si>
+  <si>
+    <t>cg18886274</t>
+  </si>
+  <si>
+    <t>cg05480169</t>
+  </si>
+  <si>
+    <t>cg18437839</t>
+  </si>
+  <si>
+    <t>cg10057841</t>
+  </si>
+  <si>
+    <t>cg16958939</t>
+  </si>
+  <si>
+    <t>cg05102794</t>
+  </si>
+  <si>
+    <t>cg16429055</t>
+  </si>
+  <si>
+    <t>cg21094613</t>
+  </si>
+  <si>
+    <t>cg00460983</t>
+  </si>
+  <si>
+    <t>cg01771213</t>
+  </si>
+  <si>
+    <t>cg20964021</t>
+  </si>
+  <si>
+    <t>cg16822174</t>
+  </si>
+  <si>
+    <t>cg05413061</t>
+  </si>
+  <si>
+    <t>cg13720395</t>
+  </si>
+  <si>
+    <t>cg08467866</t>
+  </si>
+  <si>
+    <t>cg20429981</t>
+  </si>
+  <si>
+    <t>cg08480739</t>
+  </si>
+  <si>
+    <t>cg01312394</t>
+  </si>
+  <si>
+    <t>cg02988730</t>
+  </si>
+  <si>
+    <t>cg13846675</t>
+  </si>
+  <si>
+    <t>cg00598235</t>
+  </si>
+  <si>
+    <t>cg10817441</t>
+  </si>
+  <si>
+    <t>cg21617903</t>
+  </si>
+  <si>
+    <t>cg16179125</t>
+  </si>
+  <si>
+    <t>cg14037250</t>
+  </si>
+  <si>
+    <t>cg19345219</t>
+  </si>
+  <si>
+    <t>cg15576082</t>
+  </si>
+  <si>
+    <t>cg26310429</t>
+  </si>
+  <si>
+    <t>cg00549798</t>
+  </si>
+  <si>
+    <t>cg11823637</t>
+  </si>
+  <si>
+    <t>cg25376409</t>
+  </si>
+  <si>
+    <t>cg03092447</t>
+  </si>
+  <si>
+    <t>cg18151487</t>
+  </si>
+  <si>
+    <t>cg15586054</t>
+  </si>
+  <si>
+    <t>cg21739530</t>
+  </si>
+  <si>
+    <t>cg17511968</t>
+  </si>
+  <si>
+    <t>cg19137417</t>
+  </si>
+  <si>
+    <t>cg16449402</t>
+  </si>
+  <si>
+    <t>cg21750233</t>
+  </si>
+  <si>
+    <t>cg02348449</t>
+  </si>
+  <si>
+    <t>cg12762600</t>
+  </si>
+  <si>
+    <t>cg23152216</t>
+  </si>
+  <si>
+    <t>cg23128949</t>
+  </si>
+  <si>
+    <t>cg13857210</t>
+  </si>
+  <si>
+    <t>cg07536737</t>
+  </si>
+  <si>
+    <t>cg16721321</t>
+  </si>
+  <si>
+    <t>cg09140274</t>
+  </si>
+  <si>
+    <t>cg21262032</t>
+  </si>
+  <si>
+    <t>cg10759293</t>
+  </si>
+  <si>
+    <t>cg06605704</t>
+  </si>
+  <si>
+    <t>cg04400145</t>
+  </si>
+  <si>
+    <t>cg21932513</t>
+  </si>
+  <si>
+    <t>cg02957270</t>
+  </si>
+  <si>
+    <t>cg10591771</t>
+  </si>
+  <si>
+    <t>cg17078656</t>
+  </si>
+  <si>
+    <t>cg15830431</t>
+  </si>
+  <si>
+    <t>cg00223135</t>
+  </si>
+  <si>
+    <t>cg17104202</t>
+  </si>
+  <si>
+    <t>cg03071245</t>
+  </si>
+  <si>
+    <t>cg19357999</t>
+  </si>
+  <si>
+    <t>cg11887376</t>
+  </si>
+  <si>
+    <t>cg19479744</t>
+  </si>
+  <si>
+    <t>cg18586780</t>
+  </si>
+  <si>
+    <t>cg26984593</t>
+  </si>
+  <si>
+    <t>cg13689831</t>
+  </si>
+  <si>
+    <t>cg26373351</t>
+  </si>
+  <si>
+    <t>cg03596113</t>
+  </si>
+  <si>
+    <t>cg23613253</t>
+  </si>
+  <si>
+    <t>cg18898209</t>
+  </si>
+  <si>
+    <t>cg27658601</t>
+  </si>
+  <si>
+    <t>cg03922381</t>
+  </si>
+  <si>
+    <t>cg19980929</t>
+  </si>
+  <si>
+    <t>cg03762237</t>
+  </si>
+  <si>
+    <t>cg01881444</t>
+  </si>
+  <si>
+    <t>cg20435097</t>
+  </si>
+  <si>
+    <t>cg05482050</t>
+  </si>
+  <si>
+    <t>cg09632163</t>
+  </si>
+  <si>
+    <t>cg22266824</t>
+  </si>
+  <si>
+    <t>cg01983248</t>
+  </si>
+  <si>
+    <t>cg10526478</t>
   </si>
   <si>
     <t>cg06142946</t>
   </si>
   <si>
-    <t>cg07143043</t>
-  </si>
-  <si>
-    <t>cg14978242</t>
-  </si>
-  <si>
-    <t>cg09411730</t>
-  </si>
-  <si>
-    <t>cg05348324</t>
-  </si>
-  <si>
-    <t>cg13213755</t>
-  </si>
-  <si>
-    <t>cg10280339</t>
-  </si>
-  <si>
-    <t>cg13702536</t>
-  </si>
-  <si>
-    <t>cg23458843</t>
-  </si>
-  <si>
-    <t>cg18964582</t>
-  </si>
-  <si>
-    <t>cg03601372</t>
-  </si>
-  <si>
-    <t>cg10817441</t>
-  </si>
-  <si>
-    <t>cg10805039</t>
-  </si>
-  <si>
-    <t>cg01771213</t>
-  </si>
-  <si>
-    <t>cg14928764</t>
-  </si>
-  <si>
-    <t>cg21637653</t>
-  </si>
-  <si>
-    <t>cg26223555</t>
-  </si>
-  <si>
-    <t>cg17632028</t>
-  </si>
-  <si>
-    <t>cg06748884</t>
-  </si>
-  <si>
-    <t>cg26846864</t>
-  </si>
-  <si>
-    <t>cg04839706</t>
-  </si>
-  <si>
-    <t>cg23875404</t>
-  </si>
-  <si>
-    <t>cg16424082</t>
-  </si>
-  <si>
-    <t>cg06339275</t>
-  </si>
-  <si>
-    <t>cg02918093</t>
-  </si>
-  <si>
-    <t>cg08900363</t>
-  </si>
-  <si>
-    <t>cg01543603</t>
-  </si>
-  <si>
-    <t>cg00192882</t>
-  </si>
-  <si>
-    <t>cg08404702</t>
-  </si>
-  <si>
-    <t>cg19432033</t>
-  </si>
-  <si>
-    <t>cg07660635</t>
-  </si>
-  <si>
-    <t>cg05480169</t>
-  </si>
-  <si>
-    <t>cg18886274</t>
-  </si>
-  <si>
-    <t>cg10009497</t>
-  </si>
-  <si>
-    <t>cg20703895</t>
-  </si>
-  <si>
-    <t>cg21750233</t>
-  </si>
-  <si>
-    <t>cg20018344</t>
-  </si>
-  <si>
-    <t>cg23128949</t>
-  </si>
-  <si>
-    <t>cg11823637</t>
-  </si>
-  <si>
-    <t>cg25292309</t>
-  </si>
-  <si>
-    <t>cg15787807</t>
-  </si>
-  <si>
-    <t>cg13984533</t>
-  </si>
-  <si>
-    <t>cg16721321</t>
-  </si>
-  <si>
-    <t>cg10098541</t>
-  </si>
-  <si>
-    <t>cg01614643</t>
-  </si>
-  <si>
-    <t>cg13360395</t>
-  </si>
-  <si>
-    <t>cg18586780</t>
-  </si>
-  <si>
-    <t>cg18151487</t>
-  </si>
-  <si>
-    <t>cg00059652</t>
-  </si>
-  <si>
-    <t>cg26310429</t>
-  </si>
-  <si>
-    <t>cg06585893</t>
-  </si>
-  <si>
-    <t>cg04205653</t>
-  </si>
-  <si>
     <t>cg00550080</t>
   </si>
   <si>
-    <t>cg16449402</t>
-  </si>
-  <si>
-    <t>cg12251145</t>
-  </si>
-  <si>
-    <t>cg26361535</t>
-  </si>
-  <si>
-    <t>cg21785847</t>
-  </si>
-  <si>
-    <t>cg15081720</t>
-  </si>
-  <si>
-    <t>cg13857210</t>
+    <t>cg19827511</t>
+  </si>
+  <si>
+    <t>cg15346842</t>
+  </si>
+  <si>
+    <t>cg03445800</t>
+  </si>
+  <si>
+    <t>cg15119221</t>
+  </si>
+  <si>
+    <t>cg26379258</t>
+  </si>
+  <si>
+    <t>cg13691108</t>
+  </si>
+  <si>
+    <t>cg20378520</t>
+  </si>
+  <si>
+    <t>cg02205013</t>
+  </si>
+  <si>
+    <t>cg21477075</t>
+  </si>
+  <si>
+    <t>cg14134256</t>
+  </si>
+  <si>
+    <t>cg13696545</t>
+  </si>
+  <si>
+    <t>cg13844237</t>
+  </si>
+  <si>
+    <t>cg18482303</t>
+  </si>
+  <si>
+    <t>cg09796602</t>
+  </si>
+  <si>
+    <t>cg16451525</t>
+  </si>
+  <si>
+    <t>cg16512727</t>
+  </si>
+  <si>
+    <t>cg02642565</t>
+  </si>
+  <si>
+    <t>cg09187054</t>
+  </si>
+  <si>
+    <t>cg22624391</t>
+  </si>
+  <si>
+    <t>cg22560020</t>
+  </si>
+  <si>
+    <t>cg04371567</t>
+  </si>
+  <si>
+    <t>cg06721473</t>
+  </si>
+  <si>
+    <t>cg25737891</t>
   </si>
   <si>
     <t>cg15022671</t>
   </si>
   <si>
-    <t>cg15119221</t>
-  </si>
-  <si>
-    <t>cg18437839</t>
-  </si>
-  <si>
-    <t>cg08480739</t>
-  </si>
-  <si>
-    <t>cg03769055</t>
-  </si>
-  <si>
-    <t>cg01312394</t>
-  </si>
-  <si>
-    <t>cg11818438</t>
-  </si>
-  <si>
-    <t>cg00223135</t>
-  </si>
-  <si>
-    <t>cg08467866</t>
-  </si>
-  <si>
-    <t>cg00206490</t>
-  </si>
-  <si>
-    <t>cg00945409</t>
-  </si>
-  <si>
-    <t>cg21739530</t>
-  </si>
-  <si>
-    <t>cg03596113</t>
-  </si>
-  <si>
-    <t>cg01591830</t>
-  </si>
-  <si>
-    <t>cg10057841</t>
-  </si>
-  <si>
-    <t>cg01443071</t>
-  </si>
-  <si>
-    <t>cg04092699</t>
-  </si>
-  <si>
-    <t>cg09281220</t>
-  </si>
-  <si>
-    <t>cg21477075</t>
-  </si>
-  <si>
-    <t>cg16822174</t>
-  </si>
-  <si>
-    <t>cg18581405</t>
-  </si>
-  <si>
-    <t>cg04407248</t>
-  </si>
-  <si>
-    <t>cg19479744</t>
-  </si>
-  <si>
-    <t>cg20964021</t>
-  </si>
-  <si>
-    <t>cg25898577</t>
-  </si>
-  <si>
-    <t>cg27018309</t>
-  </si>
-  <si>
-    <t>cg12762600</t>
-  </si>
-  <si>
-    <t>cg27658601</t>
-  </si>
-  <si>
-    <t>cg07593405</t>
-  </si>
-  <si>
-    <t>cg19461880</t>
-  </si>
-  <si>
-    <t>cg04400145</t>
-  </si>
-  <si>
-    <t>cg11661187</t>
-  </si>
-  <si>
-    <t>cg18019132</t>
-  </si>
-  <si>
-    <t>cg00539049</t>
-  </si>
-  <si>
-    <t>cg16429055</t>
-  </si>
-  <si>
-    <t>cg09140274</t>
-  </si>
-  <si>
-    <t>cg07253321</t>
-  </si>
-  <si>
-    <t>cg26130533</t>
-  </si>
-  <si>
-    <t>cg11600161</t>
-  </si>
-  <si>
-    <t>cg11840849</t>
-  </si>
-  <si>
-    <t>cg18062721</t>
-  </si>
-  <si>
-    <t>cg03445800</t>
-  </si>
-  <si>
-    <t>cg15219347</t>
-  </si>
-  <si>
-    <t>cg04516952</t>
-  </si>
-  <si>
-    <t>cg11958234</t>
-  </si>
-  <si>
-    <t>cg10187365</t>
-  </si>
-  <si>
-    <t>cg15538767</t>
+    <t>cg21093005</t>
   </si>
   <si>
     <t>cg03272932</t>
   </si>
   <si>
-    <t>cg01140244</t>
-  </si>
-  <si>
-    <t>cg17078656</t>
-  </si>
-  <si>
-    <t>cg24800630</t>
-  </si>
-  <si>
-    <t>cg17518965</t>
-  </si>
-  <si>
-    <t>cg04339462</t>
-  </si>
-  <si>
-    <t>cg25392500</t>
-  </si>
-  <si>
-    <t>cg21955549</t>
-  </si>
-  <si>
-    <t>cg20460366</t>
-  </si>
-  <si>
-    <t>cg23716141</t>
-  </si>
-  <si>
-    <t>cg05482050</t>
-  </si>
-  <si>
-    <t>cg10695490</t>
-  </si>
-  <si>
-    <t>cg20378520</t>
-  </si>
-  <si>
-    <t>cg12984636</t>
-  </si>
-  <si>
-    <t>cg09797463</t>
-  </si>
-  <si>
-    <t>cg01052291</t>
-  </si>
-  <si>
-    <t>cg13691108</t>
-  </si>
-  <si>
-    <t>cg09744397</t>
-  </si>
-  <si>
-    <t>cg22401679</t>
-  </si>
-  <si>
-    <t>cg18530324</t>
-  </si>
-  <si>
-    <t>cg07892374</t>
-  </si>
-  <si>
-    <t>cg01782668</t>
-  </si>
-  <si>
-    <t>cg21094613</t>
-  </si>
-  <si>
-    <t>cg27125093</t>
-  </si>
-  <si>
-    <t>cg13927938</t>
-  </si>
-  <si>
-    <t>cg15586054</t>
-  </si>
-  <si>
-    <t>cg22571135</t>
-  </si>
-  <si>
-    <t>cg21853989</t>
-  </si>
-  <si>
-    <t>cg08742262</t>
-  </si>
-  <si>
-    <t>cg16280363</t>
-  </si>
-  <si>
-    <t>cg09218727</t>
-  </si>
-  <si>
-    <t>cg25074809</t>
-  </si>
-  <si>
-    <t>cg06715885</t>
-  </si>
-  <si>
-    <t>cg03040821</t>
-  </si>
-  <si>
-    <t>cg27064178</t>
-  </si>
-  <si>
-    <t>cg05974498</t>
-  </si>
-  <si>
-    <t>cg26925717</t>
-  </si>
-  <si>
-    <t>cg27396056</t>
-  </si>
-  <si>
-    <t>cg04543865</t>
-  </si>
-  <si>
-    <t>cg11039729</t>
-  </si>
-  <si>
-    <t>cg01476568</t>
-  </si>
-  <si>
-    <t>cg06605704</t>
-  </si>
-  <si>
-    <t>cg20435097</t>
-  </si>
-  <si>
-    <t>cg17082549</t>
-  </si>
-  <si>
-    <t>cg15711288</t>
-  </si>
-  <si>
-    <t>cg03233656</t>
-  </si>
-  <si>
-    <t>cg14287724</t>
-  </si>
-  <si>
-    <t>cg08530484</t>
-  </si>
-  <si>
-    <t>cg22760287</t>
-  </si>
-  <si>
-    <t>cg09941713</t>
-  </si>
-  <si>
-    <t>cg06956444</t>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>chr16</t>
+  </si>
+  <si>
+    <t>chr17</t>
+  </si>
+  <si>
+    <t>chr11</t>
+  </si>
+  <si>
+    <t>chr5</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr14</t>
   </si>
   <si>
     <t>chr1</t>
   </si>
   <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr16</t>
+    <t>chr10</t>
   </si>
   <si>
     <t>chr19</t>
@@ -556,58 +643,52 @@
     <t>chr8</t>
   </si>
   <si>
-    <t>chr11</t>
-  </si>
-  <si>
-    <t>chr10</t>
-  </si>
-  <si>
-    <t>chr5</t>
+    <t>chr21</t>
+  </si>
+  <si>
+    <t>chr6</t>
+  </si>
+  <si>
+    <t>chr12</t>
+  </si>
+  <si>
+    <t>chr9</t>
+  </si>
+  <si>
+    <t>chr4</t>
   </si>
   <si>
     <t>chr15</t>
   </si>
   <si>
-    <t>chr12</t>
-  </si>
-  <si>
-    <t>chr6</t>
-  </si>
-  <si>
-    <t>chr17</t>
-  </si>
-  <si>
     <t>chr20</t>
   </si>
   <si>
-    <t>chr4</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
     <t>chr7</t>
   </si>
   <si>
-    <t>chr2</t>
-  </si>
-  <si>
-    <t>chr21</t>
-  </si>
-  <si>
-    <t>chr9</t>
-  </si>
-  <si>
     <t>chr22</t>
   </si>
   <si>
-    <t>chr14</t>
-  </si>
-  <si>
-    <t>chr18</t>
-  </si>
-  <si>
-    <t>FAM131C</t>
+    <t>ITIH1</t>
+  </si>
+  <si>
+    <t>TRAF7</t>
+  </si>
+  <si>
+    <t>RASL10B</t>
+  </si>
+  <si>
+    <t>TAF15</t>
+  </si>
+  <si>
+    <t>MTL5</t>
+  </si>
+  <si>
+    <t>SERINC5</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>RCBTB1</t>
@@ -616,541 +697,580 @@
     <t>C1QTNF8</t>
   </si>
   <si>
-    <t>ADAMTSL4-AS1</t>
+    <t>GTF2A1</t>
+  </si>
+  <si>
+    <t>CTD-2506P8.6</t>
   </si>
   <si>
     <t>SSBP3</t>
   </si>
   <si>
+    <t>BAHCC1</t>
+  </si>
+  <si>
+    <t>LINC01341</t>
+  </si>
+  <si>
+    <t>KIF28P</t>
+  </si>
+  <si>
+    <t>SIGLEC10</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>RP11-68I18.10</t>
+  </si>
+  <si>
+    <t>PYGL</t>
+  </si>
+  <si>
+    <t>CTB-147C22.9</t>
+  </si>
+  <si>
+    <t>KLK6</t>
+  </si>
+  <si>
+    <t>RAVER1</t>
+  </si>
+  <si>
+    <t>RP5-902P8.12</t>
+  </si>
+  <si>
+    <t>PDIA5</t>
+  </si>
+  <si>
+    <t>ZMIZ1-AS1</t>
+  </si>
+  <si>
+    <t>LRRTM4</t>
+  </si>
+  <si>
+    <t>EXT1</t>
+  </si>
+  <si>
+    <t>CTD-2162K18.4</t>
+  </si>
+  <si>
+    <t>CTD-2162K18.3</t>
+  </si>
+  <si>
+    <t>SUMO3</t>
+  </si>
+  <si>
+    <t>MICA</t>
+  </si>
+  <si>
+    <t>HCP5</t>
+  </si>
+  <si>
+    <t>AGAP2</t>
+  </si>
+  <si>
+    <t>TSPAN31</t>
+  </si>
+  <si>
+    <t>LNX1</t>
+  </si>
+  <si>
+    <t>LNX1-AS1</t>
+  </si>
+  <si>
+    <t>FIP1L1</t>
+  </si>
+  <si>
+    <t>EDARADD</t>
+  </si>
+  <si>
+    <t>HCAR1</t>
+  </si>
+  <si>
+    <t>TRPT1</t>
+  </si>
+  <si>
+    <t>NUDT22</t>
+  </si>
+  <si>
+    <t>LINC01483</t>
+  </si>
+  <si>
+    <t>CD93</t>
+  </si>
+  <si>
+    <t>FPR3</t>
+  </si>
+  <si>
+    <t>METTL7A</t>
+  </si>
+  <si>
+    <t>PRKAR1B</t>
+  </si>
+  <si>
+    <t>CLEC16A</t>
+  </si>
+  <si>
+    <t>LINC00698</t>
+  </si>
+  <si>
+    <t>PDE6B</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>RAB11FIP1</t>
+  </si>
+  <si>
+    <t>TSC2</t>
+  </si>
+  <si>
+    <t>ANKRD11</t>
+  </si>
+  <si>
+    <t>RP1-168P16.2</t>
+  </si>
+  <si>
+    <t>MFAP4</t>
+  </si>
+  <si>
     <t>VAC14</t>
   </si>
   <si>
-    <t>RAVER1</t>
-  </si>
-  <si>
-    <t>RAB11FIP1</t>
-  </si>
-  <si>
-    <t>RP11-68I18.10</t>
-  </si>
-  <si>
-    <t>SIGLEC10</t>
+    <t>ITPA</t>
+  </si>
+  <si>
+    <t>ZC3H3</t>
+  </si>
+  <si>
+    <t>VNN1</t>
+  </si>
+  <si>
+    <t>IRF8</t>
+  </si>
+  <si>
+    <t>CBFA2T3</t>
+  </si>
+  <si>
+    <t>RP11-45A17.2</t>
+  </si>
+  <si>
+    <t>BNIP3</t>
+  </si>
+  <si>
+    <t>VGLL4</t>
+  </si>
+  <si>
+    <t>SHBG</t>
+  </si>
+  <si>
+    <t>FXR2</t>
+  </si>
+  <si>
+    <t>LINC01122</t>
+  </si>
+  <si>
+    <t>RP5-1052I5.2</t>
+  </si>
+  <si>
+    <t>LINC01140</t>
+  </si>
+  <si>
+    <t>HK2</t>
+  </si>
+  <si>
+    <t>CAPN9</t>
+  </si>
+  <si>
+    <t>RP11-99J16__A.2</t>
+  </si>
+  <si>
+    <t>BRD1</t>
+  </si>
+  <si>
+    <t>RASGRP2</t>
+  </si>
+  <si>
+    <t>GPR146</t>
+  </si>
+  <si>
+    <t>C7orf50</t>
+  </si>
+  <si>
+    <t>RP11-449P15.1</t>
+  </si>
+  <si>
+    <t>NPTN</t>
+  </si>
+  <si>
+    <t>PI16</t>
+  </si>
+  <si>
+    <t>LRPAP1</t>
+  </si>
+  <si>
+    <t>MANEAL</t>
+  </si>
+  <si>
+    <t>DNAJC28</t>
+  </si>
+  <si>
+    <t>SEMA3D</t>
+  </si>
+  <si>
+    <t>APLP2</t>
+  </si>
+  <si>
+    <t>RREB1</t>
+  </si>
+  <si>
+    <t>ACSF3</t>
+  </si>
+  <si>
+    <t>MPRIP</t>
+  </si>
+  <si>
+    <t>TENM4</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>DAB1</t>
+  </si>
+  <si>
+    <t>RNF32</t>
+  </si>
+  <si>
+    <t>LINC01006</t>
+  </si>
+  <si>
+    <t>AEBP2</t>
+  </si>
+  <si>
+    <t>GALNT15</t>
+  </si>
+  <si>
+    <t>YWHAG</t>
+  </si>
+  <si>
+    <t>CTRB2</t>
+  </si>
+  <si>
+    <t>MMP23B</t>
+  </si>
+  <si>
+    <t>CDK11B</t>
+  </si>
+  <si>
+    <t>SLC35E2B</t>
+  </si>
+  <si>
+    <t>UNC93B1</t>
+  </si>
+  <si>
+    <t>AMPD2</t>
+  </si>
+  <si>
+    <t>ST18</t>
+  </si>
+  <si>
+    <t>LAP3</t>
+  </si>
+  <si>
+    <t>PSMB9</t>
+  </si>
+  <si>
+    <t>CTSZ</t>
+  </si>
+  <si>
+    <t>BRD3</t>
+  </si>
+  <si>
+    <t>RP11-374P20.4</t>
+  </si>
+  <si>
+    <t>ACRBP</t>
+  </si>
+  <si>
+    <t>NEU4</t>
+  </si>
+  <si>
+    <t>AC114730.3</t>
+  </si>
+  <si>
+    <t>SLC39A11</t>
+  </si>
+  <si>
+    <t>MKL1</t>
+  </si>
+  <si>
+    <t>RP11-114G22.1</t>
+  </si>
+  <si>
+    <t>CHMP6</t>
+  </si>
+  <si>
+    <t>ARL3</t>
+  </si>
+  <si>
+    <t>SFXN2</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>GALNT7</t>
+  </si>
+  <si>
+    <t>RP11-1055B8.4</t>
+  </si>
+  <si>
+    <t>BRPF1</t>
+  </si>
+  <si>
+    <t>TIMM10B</t>
+  </si>
+  <si>
+    <t>ZSCAN18</t>
+  </si>
+  <si>
+    <t>KIF7</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>NCOR2</t>
+  </si>
+  <si>
+    <t>CTBP1-AS</t>
+  </si>
+  <si>
+    <t>SPON2</t>
+  </si>
+  <si>
+    <t>IL6R</t>
+  </si>
+  <si>
+    <t>NAA20</t>
+  </si>
+  <si>
+    <t>HMOX2</t>
+  </si>
+  <si>
+    <t>RP5-858L17.1</t>
+  </si>
+  <si>
+    <t>SIRPA</t>
+  </si>
+  <si>
+    <t>RCC2</t>
+  </si>
+  <si>
+    <t>SKAP1</t>
+  </si>
+  <si>
+    <t>PIP5K1C</t>
+  </si>
+  <si>
+    <t>AC004637.1</t>
+  </si>
+  <si>
+    <t>VPS13D</t>
+  </si>
+  <si>
+    <t>STK3</t>
+  </si>
+  <si>
+    <t>TP53BP1</t>
+  </si>
+  <si>
+    <t>PRDM16</t>
+  </si>
+  <si>
+    <t>SMAD9</t>
+  </si>
+  <si>
+    <t>P2RX4</t>
+  </si>
+  <si>
+    <t>SH3BP4</t>
+  </si>
+  <si>
+    <t>FRMD4A</t>
+  </si>
+  <si>
+    <t>ADCK3</t>
+  </si>
+  <si>
+    <t>ETV6</t>
+  </si>
+  <si>
+    <t>SHANK2</t>
+  </si>
+  <si>
+    <t>PRSS23</t>
+  </si>
+  <si>
+    <t>ZNF750</t>
+  </si>
+  <si>
+    <t>TBCD</t>
+  </si>
+  <si>
+    <t>RP11-227H15.4</t>
+  </si>
+  <si>
+    <t>YAF2</t>
+  </si>
+  <si>
+    <t>PPHLN1</t>
+  </si>
+  <si>
+    <t>EOGT</t>
+  </si>
+  <si>
+    <t>RP11-12J10.3</t>
+  </si>
+  <si>
+    <t>FAM53B</t>
+  </si>
+  <si>
+    <t>RP11-1252I4.2</t>
+  </si>
+  <si>
+    <t>ABCA3</t>
+  </si>
+  <si>
+    <t>C4orf45</t>
+  </si>
+  <si>
+    <t>C5orf28</t>
+  </si>
+  <si>
+    <t>RP11-159F24.3</t>
   </si>
   <si>
     <t>NCR3LG1</t>
   </si>
   <si>
-    <t>RP11-45A17.2</t>
-  </si>
-  <si>
-    <t>BNIP3</t>
-  </si>
-  <si>
-    <t>SERINC5</t>
-  </si>
-  <si>
-    <t>NEAT1</t>
-  </si>
-  <si>
-    <t>NEAT1_3</t>
-  </si>
-  <si>
-    <t>NEAT1_2</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>NPTN</t>
-  </si>
-  <si>
-    <t>HCAR1</t>
-  </si>
-  <si>
-    <t>AGAP2</t>
-  </si>
-  <si>
-    <t>TSPAN31</t>
-  </si>
-  <si>
-    <t>EDARADD</t>
-  </si>
-  <si>
-    <t>CTD-2162K18.4</t>
-  </si>
-  <si>
-    <t>CTD-2162K18.3</t>
-  </si>
-  <si>
-    <t>PSMB9</t>
-  </si>
-  <si>
-    <t>NXN</t>
-  </si>
-  <si>
-    <t>DAB1</t>
-  </si>
-  <si>
-    <t>CD93</t>
-  </si>
-  <si>
-    <t>RP11-45M22.4</t>
-  </si>
-  <si>
-    <t>MPRIP</t>
-  </si>
-  <si>
-    <t>FLCN</t>
-  </si>
-  <si>
-    <t>FPR3</t>
-  </si>
-  <si>
-    <t>PDE6B</t>
-  </si>
-  <si>
-    <t>CLEC16A</t>
-  </si>
-  <si>
-    <t>MEFV</t>
-  </si>
-  <si>
-    <t>GPT2</t>
-  </si>
-  <si>
-    <t>METTL7A</t>
-  </si>
-  <si>
-    <t>LINC00698</t>
-  </si>
-  <si>
-    <t>PRKAR1B</t>
-  </si>
-  <si>
-    <t>ANKRD11</t>
-  </si>
-  <si>
-    <t>RP1-168P16.2</t>
-  </si>
-  <si>
-    <t>MFAP4</t>
-  </si>
-  <si>
-    <t>TSC2</t>
-  </si>
-  <si>
-    <t>FXR2</t>
-  </si>
-  <si>
-    <t>SHBG</t>
-  </si>
-  <si>
-    <t>IRF8</t>
-  </si>
-  <si>
-    <t>SEMA3D</t>
-  </si>
-  <si>
-    <t>GPR146</t>
-  </si>
-  <si>
-    <t>C7orf50</t>
-  </si>
-  <si>
-    <t>RP11-449P15.1</t>
-  </si>
-  <si>
-    <t>TIMM10B</t>
-  </si>
-  <si>
-    <t>ITPA</t>
-  </si>
-  <si>
-    <t>NCOR2</t>
-  </si>
-  <si>
-    <t>RP11-114G22.1</t>
-  </si>
-  <si>
-    <t>LINC01122</t>
-  </si>
-  <si>
-    <t>RASGRP2</t>
-  </si>
-  <si>
-    <t>MANEAL</t>
-  </si>
-  <si>
-    <t>CTBP1-AS</t>
-  </si>
-  <si>
-    <t>SPON2</t>
-  </si>
-  <si>
-    <t>PDIA5</t>
-  </si>
-  <si>
     <t>TRIM10</t>
   </si>
   <si>
-    <t>SH3BP4</t>
-  </si>
-  <si>
-    <t>SFXN2</t>
-  </si>
-  <si>
-    <t>ARL3</t>
-  </si>
-  <si>
-    <t>LINC01483</t>
-  </si>
-  <si>
-    <t>SLC39A11</t>
-  </si>
-  <si>
-    <t>CAPN9</t>
-  </si>
-  <si>
-    <t>RP11-99J16__A.2</t>
-  </si>
-  <si>
-    <t>SUMO3</t>
-  </si>
-  <si>
-    <t>BRPF1</t>
-  </si>
-  <si>
-    <t>ZC3H3</t>
-  </si>
-  <si>
-    <t>TMEM169</t>
-  </si>
-  <si>
-    <t>PECR</t>
-  </si>
-  <si>
-    <t>RP11-418J17.3</t>
+    <t>ITPK1</t>
+  </si>
+  <si>
+    <t>AC007131.2</t>
+  </si>
+  <si>
+    <t>RP11-444A22.1</t>
+  </si>
+  <si>
+    <t>AC007131.1</t>
+  </si>
+  <si>
+    <t>TRAF3IP2</t>
+  </si>
+  <si>
+    <t>TRAF3IP2-AS1</t>
+  </si>
+  <si>
+    <t>PPP1R16B</t>
+  </si>
+  <si>
+    <t>TMEM132B</t>
+  </si>
+  <si>
+    <t>MAPK8IP3</t>
+  </si>
+  <si>
+    <t>KIF25</t>
+  </si>
+  <si>
+    <t>AMOTL1</t>
+  </si>
+  <si>
+    <t>ERC2</t>
+  </si>
+  <si>
+    <t>MAPKAP1</t>
+  </si>
+  <si>
+    <t>MGAT5</t>
+  </si>
+  <si>
+    <t>USP31</t>
+  </si>
+  <si>
+    <t>C12orf4</t>
+  </si>
+  <si>
+    <t>RAD51AP1</t>
+  </si>
+  <si>
+    <t>CDIP1</t>
+  </si>
+  <si>
+    <t>TUSC5</t>
+  </si>
+  <si>
+    <t>HYAL2</t>
+  </si>
+  <si>
+    <t>AC096559.1</t>
   </si>
   <si>
     <t>AC125238.2</t>
   </si>
   <si>
-    <t>UNC93B1</t>
-  </si>
-  <si>
-    <t>TP53BP1</t>
-  </si>
-  <si>
-    <t>CTRB2</t>
-  </si>
-  <si>
-    <t>ZMIZ1-AS1</t>
-  </si>
-  <si>
-    <t>GALNT7</t>
-  </si>
-  <si>
-    <t>PRDM16</t>
-  </si>
-  <si>
-    <t>APLP2</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>LRRTM4</t>
-  </si>
-  <si>
-    <t>KIF25</t>
-  </si>
-  <si>
-    <t>AEBP2</t>
-  </si>
-  <si>
-    <t>S1PR4</t>
-  </si>
-  <si>
-    <t>PRSS8</t>
-  </si>
-  <si>
-    <t>RNF32</t>
-  </si>
-  <si>
-    <t>LINC01006</t>
-  </si>
-  <si>
-    <t>PPM1F</t>
-  </si>
-  <si>
-    <t>LL22NC03-86G7.1</t>
-  </si>
-  <si>
-    <t>PMM2</t>
-  </si>
-  <si>
-    <t>RP11-152P23.2</t>
-  </si>
-  <si>
-    <t>RP11-77H9.2</t>
-  </si>
-  <si>
-    <t>KIF7</t>
-  </si>
-  <si>
-    <t>ZNF750</t>
-  </si>
-  <si>
-    <t>TBCD</t>
-  </si>
-  <si>
-    <t>SIRPA</t>
-  </si>
-  <si>
-    <t>RP5-858L17.1</t>
-  </si>
-  <si>
-    <t>SNCA</t>
-  </si>
-  <si>
-    <t>SNCA-AS1</t>
-  </si>
-  <si>
-    <t>LYPD6B</t>
-  </si>
-  <si>
-    <t>ADGB</t>
-  </si>
-  <si>
-    <t>RP11-715G15.1</t>
-  </si>
-  <si>
-    <t>TBC1D10C</t>
-  </si>
-  <si>
-    <t>PPP1CA</t>
-  </si>
-  <si>
-    <t>MYOF</t>
-  </si>
-  <si>
-    <t>VGLL4</t>
-  </si>
-  <si>
-    <t>PLVAP</t>
-  </si>
-  <si>
-    <t>KLK6</t>
-  </si>
-  <si>
-    <t>CTB-147C22.9</t>
-  </si>
-  <si>
-    <t>DNAJC28</t>
-  </si>
-  <si>
-    <t>NDST1</t>
-  </si>
-  <si>
-    <t>INPP5A</t>
-  </si>
-  <si>
-    <t>VPS13D</t>
-  </si>
-  <si>
-    <t>CCDC85C</t>
-  </si>
-  <si>
-    <t>ATF6B</t>
-  </si>
-  <si>
-    <t>MTFMT</t>
-  </si>
-  <si>
-    <t>CDH22</t>
-  </si>
-  <si>
-    <t>SEPT9</t>
-  </si>
-  <si>
-    <t>RP11-1252I4.2</t>
-  </si>
-  <si>
-    <t>HRC</t>
-  </si>
-  <si>
-    <t>TMEM132B</t>
-  </si>
-  <si>
-    <t>OR13D1</t>
-  </si>
-  <si>
-    <t>LIPA</t>
-  </si>
-  <si>
-    <t>VNN1</t>
-  </si>
-  <si>
-    <t>PPP1R16B</t>
-  </si>
-  <si>
-    <t>TARSL2</t>
-  </si>
-  <si>
-    <t>CTIF</t>
-  </si>
-  <si>
-    <t>ATP2C1</t>
-  </si>
-  <si>
-    <t>ARHGAP10</t>
-  </si>
-  <si>
-    <t>TENM4</t>
-  </si>
-  <si>
-    <t>PIK3C2B</t>
-  </si>
-  <si>
-    <t>PDE10A</t>
-  </si>
-  <si>
-    <t>MUTYH</t>
-  </si>
-  <si>
-    <t>TOE1</t>
-  </si>
-  <si>
-    <t>PTPRN2</t>
-  </si>
-  <si>
-    <t>ARHGAP9</t>
-  </si>
-  <si>
-    <t>MARS</t>
-  </si>
-  <si>
-    <t>MYCN</t>
-  </si>
-  <si>
-    <t>LRP1</t>
-  </si>
-  <si>
-    <t>NSL1</t>
-  </si>
-  <si>
-    <t>TATDN3</t>
-  </si>
-  <si>
-    <t>BRD1</t>
-  </si>
-  <si>
-    <t>ZNF432</t>
-  </si>
-  <si>
-    <t>ZNF841</t>
-  </si>
-  <si>
-    <t>SLC39A2</t>
-  </si>
-  <si>
-    <t>RP11-84C10.4</t>
-  </si>
-  <si>
-    <t>TPRG1</t>
-  </si>
-  <si>
-    <t>TPRG1-AS1</t>
-  </si>
-  <si>
-    <t>GAN</t>
-  </si>
-  <si>
-    <t>RP11-55K13.1</t>
-  </si>
-  <si>
-    <t>CCNY</t>
-  </si>
-  <si>
-    <t>FAM208B</t>
-  </si>
-  <si>
-    <t>HMOX2</t>
-  </si>
-  <si>
-    <t>FAM53B</t>
-  </si>
-  <si>
-    <t>RP11-12J10.3</t>
-  </si>
-  <si>
-    <t>RPN1</t>
-  </si>
-  <si>
-    <t>SLC1A4</t>
-  </si>
-  <si>
-    <t>RP11-465B22.8</t>
-  </si>
-  <si>
-    <t>NHEJ1</t>
-  </si>
-  <si>
-    <t>RP11-33O4.2</t>
-  </si>
-  <si>
-    <t>CHD7</t>
-  </si>
-  <si>
-    <t>TNFRSF9</t>
-  </si>
-  <si>
-    <t>RP5-892F13.2</t>
+    <t>FOXK2</t>
   </si>
   <si>
     <t>protein_coding</t>
   </si>
   <si>
-    <t>processed_transcript</t>
+    <t>protein_coding;antisense</t>
+  </si>
+  <si>
+    <t>unitary_pseudogene;processed_transcript</t>
   </si>
   <si>
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
-  </si>
-  <si>
-    <t>lincRNA;misc_RNA</t>
-  </si>
-  <si>
     <t>lincRNA</t>
   </si>
   <si>
+    <t>antisense</t>
+  </si>
+  <si>
+    <t>sense_overlapping;protein_coding</t>
+  </si>
+  <si>
     <t>sense_intronic;protein_coding</t>
   </si>
   <si>
+    <t>lincRNA;protein_coding</t>
+  </si>
+  <si>
+    <t>processed_transcript;protein_coding</t>
+  </si>
+  <si>
     <t>processed_pseudogene</t>
   </si>
   <si>
-    <t>antisense</t>
-  </si>
-  <si>
-    <t>lincRNA;protein_coding</t>
-  </si>
-  <si>
-    <t>processed_pseudogene;protein_coding</t>
+    <t>S_Shelf</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>S_Shore</t>
   </si>
   <si>
     <t>N_Shore</t>
-  </si>
-  <si>
-    <t>S_Shore</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>S_Shelf</t>
   </si>
   <si>
     <t>N_Shelf</t>
@@ -1511,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1548,25 +1668,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C2">
-        <v>16071749</v>
+        <v>52779635</v>
       </c>
       <c r="D2">
-        <v>16071751</v>
+        <v>52779637</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
       <c r="H2">
-        <v>0.1649028305157629</v>
+        <v>0.1085134345713244</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1574,25 +1694,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C3">
-        <v>49549508</v>
+        <v>2159838</v>
       </c>
       <c r="D3">
-        <v>49549510</v>
+        <v>2159840</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="H3">
-        <v>0.1505846182809989</v>
+        <v>0.1041075174488062</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1600,363 +1720,363 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>1090938</v>
+        <v>35731530</v>
       </c>
       <c r="D4">
-        <v>1090940</v>
+        <v>35731532</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="H4">
-        <v>0.08905797668532893</v>
+        <v>0.08321331403541596</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C5">
-        <v>150562302</v>
+        <v>35731530</v>
       </c>
       <c r="D5">
-        <v>150562304</v>
+        <v>35731532</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="H5">
-        <v>0.08669651961992604</v>
+        <v>0.08321331403541596</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C6">
-        <v>54356179</v>
+        <v>68751776</v>
       </c>
       <c r="D6">
-        <v>54356181</v>
+        <v>68751778</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="H6">
-        <v>0.07738182767122098</v>
+        <v>0.08092424486330943</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C7">
-        <v>70737238</v>
+        <v>80205311</v>
       </c>
       <c r="D7">
-        <v>70737240</v>
+        <v>80205313</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H7">
-        <v>0.0735496207948617</v>
+        <v>0.08076048221508617</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C8">
-        <v>10323084</v>
+        <v>3651762</v>
       </c>
       <c r="D8">
-        <v>10323086</v>
+        <v>3651764</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="H8">
-        <v>0.07320136628661969</v>
+        <v>0.07875635087625049</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C9">
-        <v>37874705</v>
+        <v>49549508</v>
       </c>
       <c r="D9">
-        <v>37874707</v>
+        <v>49549510</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H9">
-        <v>0.07226311627236454</v>
+        <v>0.06978196434886458</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C10">
-        <v>151131392</v>
+        <v>1090938</v>
       </c>
       <c r="D10">
-        <v>151131394</v>
+        <v>1090940</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="H10">
-        <v>0.06280911307235237</v>
+        <v>0.06697483429532786</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C11">
-        <v>51417630</v>
+        <v>81221539</v>
       </c>
       <c r="D11">
-        <v>51417632</v>
+        <v>81221541</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="H11">
-        <v>0.05679578299241105</v>
+        <v>0.06455613809903374</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C12">
-        <v>17351576</v>
+        <v>81221539</v>
       </c>
       <c r="D12">
-        <v>17351578</v>
+        <v>81221541</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="H12">
-        <v>0.0485251619655532</v>
+        <v>0.06455613809903374</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C13">
-        <v>131970793</v>
+        <v>54356179</v>
       </c>
       <c r="D13">
-        <v>131970795</v>
+        <v>54356181</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="H13">
-        <v>0.04808932962978578</v>
+        <v>0.06015260776055096</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C14">
-        <v>131970793</v>
+        <v>129612142</v>
       </c>
       <c r="D14">
-        <v>131970795</v>
+        <v>129612144</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H14">
-        <v>0.04808932962978578</v>
+        <v>0.05967381949299293</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C15">
-        <v>80205311</v>
+        <v>81453397</v>
       </c>
       <c r="D15">
-        <v>80205313</v>
+        <v>81453399</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="H15">
-        <v>0.04586848311645673</v>
+        <v>0.04928390182394989</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C16">
-        <v>65423474</v>
+        <v>246789970</v>
       </c>
       <c r="D16">
-        <v>65423476</v>
+        <v>246789972</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="H16">
-        <v>0.03028008381413899</v>
+        <v>0.04265079235528735</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C17">
-        <v>65423474</v>
+        <v>246789970</v>
       </c>
       <c r="D17">
-        <v>65423476</v>
+        <v>246789972</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="H17">
-        <v>0.03028008381413899</v>
+        <v>0.04265079235528735</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1964,25 +2084,25 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C18">
-        <v>65423474</v>
+        <v>131453805</v>
       </c>
       <c r="D18">
-        <v>65423476</v>
+        <v>131453807</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="H18">
-        <v>0.03028008381413899</v>
+        <v>0.04038227482668742</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1990,25 +2110,25 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C19">
-        <v>119797455</v>
+        <v>51417630</v>
       </c>
       <c r="D19">
-        <v>119797457</v>
+        <v>51417632</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H19">
-        <v>0.02225340228998628</v>
+        <v>0.03767210029732056</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2016,25 +2136,25 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C20">
-        <v>73634112</v>
+        <v>47851211</v>
       </c>
       <c r="D20">
-        <v>73634114</v>
+        <v>47851213</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="H20">
-        <v>-0.002808440068965501</v>
+        <v>0.03553683128616465</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2042,25 +2162,25 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C21">
-        <v>65519989</v>
+        <v>151131392</v>
       </c>
       <c r="D21">
-        <v>65519991</v>
+        <v>151131394</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="H21">
-        <v>-0.008283092760132105</v>
+        <v>0.02684605202820209</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2068,25 +2188,25 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C22">
-        <v>122731005</v>
+        <v>119797455</v>
       </c>
       <c r="D22">
-        <v>122731007</v>
+        <v>119797457</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H22">
-        <v>-0.01343396620006758</v>
+        <v>0.02605486851407193</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2094,51 +2214,51 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C23">
-        <v>57742661</v>
+        <v>50943782</v>
       </c>
       <c r="D23">
-        <v>57742663</v>
+        <v>50943784</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G23" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="H23">
-        <v>-0.02295324624049051</v>
+        <v>0.01323325912174988</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="C24">
-        <v>57742661</v>
+        <v>50968785</v>
       </c>
       <c r="D24">
-        <v>57742663</v>
+        <v>50968787</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
       <c r="H24">
-        <v>-0.02295324624049051</v>
+        <v>0.008998656240255897</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2146,25 +2266,25 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C25">
-        <v>236393881</v>
+        <v>50968785</v>
       </c>
       <c r="D25">
-        <v>236393883</v>
+        <v>50968787</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
       <c r="H25">
-        <v>-0.02301172966945214</v>
+        <v>0.008998656240255897</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2172,337 +2292,337 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="C26">
-        <v>36776123</v>
+        <v>10323084</v>
       </c>
       <c r="D26">
-        <v>36776125</v>
+        <v>10323086</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="H26">
-        <v>-0.02589865387852076</v>
+        <v>0.00280266707110092</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C27">
-        <v>36776123</v>
+        <v>1250976</v>
       </c>
       <c r="D27">
-        <v>36776125</v>
+        <v>1250978</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="H27">
-        <v>-0.02589865387852076</v>
+        <v>0.00275916550025672</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C28">
-        <v>32855950</v>
+        <v>123066802</v>
       </c>
       <c r="D28">
-        <v>32855952</v>
+        <v>123066804</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G28" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="H28">
-        <v>-0.02626756414832453</v>
+        <v>-0.0006783838115806801</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C29">
-        <v>847000</v>
+        <v>78977907</v>
       </c>
       <c r="D29">
-        <v>847002</v>
+        <v>78977909</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="G29" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="H29">
-        <v>-0.02987876390272655</v>
+        <v>-0.00120546696228751</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C30">
-        <v>57270164</v>
+        <v>76748093</v>
       </c>
       <c r="D30">
-        <v>57270166</v>
+        <v>76748095</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F30" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H30">
-        <v>-0.03215300073931245</v>
+        <v>-0.00359503297513203</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C31">
-        <v>23083970</v>
+        <v>118111811</v>
       </c>
       <c r="D31">
-        <v>23083972</v>
+        <v>118111813</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="H31">
-        <v>-0.04534586490344376</v>
+        <v>-0.004910633918830881</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C32">
-        <v>17213452</v>
+        <v>123907703</v>
       </c>
       <c r="D32">
-        <v>17213454</v>
+        <v>123907705</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H32">
-        <v>-0.04754240203844697</v>
+        <v>-0.006153677332587248</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C33">
-        <v>17213452</v>
+        <v>36776123</v>
       </c>
       <c r="D33">
-        <v>17213454</v>
+        <v>36776125</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="H33">
-        <v>-0.04754240203844697</v>
+        <v>-0.008222425676562081</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C34">
-        <v>17213452</v>
+        <v>36776123</v>
       </c>
       <c r="D34">
-        <v>17213454</v>
+        <v>36776125</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="H34">
-        <v>-0.04754240203844697</v>
+        <v>-0.008222425676562081</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C35">
-        <v>51824187</v>
+        <v>44805974</v>
       </c>
       <c r="D35">
-        <v>51824189</v>
+        <v>44805976</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="H35">
-        <v>-0.04863563395283851</v>
+        <v>-0.009108731617623701</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="C36">
-        <v>652752</v>
+        <v>31407526</v>
       </c>
       <c r="D36">
-        <v>652754</v>
+        <v>31407528</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="G36" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="H36">
-        <v>-0.06005061753433311</v>
+        <v>-0.01063614426743113</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C37">
-        <v>11138900</v>
+        <v>31407526</v>
       </c>
       <c r="D37">
-        <v>11138902</v>
+        <v>31407528</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="H37">
-        <v>-0.06377081234924102</v>
+        <v>-0.01063614426743113</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C38">
-        <v>3257325</v>
+        <v>57742661</v>
       </c>
       <c r="D38">
-        <v>3257327</v>
+        <v>57742663</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G38" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="H38">
-        <v>-0.06906247360740075</v>
+        <v>-0.01331291806785328</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2510,25 +2630,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C39">
-        <v>46886162</v>
+        <v>57742661</v>
       </c>
       <c r="D39">
-        <v>46886164</v>
+        <v>57742663</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G39" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="H39">
-        <v>-0.07114955823238968</v>
+        <v>-0.01331291806785328</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2536,25 +2656,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="C40">
-        <v>36154731</v>
+        <v>135987756</v>
       </c>
       <c r="D40">
-        <v>36154733</v>
+        <v>135987758</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="H40">
-        <v>-0.07119358194302988</v>
+        <v>-0.01660100464361455</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2562,25 +2682,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C41">
-        <v>50929956</v>
+        <v>118904290</v>
       </c>
       <c r="D41">
-        <v>50929958</v>
+        <v>118904292</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H41">
-        <v>-0.07313776421691894</v>
+        <v>-0.01727322022976787</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2588,534 +2708,582 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C42">
-        <v>62948996</v>
+        <v>53508081</v>
       </c>
       <c r="D42">
-        <v>62948998</v>
+        <v>53508083</v>
       </c>
       <c r="E42" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H42">
-        <v>-0.08762830146008332</v>
+        <v>-0.026168868166934</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C43">
-        <v>10624083</v>
+        <v>53508081</v>
       </c>
       <c r="D43">
-        <v>10624085</v>
+        <v>53508083</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
       <c r="H43">
-        <v>-0.10892797108307</v>
+        <v>-0.026168868166934</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="C44">
-        <v>597816</v>
+        <v>53508081</v>
       </c>
       <c r="D44">
-        <v>597818</v>
+        <v>53508083</v>
       </c>
       <c r="E44" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F44" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="H44">
+        <v>-0.026168868166934</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C45">
-        <v>89403132</v>
+        <v>236393881</v>
       </c>
       <c r="D45">
-        <v>89403134</v>
+        <v>236393883</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>418</v>
+      </c>
+      <c r="H45">
+        <v>-0.02819153401710379</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C46">
-        <v>89403132</v>
+        <v>65519989</v>
       </c>
       <c r="D46">
-        <v>89403134</v>
+        <v>65519991</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>415</v>
+      </c>
+      <c r="H46">
+        <v>-0.04021614110088033</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C47">
-        <v>19387806</v>
+        <v>122731005</v>
       </c>
       <c r="D47">
-        <v>19387808</v>
+        <v>122731007</v>
       </c>
       <c r="E47" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="H47">
+        <v>-0.04142330041260413</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>64224444</v>
+      </c>
+      <c r="D48">
+        <v>64224446</v>
+      </c>
+      <c r="E48" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>418</v>
+      </c>
+      <c r="H48">
+        <v>-0.04410767514699579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>64224444</v>
+      </c>
+      <c r="D49">
+        <v>64224446</v>
+      </c>
+      <c r="E49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>418</v>
+      </c>
+      <c r="H49">
+        <v>-0.04410767514699579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48">
-        <v>2083386</v>
-      </c>
-      <c r="D48">
-        <v>2083388</v>
-      </c>
-      <c r="E48" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" t="s">
-        <v>364</v>
-      </c>
-      <c r="G48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50">
+        <v>69609356</v>
+      </c>
+      <c r="D50">
+        <v>69609358</v>
+      </c>
+      <c r="E50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50">
+        <v>-0.04474866748178825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49">
-        <v>7613901</v>
-      </c>
-      <c r="D49">
-        <v>7613903</v>
-      </c>
-      <c r="E49" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" t="s">
-        <v>364</v>
-      </c>
-      <c r="G49" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50">
-        <v>7613901</v>
-      </c>
-      <c r="D50">
-        <v>7613903</v>
-      </c>
-      <c r="E50" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" t="s">
-        <v>364</v>
-      </c>
-      <c r="G50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51">
+        <v>23083970</v>
+      </c>
+      <c r="D51">
+        <v>23083972</v>
+      </c>
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51">
+        <v>-0.04938661688622552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51">
-        <v>85902540</v>
-      </c>
-      <c r="D51">
-        <v>85902542</v>
-      </c>
-      <c r="E51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" t="s">
-        <v>364</v>
-      </c>
-      <c r="G51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52">
+        <v>51824187</v>
+      </c>
+      <c r="D52">
+        <v>51824189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52">
+        <v>-0.05405011478559379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52">
-        <v>133253903</v>
-      </c>
-      <c r="D52">
-        <v>133253905</v>
-      </c>
-      <c r="E52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53">
+        <v>50929956</v>
+      </c>
+      <c r="D53">
+        <v>50929958</v>
+      </c>
+      <c r="E53" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53">
+        <v>-0.06134246162035978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53">
-        <v>85160554</v>
-      </c>
-      <c r="D53">
-        <v>85160556</v>
-      </c>
-      <c r="E53" t="s">
-        <v>244</v>
-      </c>
-      <c r="F53" t="s">
-        <v>364</v>
-      </c>
-      <c r="G53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C54">
-        <v>1055779</v>
+        <v>597816</v>
       </c>
       <c r="D54">
-        <v>1055781</v>
+        <v>597818</v>
       </c>
       <c r="E54" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="H54">
+        <v>-0.06409958880332778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C55">
-        <v>1055779</v>
+        <v>11138900</v>
       </c>
       <c r="D55">
-        <v>1055781</v>
+        <v>11138902</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="H55">
+        <v>-0.06563722908179626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C56">
-        <v>1055779</v>
+        <v>62948996</v>
       </c>
       <c r="D56">
-        <v>1055781</v>
+        <v>62948998</v>
       </c>
       <c r="E56" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F56" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>224</v>
+      </c>
+      <c r="H56">
+        <v>-0.06914317644743581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C57">
-        <v>157438011</v>
+        <v>652752</v>
       </c>
       <c r="D57">
-        <v>157438013</v>
+        <v>652754</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="F57" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>418</v>
+      </c>
+      <c r="H57">
+        <v>-0.07058418478634729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C58">
-        <v>6483080</v>
+        <v>46886162</v>
       </c>
       <c r="D58">
-        <v>6483082</v>
+        <v>46886164</v>
       </c>
       <c r="E58" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G58" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>417</v>
+      </c>
+      <c r="H58">
+        <v>-0.07357767967261371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C59">
-        <v>3223491</v>
+        <v>118111467</v>
       </c>
       <c r="D59">
-        <v>3223493</v>
+        <v>118111469</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F59" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>418</v>
+      </c>
+      <c r="H59">
+        <v>-0.08028944144806684</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C60">
-        <v>124501577</v>
+        <v>37874705</v>
       </c>
       <c r="D60">
-        <v>124501579</v>
+        <v>37874707</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C61">
-        <v>22729886</v>
+        <v>2083386</v>
       </c>
       <c r="D61">
-        <v>22729888</v>
+        <v>2083388</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C62">
-        <v>58762291</v>
+        <v>89403132</v>
       </c>
       <c r="D62">
-        <v>58762293</v>
+        <v>89403134</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F62" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C63">
-        <v>64741618</v>
+        <v>89403132</v>
       </c>
       <c r="D63">
-        <v>64741620</v>
+        <v>89403134</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C64">
-        <v>37796839</v>
+        <v>19387806</v>
       </c>
       <c r="D64">
-        <v>37796841</v>
+        <v>19387808</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3123,367 +3291,367 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C65">
-        <v>1208907</v>
+        <v>70737238</v>
       </c>
       <c r="D65">
-        <v>1208909</v>
+        <v>70737240</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F65" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G65" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C66">
-        <v>1208907</v>
+        <v>3223491</v>
       </c>
       <c r="D66">
-        <v>1208909</v>
+        <v>3223493</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G66" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C67">
-        <v>123066802</v>
+        <v>143494433</v>
       </c>
       <c r="D67">
-        <v>123066804</v>
+        <v>143494435</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G67" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C68">
-        <v>30156991</v>
+        <v>132715433</v>
       </c>
       <c r="D68">
-        <v>30156993</v>
+        <v>132715435</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F68" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G68" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C69">
-        <v>123907703</v>
+        <v>109744841</v>
       </c>
       <c r="D69">
-        <v>123907705</v>
+        <v>109744843</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G69" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C70">
-        <v>235044659</v>
+        <v>85902540</v>
       </c>
       <c r="D70">
-        <v>235044661</v>
+        <v>85902542</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F70" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C71">
-        <v>102715582</v>
+        <v>88967679</v>
       </c>
       <c r="D71">
-        <v>102715584</v>
+        <v>88967681</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F71" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G71" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C72">
-        <v>102715582</v>
+        <v>131970793</v>
       </c>
       <c r="D72">
-        <v>102715584</v>
+        <v>131970795</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F72" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C73">
-        <v>69609356</v>
+        <v>131970793</v>
       </c>
       <c r="D73">
-        <v>69609358</v>
+        <v>131970795</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F73" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="G73" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C74">
-        <v>73028309</v>
+        <v>11601952</v>
       </c>
       <c r="D74">
-        <v>73028311</v>
+        <v>11601954</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F74" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G74" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C75">
-        <v>230747805</v>
+        <v>7613901</v>
       </c>
       <c r="D75">
-        <v>230747807</v>
+        <v>7613903</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F75" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G75" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C76">
-        <v>230747805</v>
+        <v>7613901</v>
       </c>
       <c r="D76">
-        <v>230747807</v>
+        <v>7613903</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F76" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C77">
-        <v>44805974</v>
+        <v>109744594</v>
       </c>
       <c r="D77">
-        <v>44805976</v>
+        <v>109744596</v>
       </c>
       <c r="E77" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F77" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G77" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C78">
-        <v>30157014</v>
+        <v>107705174</v>
       </c>
       <c r="D78">
-        <v>30157016</v>
+        <v>107705176</v>
       </c>
       <c r="E78" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F78" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G78" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C79">
-        <v>9733040</v>
+        <v>58762291</v>
       </c>
       <c r="D79">
-        <v>9733042</v>
+        <v>58762293</v>
       </c>
       <c r="E79" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C80">
-        <v>30156966</v>
+        <v>87152629</v>
       </c>
       <c r="D80">
-        <v>30156968</v>
+        <v>87152631</v>
       </c>
       <c r="E80" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="G80" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3491,22 +3659,22 @@
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C81">
-        <v>143494433</v>
+        <v>87152629</v>
       </c>
       <c r="D81">
-        <v>143494435</v>
+        <v>87152631</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F81" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="G81" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3514,68 +3682,68 @@
         <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C82">
-        <v>216081555</v>
+        <v>74840588</v>
       </c>
       <c r="D82">
-        <v>216081557</v>
+        <v>74840590</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G82" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C83">
-        <v>216081555</v>
+        <v>49549476</v>
       </c>
       <c r="D83">
-        <v>216081557</v>
+        <v>49549478</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G83" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C84">
-        <v>119323994</v>
+        <v>230747805</v>
       </c>
       <c r="D84">
-        <v>119323996</v>
+        <v>230747807</v>
       </c>
       <c r="E84" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F84" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="G84" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3583,22 +3751,22 @@
         <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C85">
-        <v>136107370</v>
+        <v>230747805</v>
       </c>
       <c r="D85">
-        <v>136107372</v>
+        <v>230747807</v>
       </c>
       <c r="E85" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="G85" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3606,22 +3774,22 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C86">
-        <v>203637474</v>
+        <v>11558341</v>
       </c>
       <c r="D86">
-        <v>203637476</v>
+        <v>11558343</v>
       </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F86" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="G86" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3629,22 +3797,22 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C87">
-        <v>19387441</v>
+        <v>49784571</v>
       </c>
       <c r="D87">
-        <v>19387443</v>
+        <v>49784573</v>
       </c>
       <c r="E87" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3652,22 +3820,22 @@
         <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C88">
-        <v>201476584</v>
+        <v>64741618</v>
       </c>
       <c r="D88">
-        <v>201476586</v>
+        <v>64741620</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G88" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3675,620 +3843,620 @@
         <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C89">
-        <v>67997549</v>
+        <v>1055779</v>
       </c>
       <c r="D89">
-        <v>67997551</v>
+        <v>1055781</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G89" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C90">
-        <v>30157026</v>
+        <v>1055779</v>
       </c>
       <c r="D90">
-        <v>30157028</v>
+        <v>1055781</v>
       </c>
       <c r="E90" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G90" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C91">
-        <v>46882240</v>
+        <v>1055779</v>
       </c>
       <c r="D91">
-        <v>46882242</v>
+        <v>1055781</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="G91" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C92">
-        <v>118904290</v>
+        <v>73634112</v>
       </c>
       <c r="D92">
-        <v>118904292</v>
+        <v>73634114</v>
       </c>
       <c r="E92" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G92" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C93">
-        <v>43507046</v>
+        <v>36963766</v>
       </c>
       <c r="D93">
-        <v>43507048</v>
+        <v>36963768</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C94">
-        <v>75208215</v>
+        <v>157438011</v>
       </c>
       <c r="D94">
-        <v>75208217</v>
+        <v>157438013</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="F94" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C95">
-        <v>89403320</v>
+        <v>3514909</v>
       </c>
       <c r="D95">
-        <v>89403322</v>
+        <v>3514911</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="F95" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="G95" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C96">
-        <v>89403320</v>
+        <v>37796839</v>
       </c>
       <c r="D96">
-        <v>89403322</v>
+        <v>37796841</v>
       </c>
       <c r="E96" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="F96" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="G96" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C97">
-        <v>78977907</v>
+        <v>131970803</v>
       </c>
       <c r="D97">
-        <v>78977909</v>
+        <v>131970805</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F97" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="G97" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C98">
-        <v>173264916</v>
+        <v>131970803</v>
       </c>
       <c r="D98">
-        <v>173264918</v>
+        <v>131970805</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G98" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C99">
-        <v>3213404</v>
+        <v>89403320</v>
       </c>
       <c r="D99">
-        <v>3213406</v>
+        <v>89403322</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="G99" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C100">
-        <v>89599591</v>
+        <v>89403320</v>
       </c>
       <c r="D100">
-        <v>89599593</v>
+        <v>89403322</v>
       </c>
       <c r="E100" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>214</v>
+        <v>411</v>
       </c>
       <c r="G100" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C101">
-        <v>130126348</v>
+        <v>33488648</v>
       </c>
       <c r="D101">
-        <v>130126350</v>
+        <v>33488650</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G101" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C102">
-        <v>41968231</v>
+        <v>85160554</v>
       </c>
       <c r="D102">
-        <v>41968233</v>
+        <v>85160556</v>
       </c>
       <c r="E102" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G102" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C103">
-        <v>76748093</v>
+        <v>133253903</v>
       </c>
       <c r="D103">
-        <v>76748095</v>
+        <v>133253905</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="F103" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C104">
-        <v>219595362</v>
+        <v>201476584</v>
       </c>
       <c r="D104">
-        <v>219595364</v>
+        <v>201476586</v>
       </c>
       <c r="E104" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F104" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C105">
-        <v>168032755</v>
+        <v>130126348</v>
       </c>
       <c r="D105">
-        <v>168032757</v>
+        <v>130126350</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F105" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G105" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C106">
-        <v>19483011</v>
+        <v>7224989</v>
       </c>
       <c r="D106">
-        <v>19483013</v>
+        <v>7224991</v>
       </c>
       <c r="E106" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F106" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C107">
-        <v>3180036</v>
+        <v>89101072</v>
       </c>
       <c r="D107">
-        <v>3180038</v>
+        <v>89101074</v>
       </c>
       <c r="E107" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G107" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C108">
-        <v>31136874</v>
+        <v>17051538</v>
       </c>
       <c r="D108">
-        <v>31136876</v>
+        <v>17051540</v>
       </c>
       <c r="E108" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F108" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G108" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C109">
-        <v>155701180</v>
+        <v>79189641</v>
       </c>
       <c r="D109">
-        <v>155701182</v>
+        <v>79189643</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G109" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C110">
-        <v>156641708</v>
+        <v>89374183</v>
       </c>
       <c r="D110">
-        <v>156641710</v>
+        <v>89374185</v>
       </c>
       <c r="E110" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F110" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="G110" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C111">
-        <v>156641708</v>
+        <v>57270164</v>
       </c>
       <c r="D111">
-        <v>156641710</v>
+        <v>57270166</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F111" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="G111" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C112">
-        <v>21937868</v>
+        <v>156641708</v>
       </c>
       <c r="D112">
-        <v>21937870</v>
+        <v>156641710</v>
       </c>
       <c r="E112" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G112" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C113">
-        <v>21937868</v>
+        <v>156641708</v>
       </c>
       <c r="D113">
-        <v>21937870</v>
+        <v>156641710</v>
       </c>
       <c r="E113" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G113" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C114">
-        <v>8849264</v>
+        <v>19483011</v>
       </c>
       <c r="D114">
-        <v>8849266</v>
+        <v>19483013</v>
       </c>
       <c r="E114" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="F114" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G114" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C115">
-        <v>8849264</v>
+        <v>16183799</v>
       </c>
       <c r="D115">
-        <v>8849266</v>
+        <v>16183801</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G115" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4296,22 +4464,22 @@
         <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="C116">
-        <v>8849264</v>
+        <v>76328584</v>
       </c>
       <c r="D116">
-        <v>8849266</v>
+        <v>76328586</v>
       </c>
       <c r="E116" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G116" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4319,22 +4487,22 @@
         <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>89647922</v>
+        <v>75208215</v>
       </c>
       <c r="D117">
-        <v>89647924</v>
+        <v>75208217</v>
       </c>
       <c r="E117" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G117" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4342,22 +4510,22 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C118">
-        <v>82836204</v>
+        <v>1678532</v>
       </c>
       <c r="D118">
-        <v>82836206</v>
+        <v>1678534</v>
       </c>
       <c r="E118" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G118" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4365,91 +4533,91 @@
         <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C119">
-        <v>82836204</v>
+        <v>1678532</v>
       </c>
       <c r="D119">
-        <v>82836206</v>
+        <v>1678534</v>
       </c>
       <c r="E119" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F119" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G119" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C120">
-        <v>118900</v>
+        <v>1678532</v>
       </c>
       <c r="D120">
-        <v>118902</v>
+        <v>1678534</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G120" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C121">
-        <v>6483135</v>
+        <v>67997549</v>
       </c>
       <c r="D121">
-        <v>6483137</v>
+        <v>67997551</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="F121" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G121" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C122">
-        <v>1893035</v>
+        <v>46882240</v>
       </c>
       <c r="D122">
-        <v>1893037</v>
+        <v>46882242</v>
       </c>
       <c r="E122" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="G122" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4457,22 +4625,22 @@
         <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C123">
-        <v>1893035</v>
+        <v>109624886</v>
       </c>
       <c r="D123">
-        <v>1893037</v>
+        <v>109624888</v>
       </c>
       <c r="E123" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F123" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G123" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4480,137 +4648,137 @@
         <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C124">
-        <v>89835381</v>
+        <v>52168344</v>
       </c>
       <c r="D124">
-        <v>89835383</v>
+        <v>52168346</v>
       </c>
       <c r="E124" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="F124" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G124" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C125">
-        <v>89835381</v>
+        <v>17579056</v>
       </c>
       <c r="D125">
-        <v>89835383</v>
+        <v>17579058</v>
       </c>
       <c r="E125" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G125" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C126">
-        <v>65424235</v>
+        <v>32855950</v>
       </c>
       <c r="D126">
-        <v>65424237</v>
+        <v>32855952</v>
       </c>
       <c r="E126" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="F126" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G126" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C127">
-        <v>149077019</v>
+        <v>11558238</v>
       </c>
       <c r="D127">
-        <v>149077021</v>
+        <v>11558240</v>
       </c>
       <c r="E127" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="F127" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G127" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="C128">
-        <v>17051538</v>
+        <v>59007065</v>
       </c>
       <c r="D128">
-        <v>17051540</v>
+        <v>59007067</v>
       </c>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="F128" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G128" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C129">
-        <v>220896850</v>
+        <v>134053771</v>
       </c>
       <c r="D129">
-        <v>220896852</v>
+        <v>134053773</v>
       </c>
       <c r="E129" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="F129" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="G129" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4618,689 +4786,689 @@
         <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C130">
-        <v>146598717</v>
+        <v>134053771</v>
       </c>
       <c r="D130">
-        <v>146598719</v>
+        <v>134053773</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="F130" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="G130" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C131">
-        <v>146598717</v>
+        <v>6638238</v>
       </c>
       <c r="D131">
-        <v>146598719</v>
+        <v>6638240</v>
       </c>
       <c r="E131" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="F131" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="G131" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C132">
-        <v>1208911</v>
+        <v>241813194</v>
       </c>
       <c r="D132">
-        <v>1208913</v>
+        <v>241813196</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="F132" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="G132" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C133">
-        <v>1208911</v>
+        <v>241813194</v>
       </c>
       <c r="D133">
-        <v>1208913</v>
+        <v>241813196</v>
       </c>
       <c r="E133" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="F133" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C134">
-        <v>67404113</v>
+        <v>73028309</v>
       </c>
       <c r="D134">
-        <v>67404115</v>
+        <v>73028311</v>
       </c>
       <c r="E134" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C135">
-        <v>67404113</v>
+        <v>40418426</v>
       </c>
       <c r="D135">
-        <v>67404115</v>
+        <v>40418428</v>
       </c>
       <c r="E135" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F135" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G135" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C136">
-        <v>93363960</v>
+        <v>22729886</v>
       </c>
       <c r="D136">
-        <v>93363962</v>
+        <v>22729888</v>
       </c>
       <c r="E136" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="F136" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G136" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C137">
-        <v>11601952</v>
+        <v>80999487</v>
       </c>
       <c r="D137">
-        <v>11601954</v>
+        <v>80999489</v>
       </c>
       <c r="E137" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="F137" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G137" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C138">
-        <v>481328</v>
+        <v>89275990</v>
       </c>
       <c r="D138">
-        <v>481330</v>
+        <v>89275992</v>
       </c>
       <c r="E138" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G138" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C139">
-        <v>17378501</v>
+        <v>102715582</v>
       </c>
       <c r="D139">
-        <v>17378503</v>
+        <v>102715584</v>
       </c>
       <c r="E139" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F139" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G139" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B140" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C140">
-        <v>50968785</v>
+        <v>102715582</v>
       </c>
       <c r="D140">
-        <v>50968787</v>
+        <v>102715584</v>
       </c>
       <c r="E140" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F140" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G140" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C141">
-        <v>50968785</v>
+        <v>165658541</v>
       </c>
       <c r="D141">
-        <v>50968787</v>
+        <v>165658543</v>
       </c>
       <c r="E141" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F141" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G141" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C142">
-        <v>117684205</v>
+        <v>173264916</v>
       </c>
       <c r="D142">
-        <v>117684207</v>
+        <v>173264918</v>
       </c>
       <c r="E142" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="F142" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G142" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C143">
-        <v>33488648</v>
+        <v>218856441</v>
       </c>
       <c r="D143">
-        <v>33488650</v>
+        <v>218856443</v>
       </c>
       <c r="E143" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="F143" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G143" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C144">
-        <v>150490832</v>
+        <v>81389134</v>
       </c>
       <c r="D144">
-        <v>150490834</v>
+        <v>81389136</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="F144" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G144" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C145">
-        <v>87555286</v>
+        <v>9733040</v>
       </c>
       <c r="D145">
-        <v>87555288</v>
+        <v>9733042</v>
       </c>
       <c r="E145" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="F145" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G145" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C146">
-        <v>132685455</v>
+        <v>6483080</v>
       </c>
       <c r="D146">
-        <v>132685457</v>
+        <v>6483082</v>
       </c>
       <c r="E146" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="F146" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G146" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C147">
-        <v>12475057</v>
+        <v>58119061</v>
       </c>
       <c r="D147">
-        <v>12475059</v>
+        <v>58119063</v>
       </c>
       <c r="E147" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="F147" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G147" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C148">
-        <v>156426519</v>
+        <v>89647922</v>
       </c>
       <c r="D148">
-        <v>156426521</v>
+        <v>89647924</v>
       </c>
       <c r="E148" t="s">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="F148" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G148" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C149">
-        <v>3178956</v>
+        <v>25252150</v>
       </c>
       <c r="D149">
-        <v>3178958</v>
+        <v>25252152</v>
       </c>
       <c r="E149" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="F149" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G149" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C150">
-        <v>99561858</v>
+        <v>124501577</v>
       </c>
       <c r="D150">
-        <v>99561860</v>
+        <v>124501579</v>
       </c>
       <c r="E150" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="F150" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G150" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C151">
-        <v>32127129</v>
+        <v>136107370</v>
       </c>
       <c r="D151">
-        <v>32127131</v>
+        <v>136107372</v>
       </c>
       <c r="E151" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="F151" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G151" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C152">
-        <v>65026930</v>
+        <v>98013627</v>
       </c>
       <c r="D152">
-        <v>65026932</v>
+        <v>98013629</v>
       </c>
       <c r="E152" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="F152" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G152" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C153">
-        <v>46305392</v>
+        <v>1208907</v>
       </c>
       <c r="D153">
-        <v>46305394</v>
+        <v>1208909</v>
       </c>
       <c r="E153" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="F153" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G153" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C154">
-        <v>77364394</v>
+        <v>1208907</v>
       </c>
       <c r="D154">
-        <v>77364396</v>
+        <v>1208909</v>
       </c>
       <c r="E154" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="F154" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G154" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C155">
-        <v>177982332</v>
+        <v>220896850</v>
       </c>
       <c r="D155">
-        <v>177982334</v>
+        <v>220896852</v>
       </c>
       <c r="E155" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="F155" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="G155" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C156">
-        <v>49156041</v>
+        <v>154465216</v>
       </c>
       <c r="D156">
-        <v>49156043</v>
+        <v>154465218</v>
       </c>
       <c r="E156" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="F156" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G156" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C157">
-        <v>125219264</v>
+        <v>20018581</v>
       </c>
       <c r="D157">
-        <v>125219266</v>
+        <v>20018583</v>
       </c>
       <c r="E157" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F157" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G157" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C158">
-        <v>104693221</v>
+        <v>4501145</v>
       </c>
       <c r="D158">
-        <v>104693223</v>
+        <v>4501147</v>
       </c>
       <c r="E158" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="F158" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G158" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C159">
-        <v>89235539</v>
+        <v>1893035</v>
       </c>
       <c r="D159">
-        <v>89235541</v>
+        <v>1893037</v>
       </c>
       <c r="E159" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F159" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G159" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5308,22 +5476,22 @@
         <v>139</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C160">
-        <v>132715433</v>
+        <v>1893035</v>
       </c>
       <c r="D160">
-        <v>132715435</v>
+        <v>1893037</v>
       </c>
       <c r="E160" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="F160" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G160" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5331,22 +5499,22 @@
         <v>140</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C161">
-        <v>38804603</v>
+        <v>17425477</v>
       </c>
       <c r="D161">
-        <v>38804605</v>
+        <v>17425479</v>
       </c>
       <c r="E161" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="F161" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G161" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5354,22 +5522,22 @@
         <v>141</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C162">
-        <v>101725089</v>
+        <v>48430734</v>
       </c>
       <c r="D162">
-        <v>101725091</v>
+        <v>48430736</v>
       </c>
       <c r="E162" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="F162" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G162" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5377,229 +5545,229 @@
         <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C163">
-        <v>94614490</v>
+        <v>3671119</v>
       </c>
       <c r="D163">
-        <v>94614492</v>
+        <v>3671121</v>
       </c>
       <c r="E163" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="F163" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="G163" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C164">
-        <v>48538620</v>
+        <v>3671119</v>
       </c>
       <c r="D164">
-        <v>48538622</v>
+        <v>3671121</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="F164" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G164" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C165">
-        <v>130849277</v>
+        <v>12475057</v>
       </c>
       <c r="D165">
-        <v>130849279</v>
+        <v>12475059</v>
       </c>
       <c r="E165" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="F165" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G165" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C166">
-        <v>148026284</v>
+        <v>98940362</v>
       </c>
       <c r="D166">
-        <v>148026286</v>
+        <v>98940364</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F166" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G166" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C167">
-        <v>79189641</v>
+        <v>43507046</v>
       </c>
       <c r="D167">
-        <v>79189643</v>
+        <v>43507048</v>
       </c>
       <c r="E167" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="F167" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G167" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C168">
-        <v>3179829</v>
+        <v>3245839</v>
       </c>
       <c r="D168">
-        <v>3179831</v>
+        <v>3245841</v>
       </c>
       <c r="E168" t="s">
-        <v>284</v>
+        <v>357</v>
       </c>
       <c r="F168" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G168" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C169">
-        <v>204490455</v>
+        <v>36888896</v>
       </c>
       <c r="D169">
-        <v>204490457</v>
+        <v>36888898</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F169" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G169" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C170">
-        <v>165658541</v>
+        <v>121223958</v>
       </c>
       <c r="D170">
-        <v>165658543</v>
+        <v>121223960</v>
       </c>
       <c r="E170" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="F170" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G170" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C171">
-        <v>55309356</v>
+        <v>1118554</v>
       </c>
       <c r="D171">
-        <v>55309358</v>
+        <v>1118556</v>
       </c>
       <c r="E171" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F171" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G171" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C172">
-        <v>45339053</v>
+        <v>155701180</v>
       </c>
       <c r="D172">
-        <v>45339055</v>
+        <v>155701182</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="F172" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G172" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5607,22 +5775,22 @@
         <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C173">
-        <v>45339053</v>
+        <v>235044659</v>
       </c>
       <c r="D173">
-        <v>45339055</v>
+        <v>235044661</v>
       </c>
       <c r="E173" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="F173" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G173" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5630,22 +5798,22 @@
         <v>152</v>
       </c>
       <c r="B174" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C174">
-        <v>158549590</v>
+        <v>14009636</v>
       </c>
       <c r="D174">
-        <v>158549592</v>
+        <v>14009638</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="F174" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G174" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5653,712 +5821,1218 @@
         <v>153</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C175">
-        <v>57489107</v>
+        <v>226987375</v>
       </c>
       <c r="D175">
-        <v>57489109</v>
+        <v>226987377</v>
       </c>
       <c r="E175" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="F175" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G175" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C176">
-        <v>57489107</v>
+        <v>11878369</v>
       </c>
       <c r="D176">
-        <v>57489109</v>
+        <v>11878371</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="F176" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G176" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C177">
-        <v>104350553</v>
+        <v>3213404</v>
       </c>
       <c r="D177">
-        <v>104350555</v>
+        <v>3213406</v>
       </c>
       <c r="E177" t="s">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="F177" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G177" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B178" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C178">
-        <v>15945893</v>
+        <v>70594241</v>
       </c>
       <c r="D178">
-        <v>15945895</v>
+        <v>70594243</v>
       </c>
       <c r="E178" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="F178" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G178" t="s">
-        <v>378</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C179">
-        <v>57201608</v>
+        <v>86889207</v>
       </c>
       <c r="D179">
-        <v>57201610</v>
+        <v>86889209</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F179" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G179" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C180">
-        <v>212792866</v>
+        <v>82836204</v>
       </c>
       <c r="D180">
-        <v>212792868</v>
+        <v>82836206</v>
       </c>
       <c r="E180" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="F180" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G180" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C181">
-        <v>212792866</v>
+        <v>82836204</v>
       </c>
       <c r="D181">
-        <v>212792868</v>
+        <v>82836206</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="F181" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G181" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C182">
-        <v>49784571</v>
+        <v>69217453</v>
       </c>
       <c r="D182">
-        <v>49784573</v>
+        <v>69217455</v>
       </c>
       <c r="E182" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="G182" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C183">
-        <v>52096002</v>
+        <v>42239104</v>
       </c>
       <c r="D183">
-        <v>52096004</v>
+        <v>42239106</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G183" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C184">
-        <v>52096002</v>
+        <v>42239104</v>
       </c>
       <c r="D184">
-        <v>52096004</v>
+        <v>42239106</v>
       </c>
       <c r="E184" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G184" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C185">
-        <v>20999156</v>
+        <v>98085052</v>
       </c>
       <c r="D185">
-        <v>20999158</v>
+        <v>98085054</v>
       </c>
       <c r="E185" t="s">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="F185" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="G185" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C186">
-        <v>20999156</v>
+        <v>69012423</v>
       </c>
       <c r="D186">
-        <v>20999158</v>
+        <v>69012425</v>
       </c>
       <c r="E186" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="F186" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G186" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C187">
-        <v>188947203</v>
+        <v>124632254</v>
       </c>
       <c r="D187">
-        <v>188947205</v>
+        <v>124632256</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="F187" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="G187" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C188">
-        <v>188947203</v>
+        <v>124632254</v>
       </c>
       <c r="D188">
-        <v>188947205</v>
+        <v>124632256</v>
       </c>
       <c r="E188" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="G188" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B189" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C189">
-        <v>81313945</v>
+        <v>177982332</v>
       </c>
       <c r="D189">
-        <v>81313947</v>
+        <v>177982334</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="F189" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G189" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C190">
-        <v>81313945</v>
+        <v>2289290</v>
       </c>
       <c r="D190">
-        <v>81313947</v>
+        <v>2289292</v>
       </c>
       <c r="E190" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="G190" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B191" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C191">
-        <v>35379396</v>
+        <v>158996903</v>
       </c>
       <c r="D191">
-        <v>35379398</v>
+        <v>158996905</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G191" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B192" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C192">
-        <v>5692752</v>
+        <v>43482701</v>
       </c>
       <c r="D192">
-        <v>5692754</v>
+        <v>43482703</v>
       </c>
       <c r="E192" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="G192" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B193" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C193">
-        <v>4501145</v>
+        <v>43482701</v>
       </c>
       <c r="D193">
-        <v>4501147</v>
+        <v>43482703</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="G193" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B194" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C194">
-        <v>124632254</v>
+        <v>85902604</v>
       </c>
       <c r="D194">
-        <v>124632256</v>
+        <v>85902606</v>
       </c>
       <c r="E194" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G194" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C195">
-        <v>124632254</v>
+        <v>17351576</v>
       </c>
       <c r="D195">
-        <v>124632256</v>
+        <v>17351578</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G195" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C196">
-        <v>128620009</v>
+        <v>30157014</v>
       </c>
       <c r="D196">
-        <v>128620011</v>
+        <v>30157016</v>
       </c>
       <c r="E196" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G196" t="s">
-        <v>376</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C197">
-        <v>150783114</v>
+        <v>93114298</v>
       </c>
       <c r="D197">
-        <v>150783116</v>
+        <v>93114300</v>
       </c>
       <c r="E197" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G197" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C198">
-        <v>64987490</v>
+        <v>59249930</v>
       </c>
       <c r="D198">
-        <v>64987492</v>
+        <v>59249932</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G198" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="C199">
-        <v>1170137</v>
+        <v>59249930</v>
       </c>
       <c r="D199">
-        <v>1170139</v>
+        <v>59249932</v>
       </c>
       <c r="E199" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G199" t="s">
-        <v>379</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B200" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C200">
-        <v>219159883</v>
+        <v>59249930</v>
       </c>
       <c r="D200">
-        <v>219159885</v>
+        <v>59249932</v>
       </c>
       <c r="E200" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G200" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B201" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C201">
-        <v>219159883</v>
+        <v>481328</v>
       </c>
       <c r="D201">
-        <v>219159885</v>
+        <v>481330</v>
       </c>
       <c r="E201" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="F201" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="G201" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C202">
-        <v>107705174</v>
+        <v>19387441</v>
       </c>
       <c r="D202">
-        <v>107705176</v>
+        <v>19387443</v>
       </c>
       <c r="E202" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="F202" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G202" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B203" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C203">
-        <v>60792772</v>
+        <v>111567242</v>
       </c>
       <c r="D203">
-        <v>60792774</v>
+        <v>111567244</v>
       </c>
       <c r="E203" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G203" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C204">
-        <v>7941248</v>
+        <v>111567242</v>
       </c>
       <c r="D204">
-        <v>7941250</v>
+        <v>111567244</v>
       </c>
       <c r="E204" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="G204" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C205">
-        <v>7941248</v>
+        <v>38804603</v>
       </c>
       <c r="D205">
-        <v>7941250</v>
+        <v>38804605</v>
       </c>
       <c r="E205" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="G205" t="s">
-        <v>375</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206">
+        <v>125219264</v>
+      </c>
+      <c r="D206">
+        <v>125219266</v>
+      </c>
+      <c r="E206" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" t="s">
+        <v>404</v>
+      </c>
+      <c r="G206" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B207" t="s">
+        <v>198</v>
+      </c>
+      <c r="C207">
+        <v>1708796</v>
+      </c>
+      <c r="D207">
+        <v>1708798</v>
+      </c>
+      <c r="E207" t="s">
+        <v>389</v>
+      </c>
+      <c r="F207" t="s">
+        <v>404</v>
+      </c>
+      <c r="G207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208">
+        <v>168032755</v>
+      </c>
+      <c r="D208">
+        <v>168032757</v>
+      </c>
+      <c r="E208" t="s">
+        <v>390</v>
+      </c>
+      <c r="F208" t="s">
+        <v>404</v>
+      </c>
+      <c r="G208" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" t="s">
+        <v>200</v>
+      </c>
+      <c r="C209">
+        <v>94769712</v>
+      </c>
+      <c r="D209">
+        <v>94769714</v>
+      </c>
+      <c r="E209" t="s">
+        <v>391</v>
+      </c>
+      <c r="F209" t="s">
+        <v>404</v>
+      </c>
+      <c r="G209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210">
+        <v>55750825</v>
+      </c>
+      <c r="D210">
+        <v>55750827</v>
+      </c>
+      <c r="E210" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" t="s">
+        <v>404</v>
+      </c>
+      <c r="G210" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211">
+        <v>125522544</v>
+      </c>
+      <c r="D211">
+        <v>125522546</v>
+      </c>
+      <c r="E211" t="s">
+        <v>393</v>
+      </c>
+      <c r="F211" t="s">
+        <v>404</v>
+      </c>
+      <c r="G211" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B212" t="s">
+        <v>202</v>
+      </c>
+      <c r="C212">
+        <v>134283808</v>
+      </c>
+      <c r="D212">
+        <v>134283810</v>
+      </c>
+      <c r="E212" t="s">
+        <v>394</v>
+      </c>
+      <c r="F212" t="s">
+        <v>404</v>
+      </c>
+      <c r="G212" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213">
+        <v>23144881</v>
+      </c>
+      <c r="D213">
+        <v>23144883</v>
+      </c>
+      <c r="E213" t="s">
+        <v>395</v>
+      </c>
+      <c r="F213" t="s">
+        <v>404</v>
+      </c>
+      <c r="G213" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B214" t="s">
+        <v>198</v>
+      </c>
+      <c r="C214">
+        <v>89100873</v>
+      </c>
+      <c r="D214">
+        <v>89100875</v>
+      </c>
+      <c r="E214" t="s">
+        <v>303</v>
+      </c>
+      <c r="F214" t="s">
+        <v>404</v>
+      </c>
+      <c r="G214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+      <c r="C215">
+        <v>4539969</v>
+      </c>
+      <c r="D215">
+        <v>4539971</v>
+      </c>
+      <c r="E215" t="s">
+        <v>396</v>
+      </c>
+      <c r="F215" t="s">
+        <v>404</v>
+      </c>
+      <c r="G215" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" t="s">
+        <v>211</v>
+      </c>
+      <c r="C216">
+        <v>4539969</v>
+      </c>
+      <c r="D216">
+        <v>4539971</v>
+      </c>
+      <c r="E216" t="s">
+        <v>397</v>
+      </c>
+      <c r="F216" t="s">
+        <v>404</v>
+      </c>
+      <c r="G216" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217">
+        <v>4529400</v>
+      </c>
+      <c r="D217">
+        <v>4529402</v>
+      </c>
+      <c r="E217" t="s">
+        <v>398</v>
+      </c>
+      <c r="F217" t="s">
+        <v>404</v>
+      </c>
+      <c r="G217" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218">
+        <v>1298861</v>
+      </c>
+      <c r="D218">
+        <v>1298863</v>
+      </c>
+      <c r="E218" t="s">
+        <v>399</v>
+      </c>
+      <c r="F218" t="s">
+        <v>404</v>
+      </c>
+      <c r="G218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B219" t="s">
+        <v>200</v>
+      </c>
+      <c r="C219">
+        <v>1916226</v>
+      </c>
+      <c r="D219">
+        <v>1916228</v>
+      </c>
+      <c r="E219" t="s">
+        <v>224</v>
+      </c>
+      <c r="F219" t="s">
+        <v>224</v>
+      </c>
+      <c r="G219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B220" t="s">
+        <v>205</v>
+      </c>
+      <c r="C220">
+        <v>246789611</v>
+      </c>
+      <c r="D220">
+        <v>246789613</v>
+      </c>
+      <c r="E220" t="s">
+        <v>231</v>
+      </c>
+      <c r="F220" t="s">
+        <v>406</v>
+      </c>
+      <c r="G220" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221">
+        <v>246789611</v>
+      </c>
+      <c r="D221">
+        <v>246789613</v>
+      </c>
+      <c r="E221" t="s">
+        <v>232</v>
+      </c>
+      <c r="F221" t="s">
+        <v>406</v>
+      </c>
+      <c r="G221" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B222" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222">
+        <v>8247121</v>
+      </c>
+      <c r="D222">
+        <v>8247123</v>
+      </c>
+      <c r="E222" t="s">
+        <v>224</v>
+      </c>
+      <c r="F222" t="s">
+        <v>224</v>
+      </c>
+      <c r="G222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B223" t="s">
+        <v>197</v>
+      </c>
+      <c r="C223">
+        <v>50317984</v>
+      </c>
+      <c r="D223">
+        <v>50317986</v>
+      </c>
+      <c r="E223" t="s">
+        <v>400</v>
+      </c>
+      <c r="F223" t="s">
+        <v>404</v>
+      </c>
+      <c r="G223" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B224" t="s">
+        <v>202</v>
+      </c>
+      <c r="C224">
+        <v>11921150</v>
+      </c>
+      <c r="D224">
+        <v>11921152</v>
+      </c>
+      <c r="E224" t="s">
+        <v>401</v>
+      </c>
+      <c r="F224" t="s">
+        <v>408</v>
+      </c>
+      <c r="G224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B225" t="s">
+        <v>202</v>
+      </c>
+      <c r="C225">
+        <v>203637474</v>
+      </c>
+      <c r="D225">
+        <v>203637476</v>
+      </c>
+      <c r="E225" t="s">
+        <v>402</v>
+      </c>
+      <c r="F225" t="s">
+        <v>414</v>
+      </c>
+      <c r="G225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B226" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226">
+        <v>82584038</v>
+      </c>
+      <c r="D226">
+        <v>82584040</v>
+      </c>
+      <c r="E226" t="s">
+        <v>403</v>
+      </c>
+      <c r="F226" t="s">
+        <v>404</v>
+      </c>
+      <c r="G226" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" t="s">
+        <v>198</v>
+      </c>
+      <c r="C227">
+        <v>87555286</v>
+      </c>
+      <c r="D227">
+        <v>87555288</v>
+      </c>
+      <c r="E227" t="s">
+        <v>224</v>
+      </c>
+      <c r="F227" t="s">
+        <v>224</v>
+      </c>
+      <c r="G227" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/MethylScoreAML_Px_167_cpg_genes.xlsx
+++ b/data/MethylScoreAML_Px_167_cpg_genes.xlsx
@@ -40,823 +40,823 @@
     <t>probeID</t>
   </si>
   <si>
+    <t>cg12026095</t>
+  </si>
+  <si>
     <t>cg02678414</t>
   </si>
   <si>
+    <t>cg14910406</t>
+  </si>
+  <si>
+    <t>cg12708336</t>
+  </si>
+  <si>
+    <t>cg06400255</t>
+  </si>
+  <si>
     <t>cg05299836</t>
   </si>
   <si>
+    <t>cg02320937</t>
+  </si>
+  <si>
+    <t>cg26888941</t>
+  </si>
+  <si>
+    <t>cg00192882</t>
+  </si>
+  <si>
+    <t>cg02474542</t>
+  </si>
+  <si>
+    <t>cg12586594</t>
+  </si>
+  <si>
+    <t>cg03258927</t>
+  </si>
+  <si>
+    <t>cg03116016</t>
+  </si>
+  <si>
+    <t>cg00375146</t>
+  </si>
+  <si>
+    <t>cg09432758</t>
+  </si>
+  <si>
+    <t>cg26124526</t>
+  </si>
+  <si>
+    <t>cg15830431</t>
+  </si>
+  <si>
+    <t>cg06666376</t>
+  </si>
+  <si>
+    <t>cg11851174</t>
+  </si>
+  <si>
+    <t>cg04578362</t>
+  </si>
+  <si>
+    <t>cg12172163</t>
+  </si>
+  <si>
+    <t>cg19380581</t>
+  </si>
+  <si>
+    <t>cg02767093</t>
+  </si>
+  <si>
+    <t>cg14978242</t>
+  </si>
+  <si>
+    <t>cg18112681</t>
+  </si>
+  <si>
+    <t>cg00795277</t>
+  </si>
+  <si>
+    <t>cg17078656</t>
+  </si>
+  <si>
+    <t>cg18866597</t>
+  </si>
+  <si>
+    <t>cg27018309</t>
+  </si>
+  <si>
+    <t>cg25828093</t>
+  </si>
+  <si>
+    <t>cg11975397</t>
+  </si>
+  <si>
+    <t>cg26112639</t>
+  </si>
+  <si>
+    <t>cg14928764</t>
+  </si>
+  <si>
+    <t>cg21769117</t>
+  </si>
+  <si>
+    <t>cg06748884</t>
+  </si>
+  <si>
+    <t>cg11823637</t>
+  </si>
+  <si>
+    <t>cg08998192</t>
+  </si>
+  <si>
+    <t>cg10601624</t>
+  </si>
+  <si>
+    <t>cg23409168</t>
+  </si>
+  <si>
+    <t>cg21637653</t>
+  </si>
+  <si>
+    <t>cg06024557</t>
+  </si>
+  <si>
+    <t>cg04544475</t>
+  </si>
+  <si>
+    <t>cg04314978</t>
+  </si>
+  <si>
+    <t>cg16317961</t>
+  </si>
+  <si>
+    <t>cg23443627</t>
+  </si>
+  <si>
+    <t>cg24747122</t>
+  </si>
+  <si>
+    <t>cg07499292</t>
+  </si>
+  <si>
+    <t>cg20310759</t>
+  </si>
+  <si>
+    <t>cg06806210</t>
+  </si>
+  <si>
+    <t>cg08900363</t>
+  </si>
+  <si>
+    <t>cg07049515</t>
+  </si>
+  <si>
+    <t>cg17540192</t>
+  </si>
+  <si>
+    <t>cg25922105</t>
+  </si>
+  <si>
+    <t>cg08729279</t>
+  </si>
+  <si>
+    <t>cg12449049</t>
+  </si>
+  <si>
+    <t>cg00945409</t>
+  </si>
+  <si>
+    <t>cg08069883</t>
+  </si>
+  <si>
+    <t>cg05197036</t>
+  </si>
+  <si>
+    <t>cg17875657</t>
+  </si>
+  <si>
+    <t>cg13958583</t>
+  </si>
+  <si>
+    <t>cg01048810</t>
+  </si>
+  <si>
+    <t>cg15215077</t>
+  </si>
+  <si>
+    <t>cg08079170</t>
+  </si>
+  <si>
+    <t>cg14722693</t>
+  </si>
+  <si>
+    <t>cg19599045</t>
+  </si>
+  <si>
+    <t>cg26971423</t>
+  </si>
+  <si>
+    <t>cg00598235</t>
+  </si>
+  <si>
+    <t>cg13213755</t>
+  </si>
+  <si>
+    <t>cg24422027</t>
+  </si>
+  <si>
+    <t>cg01052291</t>
+  </si>
+  <si>
+    <t>cg05075308</t>
+  </si>
+  <si>
+    <t>cg09372525</t>
+  </si>
+  <si>
+    <t>cg06130562</t>
+  </si>
+  <si>
+    <t>cg11269166</t>
+  </si>
+  <si>
+    <t>cg06845655</t>
+  </si>
+  <si>
+    <t>cg08314781</t>
+  </si>
+  <si>
+    <t>cg25535982</t>
+  </si>
+  <si>
+    <t>cg24320673</t>
+  </si>
+  <si>
+    <t>cg14399183</t>
+  </si>
+  <si>
+    <t>cg06529643</t>
+  </si>
+  <si>
+    <t>cg18564075</t>
+  </si>
+  <si>
+    <t>cg13033858</t>
+  </si>
+  <si>
+    <t>cg06605704</t>
+  </si>
+  <si>
+    <t>cg00041989</t>
+  </si>
+  <si>
+    <t>cg16270222</t>
+  </si>
+  <si>
+    <t>cg23361265</t>
+  </si>
+  <si>
+    <t>cg06650260</t>
+  </si>
+  <si>
+    <t>cg06985664</t>
+  </si>
+  <si>
+    <t>cg08855705</t>
+  </si>
+  <si>
     <t>cg25152348</t>
   </si>
   <si>
-    <t>cg14910406</t>
-  </si>
-  <si>
     <t>cg24607181</t>
   </si>
   <si>
-    <t>cg02320937</t>
-  </si>
-  <si>
-    <t>cg19380581</t>
-  </si>
-  <si>
-    <t>cg26888941</t>
-  </si>
-  <si>
-    <t>cg00375146</t>
-  </si>
-  <si>
-    <t>cg04578362</t>
-  </si>
-  <si>
-    <t>cg12172163</t>
-  </si>
-  <si>
-    <t>cg06400255</t>
-  </si>
-  <si>
-    <t>cg06666376</t>
-  </si>
-  <si>
-    <t>cg03116016</t>
-  </si>
-  <si>
-    <t>cg00192882</t>
-  </si>
-  <si>
-    <t>cg02474542</t>
-  </si>
-  <si>
-    <t>cg03258927</t>
-  </si>
-  <si>
-    <t>cg14978242</t>
-  </si>
-  <si>
-    <t>cg12586594</t>
-  </si>
-  <si>
-    <t>cg09432758</t>
+    <t>cg21611262</t>
+  </si>
+  <si>
+    <t>cg03376089</t>
+  </si>
+  <si>
+    <t>cg11578066</t>
+  </si>
+  <si>
+    <t>cg17413194</t>
+  </si>
+  <si>
+    <t>cg02960777</t>
+  </si>
+  <si>
+    <t>cg14397690</t>
+  </si>
+  <si>
+    <t>cg24180227</t>
+  </si>
+  <si>
+    <t>cg22162847</t>
+  </si>
+  <si>
+    <t>cg20867674</t>
+  </si>
+  <si>
+    <t>cg02898412</t>
+  </si>
+  <si>
+    <t>cg15507449</t>
+  </si>
+  <si>
+    <t>cg06935361</t>
+  </si>
+  <si>
+    <t>cg05413061</t>
+  </si>
+  <si>
+    <t>cg11937508</t>
+  </si>
+  <si>
+    <t>cg12044599</t>
+  </si>
+  <si>
+    <t>cg27627381</t>
+  </si>
+  <si>
+    <t>cg24397815</t>
+  </si>
+  <si>
+    <t>cg10196861</t>
+  </si>
+  <si>
+    <t>cg01312394</t>
+  </si>
+  <si>
+    <t>cg03572680</t>
   </si>
   <si>
     <t>cg23886101</t>
   </si>
   <si>
-    <t>cg18112681</t>
-  </si>
-  <si>
-    <t>cg17078656</t>
-  </si>
-  <si>
-    <t>cg15830431</t>
-  </si>
-  <si>
-    <t>cg24397815</t>
-  </si>
-  <si>
-    <t>cg11851174</t>
-  </si>
-  <si>
-    <t>cg08314781</t>
-  </si>
-  <si>
-    <t>cg08079170</t>
-  </si>
-  <si>
-    <t>cg12026095</t>
-  </si>
-  <si>
-    <t>cg21769117</t>
-  </si>
-  <si>
-    <t>cg08855705</t>
-  </si>
-  <si>
-    <t>cg25922105</t>
-  </si>
-  <si>
-    <t>cg14928764</t>
-  </si>
-  <si>
-    <t>cg11823637</t>
-  </si>
-  <si>
-    <t>cg04314978</t>
-  </si>
-  <si>
-    <t>cg11937508</t>
-  </si>
-  <si>
-    <t>cg13213755</t>
-  </si>
-  <si>
-    <t>cg24747122</t>
-  </si>
-  <si>
-    <t>cg06024557</t>
-  </si>
-  <si>
-    <t>cg06748884</t>
-  </si>
-  <si>
-    <t>cg18866597</t>
-  </si>
-  <si>
-    <t>cg10601624</t>
-  </si>
-  <si>
-    <t>cg11975397</t>
-  </si>
-  <si>
-    <t>cg20310759</t>
-  </si>
-  <si>
-    <t>cg23409168</t>
-  </si>
-  <si>
-    <t>cg04544475</t>
-  </si>
-  <si>
-    <t>cg23443627</t>
-  </si>
-  <si>
-    <t>cg06806210</t>
-  </si>
-  <si>
-    <t>cg08998192</t>
-  </si>
-  <si>
-    <t>cg07499292</t>
-  </si>
-  <si>
-    <t>cg07049515</t>
-  </si>
-  <si>
-    <t>cg21637653</t>
-  </si>
-  <si>
-    <t>cg08900363</t>
-  </si>
-  <si>
-    <t>cg17540192</t>
-  </si>
-  <si>
-    <t>cg16317961</t>
-  </si>
-  <si>
-    <t>cg08729279</t>
-  </si>
-  <si>
-    <t>cg12449049</t>
-  </si>
-  <si>
-    <t>cg00945409</t>
-  </si>
-  <si>
-    <t>cg08069883</t>
-  </si>
-  <si>
-    <t>cg05197036</t>
-  </si>
-  <si>
-    <t>cg17875657</t>
-  </si>
-  <si>
-    <t>cg13958583</t>
-  </si>
-  <si>
-    <t>cg01048810</t>
-  </si>
-  <si>
-    <t>cg02767093</t>
-  </si>
-  <si>
-    <t>cg15215077</t>
-  </si>
-  <si>
-    <t>cg14722693</t>
-  </si>
-  <si>
-    <t>cg19599045</t>
-  </si>
-  <si>
-    <t>cg26971423</t>
-  </si>
-  <si>
-    <t>cg00598235</t>
-  </si>
-  <si>
-    <t>cg24422027</t>
-  </si>
-  <si>
-    <t>cg01052291</t>
-  </si>
-  <si>
-    <t>cg05075308</t>
-  </si>
-  <si>
-    <t>cg09372525</t>
-  </si>
-  <si>
-    <t>cg06130562</t>
-  </si>
-  <si>
-    <t>cg26112639</t>
-  </si>
-  <si>
-    <t>cg11269166</t>
-  </si>
-  <si>
-    <t>cg06845655</t>
-  </si>
-  <si>
-    <t>cg26124526</t>
-  </si>
-  <si>
-    <t>cg25535982</t>
-  </si>
-  <si>
-    <t>cg24320673</t>
-  </si>
-  <si>
-    <t>cg14399183</t>
-  </si>
-  <si>
-    <t>cg06529643</t>
-  </si>
-  <si>
-    <t>cg18564075</t>
-  </si>
-  <si>
-    <t>cg13033858</t>
-  </si>
-  <si>
-    <t>cg12708336</t>
-  </si>
-  <si>
-    <t>cg06605704</t>
-  </si>
-  <si>
-    <t>cg00041989</t>
-  </si>
-  <si>
-    <t>cg16270222</t>
-  </si>
-  <si>
-    <t>cg23361265</t>
-  </si>
-  <si>
-    <t>cg06650260</t>
-  </si>
-  <si>
-    <t>cg06985664</t>
-  </si>
-  <si>
-    <t>cg27018309</t>
-  </si>
-  <si>
-    <t>cg21611262</t>
-  </si>
-  <si>
-    <t>cg03376089</t>
-  </si>
-  <si>
-    <t>cg25828093</t>
-  </si>
-  <si>
-    <t>cg11578066</t>
-  </si>
-  <si>
-    <t>cg17413194</t>
-  </si>
-  <si>
-    <t>cg02960777</t>
-  </si>
-  <si>
-    <t>cg14397690</t>
-  </si>
-  <si>
-    <t>cg24180227</t>
-  </si>
-  <si>
-    <t>cg22162847</t>
-  </si>
-  <si>
-    <t>cg20867674</t>
-  </si>
-  <si>
-    <t>cg02898412</t>
-  </si>
-  <si>
-    <t>cg15507449</t>
-  </si>
-  <si>
-    <t>cg00795277</t>
-  </si>
-  <si>
-    <t>cg06935361</t>
-  </si>
-  <si>
-    <t>cg05413061</t>
-  </si>
-  <si>
-    <t>cg12044599</t>
-  </si>
-  <si>
-    <t>cg27627381</t>
-  </si>
-  <si>
-    <t>cg10196861</t>
-  </si>
-  <si>
-    <t>cg01312394</t>
-  </si>
-  <si>
-    <t>cg03572680</t>
+    <t>chr19</t>
   </si>
   <si>
     <t>chr16</t>
   </si>
   <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>chr17</t>
+  </si>
+  <si>
+    <t>chr11</t>
+  </si>
+  <si>
+    <t>chr6</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>chr5</t>
+  </si>
+  <si>
+    <t>chr8</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr18</t>
+  </si>
+  <si>
+    <t>chr20</t>
+  </si>
+  <si>
+    <t>chr12</t>
+  </si>
+  <si>
+    <t>chr7</t>
+  </si>
+  <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>chr14</t>
+  </si>
+  <si>
+    <t>chr15</t>
+  </si>
+  <si>
+    <t>chr4</t>
+  </si>
+  <si>
+    <t>chr9</t>
+  </si>
+  <si>
     <t>chr22</t>
   </si>
   <si>
-    <t>chr2</t>
-  </si>
-  <si>
-    <t>chr17</t>
-  </si>
-  <si>
-    <t>chr11</t>
-  </si>
-  <si>
-    <t>chr18</t>
-  </si>
-  <si>
-    <t>chr6</t>
-  </si>
-  <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr19</t>
-  </si>
-  <si>
-    <t>chr1</t>
-  </si>
-  <si>
-    <t>chr5</t>
-  </si>
-  <si>
-    <t>chr7</t>
-  </si>
-  <si>
-    <t>chr8</t>
-  </si>
-  <si>
-    <t>chr10</t>
-  </si>
-  <si>
-    <t>chr20</t>
-  </si>
-  <si>
-    <t>chr12</t>
-  </si>
-  <si>
-    <t>chr15</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
-    <t>chr14</t>
-  </si>
-  <si>
-    <t>chr4</t>
-  </si>
-  <si>
-    <t>chr9</t>
+    <t>FTL</t>
   </si>
   <si>
     <t>TRAF7</t>
   </si>
   <si>
+    <t>DNAJB2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FAM57B</t>
+  </si>
+  <si>
+    <t>ALDOA</t>
+  </si>
+  <si>
     <t>BCKDK</t>
   </si>
   <si>
     <t>AC135050.1</t>
   </si>
   <si>
+    <t>PHRF1</t>
+  </si>
+  <si>
+    <t>SYNGAP1</t>
+  </si>
+  <si>
+    <t>MFAP4</t>
+  </si>
+  <si>
+    <t>PDE2A</t>
+  </si>
+  <si>
+    <t>MYADM</t>
+  </si>
+  <si>
+    <t>AC008753.6</t>
+  </si>
+  <si>
+    <t>OLFML3</t>
+  </si>
+  <si>
+    <t>C16orf45</t>
+  </si>
+  <si>
+    <t>RP11-1021N1.1</t>
+  </si>
+  <si>
+    <t>MUC5AC</t>
+  </si>
+  <si>
+    <t>TCF3</t>
+  </si>
+  <si>
+    <t>STK3</t>
+  </si>
+  <si>
+    <t>SMIM24</t>
+  </si>
+  <si>
+    <t>RAI1</t>
+  </si>
+  <si>
+    <t>TEX41</t>
+  </si>
+  <si>
+    <t>PROZ</t>
+  </si>
+  <si>
+    <t>PSTPIP2</t>
+  </si>
+  <si>
+    <t>STK24</t>
+  </si>
+  <si>
+    <t>SERINC5</t>
+  </si>
+  <si>
+    <t>RARRES3</t>
+  </si>
+  <si>
+    <t>RP11-104H15.10</t>
+  </si>
+  <si>
+    <t>RP11-104H15.8</t>
+  </si>
+  <si>
+    <t>FGF11</t>
+  </si>
+  <si>
+    <t>RP11-104H15.7</t>
+  </si>
+  <si>
+    <t>VPS13D</t>
+  </si>
+  <si>
+    <t>SDC4</t>
+  </si>
+  <si>
+    <t>RP11-77H9.2</t>
+  </si>
+  <si>
+    <t>RP11-152P23.2</t>
+  </si>
+  <si>
+    <t>PMM2</t>
+  </si>
+  <si>
+    <t>RP11-550P17.5</t>
+  </si>
+  <si>
+    <t>RP11-180D21.3</t>
+  </si>
+  <si>
+    <t>NLRP3</t>
+  </si>
+  <si>
+    <t>CD93</t>
+  </si>
+  <si>
+    <t>CLIC1</t>
+  </si>
+  <si>
+    <t>CLEC16A</t>
+  </si>
+  <si>
+    <t>RP11-114G22.1</t>
+  </si>
+  <si>
+    <t>TAP2</t>
+  </si>
+  <si>
+    <t>XXbac-BPG246D15.9</t>
+  </si>
+  <si>
+    <t>LINC00536</t>
+  </si>
+  <si>
+    <t>FLCN</t>
+  </si>
+  <si>
+    <t>RP11-45M22.4</t>
+  </si>
+  <si>
+    <t>MPRIP</t>
+  </si>
+  <si>
+    <t>HMGXB3</t>
+  </si>
+  <si>
+    <t>RNF43</t>
+  </si>
+  <si>
+    <t>BZRAP1-AS1</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>MAPRE2</t>
+  </si>
+  <si>
+    <t>CD300A</t>
+  </si>
+  <si>
+    <t>GNA13</t>
+  </si>
+  <si>
+    <t>AL137797.1</t>
+  </si>
+  <si>
+    <t>FAAHP1</t>
+  </si>
+  <si>
+    <t>LINC01140</t>
+  </si>
+  <si>
+    <t>RP5-1052I5.2</t>
+  </si>
+  <si>
+    <t>OBSCN</t>
+  </si>
+  <si>
+    <t>PRKAR1B</t>
+  </si>
+  <si>
+    <t>PRR12</t>
+  </si>
+  <si>
+    <t>TECPR1</t>
+  </si>
+  <si>
+    <t>LINC00607</t>
+  </si>
+  <si>
+    <t>CMAHP</t>
+  </si>
+  <si>
+    <t>ZMIZ1-AS1</t>
+  </si>
+  <si>
+    <t>PCDHGA3</t>
+  </si>
+  <si>
+    <t>PCDHGB7</t>
+  </si>
+  <si>
+    <t>PCDHGA9</t>
+  </si>
+  <si>
+    <t>PCDHGA4</t>
+  </si>
+  <si>
+    <t>PCDHGB3</t>
+  </si>
+  <si>
+    <t>PCDHGA2</t>
+  </si>
+  <si>
+    <t>PCDHGB1</t>
+  </si>
+  <si>
+    <t>PCDHGB5</t>
+  </si>
+  <si>
+    <t>PCDHGA8</t>
+  </si>
+  <si>
+    <t>PCDHGB6</t>
+  </si>
+  <si>
+    <t>PCDHGA1</t>
+  </si>
+  <si>
+    <t>PCDHGA5</t>
+  </si>
+  <si>
+    <t>PCDHGA11</t>
+  </si>
+  <si>
+    <t>PCDHGA12</t>
+  </si>
+  <si>
+    <t>PCDHGB4</t>
+  </si>
+  <si>
+    <t>PCDHGA10</t>
+  </si>
+  <si>
+    <t>PCDHGA7</t>
+  </si>
+  <si>
+    <t>PCDHGA6</t>
+  </si>
+  <si>
+    <t>PCDHGB2</t>
+  </si>
+  <si>
+    <t>MAP2</t>
+  </si>
+  <si>
+    <t>C1orf228</t>
+  </si>
+  <si>
+    <t>MAN1A1</t>
+  </si>
+  <si>
+    <t>RP11-702B10.2</t>
+  </si>
+  <si>
+    <t>CSGALNACT1</t>
+  </si>
+  <si>
+    <t>SLC7A7</t>
+  </si>
+  <si>
+    <t>LAP3</t>
+  </si>
+  <si>
+    <t>NPTN</t>
+  </si>
+  <si>
+    <t>VNN1</t>
+  </si>
+  <si>
+    <t>IRF2</t>
+  </si>
+  <si>
+    <t>CYB561D1</t>
+  </si>
+  <si>
+    <t>METTL8</t>
+  </si>
+  <si>
+    <t>TMEM126A</t>
+  </si>
+  <si>
+    <t>EML6</t>
+  </si>
+  <si>
+    <t>RP11-632K5.3</t>
+  </si>
+  <si>
+    <t>GSN</t>
+  </si>
+  <si>
+    <t>GSN-AS1</t>
+  </si>
+  <si>
+    <t>MED13L</t>
+  </si>
+  <si>
+    <t>SSH1</t>
+  </si>
+  <si>
+    <t>HMOX2</t>
+  </si>
+  <si>
+    <t>TTC19</t>
+  </si>
+  <si>
+    <t>NUDC</t>
+  </si>
+  <si>
+    <t>NR0B2</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>PDP1</t>
+  </si>
+  <si>
+    <t>LMF2</t>
+  </si>
+  <si>
     <t>NCAPH2</t>
   </si>
   <si>
-    <t>LMF2</t>
-  </si>
-  <si>
-    <t>DNAJB2</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>PHRF1</t>
-  </si>
-  <si>
-    <t>PSTPIP2</t>
-  </si>
-  <si>
-    <t>SYNGAP1</t>
-  </si>
-  <si>
-    <t>MUC5AC</t>
-  </si>
-  <si>
-    <t>TEX41</t>
-  </si>
-  <si>
-    <t>PROZ</t>
-  </si>
-  <si>
-    <t>FAM57B</t>
-  </si>
-  <si>
-    <t>ALDOA</t>
-  </si>
-  <si>
-    <t>SMIM24</t>
-  </si>
-  <si>
-    <t>RP11-1021N1.1</t>
-  </si>
-  <si>
-    <t>C16orf45</t>
-  </si>
-  <si>
-    <t>MFAP4</t>
-  </si>
-  <si>
-    <t>PDE2A</t>
-  </si>
-  <si>
-    <t>OLFML3</t>
-  </si>
-  <si>
-    <t>SERINC5</t>
-  </si>
-  <si>
-    <t>AC008753.6</t>
-  </si>
-  <si>
-    <t>MYADM</t>
-  </si>
-  <si>
-    <t>TCF3</t>
+    <t>GRXCR2</t>
+  </si>
+  <si>
+    <t>TOM1L2</t>
+  </si>
+  <si>
+    <t>H1FX-AS1</t>
+  </si>
+  <si>
+    <t>H1FX</t>
+  </si>
+  <si>
+    <t>PHTF2</t>
+  </si>
+  <si>
+    <t>ANXA2</t>
+  </si>
+  <si>
+    <t>ERCC2</t>
+  </si>
+  <si>
+    <t>ADAMTSL4-AS1</t>
+  </si>
+  <si>
+    <t>BRCA2</t>
+  </si>
+  <si>
+    <t>GALNT15</t>
+  </si>
+  <si>
+    <t>GPR1-AS</t>
+  </si>
+  <si>
+    <t>GPR1</t>
+  </si>
+  <si>
+    <t>PTPRCAP</t>
+  </si>
+  <si>
+    <t>CORO1B</t>
+  </si>
+  <si>
+    <t>SEPT9</t>
+  </si>
+  <si>
+    <t>SCNN1G</t>
+  </si>
+  <si>
+    <t>ROBO4</t>
   </si>
   <si>
     <t>NUDCD3</t>
   </si>
   <si>
-    <t>RARRES3</t>
-  </si>
-  <si>
-    <t>VPS13D</t>
-  </si>
-  <si>
-    <t>STK3</t>
-  </si>
-  <si>
-    <t>RAI1</t>
-  </si>
-  <si>
-    <t>EML6</t>
-  </si>
-  <si>
-    <t>RP11-702B10.2</t>
-  </si>
-  <si>
-    <t>FTL</t>
-  </si>
-  <si>
-    <t>CLIC1</t>
-  </si>
-  <si>
-    <t>PDP1</t>
-  </si>
-  <si>
-    <t>CD93</t>
-  </si>
-  <si>
-    <t>RP11-114G22.1</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>GPR1</t>
-  </si>
-  <si>
-    <t>GPR1-AS</t>
-  </si>
-  <si>
-    <t>NPTN</t>
-  </si>
-  <si>
-    <t>GNA13</t>
-  </si>
-  <si>
-    <t>HMGXB3</t>
-  </si>
-  <si>
-    <t>CLEC16A</t>
-  </si>
-  <si>
-    <t>SDC4</t>
-  </si>
-  <si>
-    <t>RP11-180D21.3</t>
-  </si>
-  <si>
-    <t>RP11-550P17.5</t>
-  </si>
-  <si>
-    <t>LINC01140</t>
-  </si>
-  <si>
-    <t>RP5-1052I5.2</t>
-  </si>
-  <si>
-    <t>LINC00536</t>
-  </si>
-  <si>
-    <t>RNF43</t>
-  </si>
-  <si>
-    <t>BZRAP1-AS1</t>
-  </si>
-  <si>
-    <t>CD300A</t>
-  </si>
-  <si>
-    <t>OBSCN</t>
-  </si>
-  <si>
-    <t>TAP2</t>
-  </si>
-  <si>
-    <t>XXbac-BPG246D15.9</t>
-  </si>
-  <si>
-    <t>FAAHP1</t>
-  </si>
-  <si>
-    <t>AL137797.1</t>
-  </si>
-  <si>
-    <t>PRR12</t>
-  </si>
-  <si>
-    <t>RP11-45M22.4</t>
-  </si>
-  <si>
-    <t>MPRIP</t>
-  </si>
-  <si>
-    <t>FLCN</t>
-  </si>
-  <si>
-    <t>PRKAR1B</t>
-  </si>
-  <si>
-    <t>TECPR1</t>
-  </si>
-  <si>
-    <t>MAPRE2</t>
-  </si>
-  <si>
-    <t>LINC00607</t>
-  </si>
-  <si>
-    <t>CMAHP</t>
-  </si>
-  <si>
-    <t>ZMIZ1-AS1</t>
-  </si>
-  <si>
-    <t>PCDHGA12</t>
-  </si>
-  <si>
-    <t>PCDHGB2</t>
-  </si>
-  <si>
-    <t>PCDHGA1</t>
-  </si>
-  <si>
-    <t>PCDHGA3</t>
-  </si>
-  <si>
-    <t>PCDHGB1</t>
-  </si>
-  <si>
-    <t>PCDHGB4</t>
-  </si>
-  <si>
-    <t>PCDHGA2</t>
-  </si>
-  <si>
-    <t>PCDHGB7</t>
-  </si>
-  <si>
-    <t>PCDHGA7</t>
-  </si>
-  <si>
-    <t>PCDHGA11</t>
-  </si>
-  <si>
-    <t>PCDHGA10</t>
-  </si>
-  <si>
-    <t>PCDHGA5</t>
-  </si>
-  <si>
-    <t>PCDHGA8</t>
-  </si>
-  <si>
-    <t>PCDHGA4</t>
-  </si>
-  <si>
-    <t>PCDHGA9</t>
-  </si>
-  <si>
-    <t>PCDHGB6</t>
-  </si>
-  <si>
-    <t>PCDHGB3</t>
-  </si>
-  <si>
-    <t>PCDHGB5</t>
-  </si>
-  <si>
-    <t>PCDHGA6</t>
-  </si>
-  <si>
-    <t>MAP2</t>
-  </si>
-  <si>
-    <t>C1orf228</t>
-  </si>
-  <si>
-    <t>STK24</t>
-  </si>
-  <si>
-    <t>MAN1A1</t>
-  </si>
-  <si>
-    <t>CSGALNACT1</t>
-  </si>
-  <si>
-    <t>SLC7A7</t>
-  </si>
-  <si>
-    <t>LAP3</t>
-  </si>
-  <si>
-    <t>VNN1</t>
-  </si>
-  <si>
-    <t>IRF2</t>
-  </si>
-  <si>
-    <t>CYB561D1</t>
-  </si>
-  <si>
-    <t>RP11-77H9.2</t>
-  </si>
-  <si>
-    <t>PMM2</t>
-  </si>
-  <si>
-    <t>RP11-152P23.2</t>
-  </si>
-  <si>
-    <t>NLRP3</t>
-  </si>
-  <si>
-    <t>METTL8</t>
-  </si>
-  <si>
-    <t>TMEM126A</t>
-  </si>
-  <si>
-    <t>RP11-632K5.3</t>
-  </si>
-  <si>
-    <t>GSN-AS1</t>
-  </si>
-  <si>
-    <t>GSN</t>
-  </si>
-  <si>
-    <t>MED13L</t>
-  </si>
-  <si>
-    <t>SSH1</t>
-  </si>
-  <si>
-    <t>HMOX2</t>
-  </si>
-  <si>
-    <t>TTC19</t>
-  </si>
-  <si>
-    <t>NUDC</t>
-  </si>
-  <si>
-    <t>NR0B2</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>GRXCR2</t>
-  </si>
-  <si>
-    <t>TOM1L2</t>
-  </si>
-  <si>
-    <t>H1FX-AS1</t>
-  </si>
-  <si>
-    <t>H1FX</t>
-  </si>
-  <si>
-    <t>PHTF2</t>
-  </si>
-  <si>
-    <t>ANXA2</t>
-  </si>
-  <si>
-    <t>ERCC2</t>
-  </si>
-  <si>
-    <t>ADAMTSL4-AS1</t>
-  </si>
-  <si>
-    <t>RP11-104H15.7</t>
-  </si>
-  <si>
-    <t>FGF11</t>
-  </si>
-  <si>
-    <t>RP11-104H15.8</t>
-  </si>
-  <si>
-    <t>RP11-104H15.10</t>
-  </si>
-  <si>
-    <t>BRCA2</t>
-  </si>
-  <si>
-    <t>GALNT15</t>
-  </si>
-  <si>
-    <t>CORO1B</t>
-  </si>
-  <si>
-    <t>PTPRCAP</t>
-  </si>
-  <si>
-    <t>SEPT9</t>
-  </si>
-  <si>
-    <t>SCNN1G</t>
-  </si>
-  <si>
-    <t>ROBO4</t>
-  </si>
-  <si>
     <t>protein_coding</t>
   </si>
   <si>
-    <t>miRNA;protein_coding</t>
+    <t>protein_coding;miRNA</t>
+  </si>
+  <si>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>lincRNA</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
-  </si>
-  <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;antisense;processed_transcript</t>
   </si>
   <si>
     <t>antisense;lincRNA</t>
   </si>
   <si>
-    <t>lincRNA;protein_coding</t>
-  </si>
-  <si>
-    <t>miRNA;transcribed_unprocessed_pseudogene</t>
+    <t>transcribed_unprocessed_pseudogene;miRNA</t>
+  </si>
+  <si>
+    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>unitary_pseudogene</t>
@@ -868,19 +868,19 @@
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>processed_transcript;antisense;protein_coding</t>
+    <t>protein_coding;processed_transcript</t>
+  </si>
+  <si>
+    <t>Island</t>
   </si>
   <si>
     <t>S_Shelf</t>
   </si>
   <si>
+    <t>S_Shore</t>
+  </si>
+  <si>
     <t>N_Shore</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>S_Shore</t>
   </si>
   <si>
     <t>N_Shelf</t>
@@ -1281,10 +1281,10 @@
         <v>120</v>
       </c>
       <c r="C2">
-        <v>2159838</v>
+        <v>48965203</v>
       </c>
       <c r="D2">
-        <v>2159840</v>
+        <v>48965205</v>
       </c>
       <c r="E2" t="s">
         <v>141</v>
@@ -1296,7 +1296,7 @@
         <v>285</v>
       </c>
       <c r="H2">
-        <v>0.2451552420659295</v>
+        <v>0.2591492875775405</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1304,91 +1304,91 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3">
-        <v>31107745</v>
+        <v>2159838</v>
       </c>
       <c r="D3">
-        <v>31107747</v>
+        <v>2159840</v>
       </c>
       <c r="E3" t="s">
         <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
         <v>286</v>
       </c>
       <c r="H3">
-        <v>0.2029421767645333</v>
+        <v>0.1664115198342228</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4">
-        <v>31107745</v>
+        <v>219280584</v>
       </c>
       <c r="D4">
-        <v>31107747</v>
+        <v>219280586</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H4">
-        <v>0.2029421767645333</v>
+        <v>0.1635417949704401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5">
-        <v>50508282</v>
+        <v>43368914</v>
       </c>
       <c r="D5">
-        <v>50508284</v>
+        <v>43368916</v>
       </c>
       <c r="E5" t="s">
         <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H5">
-        <v>0.1683681352603016</v>
+        <v>0.161087158424973</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
       </c>
       <c r="C6">
-        <v>50508282</v>
+        <v>30051724</v>
       </c>
       <c r="D6">
-        <v>50508284</v>
+        <v>30051726</v>
       </c>
       <c r="E6" t="s">
         <v>145</v>
@@ -1397,24 +1397,24 @@
         <v>273</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H6">
-        <v>0.1683681352603016</v>
+        <v>0.1546137674668997</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
-        <v>219280584</v>
+        <v>30051724</v>
       </c>
       <c r="D7">
-        <v>219280586</v>
+        <v>30051726</v>
       </c>
       <c r="E7" t="s">
         <v>146</v>
@@ -1426,33 +1426,33 @@
         <v>288</v>
       </c>
       <c r="H7">
-        <v>0.1676519027887494</v>
+        <v>0.1546137674668997</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>43368834</v>
+        <v>31107745</v>
       </c>
       <c r="D8">
-        <v>43368836</v>
+        <v>31107747</v>
       </c>
       <c r="E8" t="s">
         <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="H8">
-        <v>0.1632515852285475</v>
+        <v>0.1311319124555213</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1460,25 +1460,25 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9">
-        <v>582010</v>
+        <v>31107745</v>
       </c>
       <c r="D9">
-        <v>582012</v>
+        <v>31107747</v>
       </c>
       <c r="E9" t="s">
         <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="H9">
-        <v>0.1499759865327772</v>
+        <v>0.1311319124555213</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1486,13 +1486,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10">
-        <v>46031990</v>
+        <v>582010</v>
       </c>
       <c r="D10">
-        <v>46031992</v>
+        <v>582012</v>
       </c>
       <c r="E10" t="s">
         <v>149</v>
@@ -1501,10 +1501,10 @@
         <v>273</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="H10">
-        <v>0.1330542274456785</v>
+        <v>0.120326995066989</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1512,7 +1512,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>33430744</v>
@@ -1527,10 +1527,10 @@
         <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H11">
-        <v>0.1080760389365388</v>
+        <v>0.113997080987813</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1538,13 +1538,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12">
-        <v>1200585</v>
+        <v>19387806</v>
       </c>
       <c r="D12">
-        <v>1200587</v>
+        <v>19387808</v>
       </c>
       <c r="E12" t="s">
         <v>151</v>
@@ -1553,10 +1553,10 @@
         <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H12">
-        <v>0.1046664453189876</v>
+        <v>0.1048119499391885</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1564,25 +1564,25 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>144835191</v>
+        <v>72589846</v>
       </c>
       <c r="D13">
-        <v>144835193</v>
+        <v>72589848</v>
       </c>
       <c r="E13" t="s">
         <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="H13">
-        <v>0.09371548241009083</v>
+        <v>0.1025061535807513</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1590,51 +1590,51 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>113171639</v>
+        <v>53869454</v>
       </c>
       <c r="D14">
-        <v>113171641</v>
+        <v>53869456</v>
       </c>
       <c r="E14" t="s">
         <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H14">
-        <v>0.08153921090238837</v>
+        <v>0.09920659110855276</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>120</v>
       </c>
       <c r="C15">
-        <v>30051724</v>
+        <v>53869454</v>
       </c>
       <c r="D15">
-        <v>30051726</v>
+        <v>53869456</v>
       </c>
       <c r="E15" t="s">
         <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H15">
-        <v>0.0748646781757317</v>
+        <v>0.09920659110855276</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1642,13 +1642,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C16">
-        <v>30051724</v>
+        <v>113981967</v>
       </c>
       <c r="D16">
-        <v>30051726</v>
+        <v>113981969</v>
       </c>
       <c r="E16" t="s">
         <v>155</v>
@@ -1657,10 +1657,10 @@
         <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="H16">
-        <v>0.0748646781757317</v>
+        <v>0.09592800915910663</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1668,13 +1668,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C17">
-        <v>3480597</v>
+        <v>15489748</v>
       </c>
       <c r="D17">
-        <v>3480599</v>
+        <v>15489750</v>
       </c>
       <c r="E17" t="s">
         <v>156</v>
@@ -1683,18 +1683,18 @@
         <v>273</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="H17">
-        <v>0.0730306784432387</v>
+        <v>0.08637918618456072</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>15489748</v>
@@ -1709,10 +1709,10 @@
         <v>273</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H18">
-        <v>0.07295605408620295</v>
+        <v>0.08637918618456072</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1720,13 +1720,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C19">
-        <v>15489748</v>
+        <v>1200585</v>
       </c>
       <c r="D19">
-        <v>15489750</v>
+        <v>1200587</v>
       </c>
       <c r="E19" t="s">
         <v>158</v>
@@ -1735,10 +1735,10 @@
         <v>273</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H19">
-        <v>0.07295605408620295</v>
+        <v>0.08493272739364863</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1746,13 +1746,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20">
-        <v>19387806</v>
+        <v>1649123</v>
       </c>
       <c r="D20">
-        <v>19387808</v>
+        <v>1649125</v>
       </c>
       <c r="E20" t="s">
         <v>159</v>
@@ -1761,10 +1761,10 @@
         <v>273</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="H20">
-        <v>0.05761693412635828</v>
+        <v>0.07847214160743192</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1772,25 +1772,25 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21">
-        <v>72589846</v>
+        <v>61323104</v>
       </c>
       <c r="D21">
-        <v>72589848</v>
+        <v>61323106</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="H21">
-        <v>0.05171007838152708</v>
+        <v>0.07716933378187874</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1798,25 +1798,25 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>113981967</v>
+        <v>98940362</v>
       </c>
       <c r="D22">
-        <v>113981969</v>
+        <v>98940364</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>273</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H22">
-        <v>0.04854567710593697</v>
+        <v>0.06615371387492294</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1824,25 +1824,25 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C23">
-        <v>80205311</v>
+        <v>3480597</v>
       </c>
       <c r="D23">
-        <v>80205313</v>
+        <v>3480599</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>273</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="H23">
-        <v>0.04736203305986856</v>
+        <v>0.06454611652527223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1850,207 +1850,207 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C24">
-        <v>53869454</v>
+        <v>17809294</v>
       </c>
       <c r="D24">
-        <v>53869456</v>
+        <v>17809296</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H24">
-        <v>0.04618583283314073</v>
+        <v>0.0639625256058961</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C25">
-        <v>53869454</v>
+        <v>144835191</v>
       </c>
       <c r="D25">
-        <v>53869456</v>
+        <v>144835193</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
         <v>276</v>
       </c>
       <c r="G25" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H25">
-        <v>0.04618583283314073</v>
+        <v>0.05982559031181382</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26">
-        <v>1649123</v>
+        <v>113171639</v>
       </c>
       <c r="D26">
-        <v>1649125</v>
+        <v>113171641</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
         <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="H26">
-        <v>0.03860881460272807</v>
+        <v>0.05556174783122718</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27">
-        <v>44398616</v>
+        <v>46031990</v>
       </c>
       <c r="D27">
-        <v>44398618</v>
+        <v>46031992</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" t="s">
         <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="H27">
-        <v>0.03846370793418247</v>
+        <v>0.04728749958848848</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C28">
-        <v>63535926</v>
+        <v>98478400</v>
       </c>
       <c r="D28">
-        <v>63535928</v>
+        <v>98478402</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F28" t="s">
         <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="H28">
-        <v>0.03453599133929321</v>
+        <v>0.04303323517274604</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C29">
-        <v>12475057</v>
+        <v>80205311</v>
       </c>
       <c r="D29">
-        <v>12475059</v>
+        <v>80205313</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
         <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H29">
-        <v>0.03398571881919554</v>
+        <v>0.04006616945307193</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C30">
-        <v>98940362</v>
+        <v>63535926</v>
       </c>
       <c r="D30">
-        <v>98940364</v>
+        <v>63535928</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
         <v>273</v>
       </c>
       <c r="G30" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H30">
-        <v>0.0318331197661789</v>
+        <v>0.0323463182781408</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C31">
-        <v>50333271</v>
+        <v>7439785</v>
       </c>
       <c r="D31">
-        <v>50333273</v>
+        <v>7439787</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H31">
-        <v>0.02623110372268295</v>
+        <v>0.03066158855730902</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2061,88 +2061,88 @@
         <v>123</v>
       </c>
       <c r="C32">
-        <v>17809294</v>
+        <v>7439785</v>
       </c>
       <c r="D32">
-        <v>17809296</v>
+        <v>7439787</v>
       </c>
       <c r="E32" t="s">
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H32">
-        <v>0.02612872488670869</v>
+        <v>0.03066158855730902</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33">
-        <v>54903891</v>
+        <v>7439785</v>
       </c>
       <c r="D33">
-        <v>54903893</v>
+        <v>7439787</v>
       </c>
       <c r="E33" t="s">
         <v>171</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H33">
-        <v>0.01729813746276195</v>
+        <v>0.03066158855730902</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34">
-        <v>128180711</v>
+        <v>7439785</v>
       </c>
       <c r="D34">
-        <v>128180713</v>
+        <v>7439787</v>
       </c>
       <c r="E34" t="s">
         <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H34">
-        <v>0.01676729953984702</v>
+        <v>0.03066158855730902</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35">
-        <v>48965203</v>
+        <v>12475057</v>
       </c>
       <c r="D35">
-        <v>48965205</v>
+        <v>12475059</v>
       </c>
       <c r="E35" t="s">
         <v>173</v>
@@ -2151,24 +2151,24 @@
         <v>273</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H35">
-        <v>0.01537639868533951</v>
+        <v>0.01553148190818358</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C36">
-        <v>31737495</v>
+        <v>45344681</v>
       </c>
       <c r="D36">
-        <v>31737497</v>
+        <v>45344683</v>
       </c>
       <c r="E36" t="s">
         <v>174</v>
@@ -2180,203 +2180,203 @@
         <v>289</v>
       </c>
       <c r="H36">
-        <v>-0.009578394144604581</v>
+        <v>-0.02145337732663468</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C37">
-        <v>93923489</v>
+        <v>8849264</v>
       </c>
       <c r="D37">
-        <v>93923491</v>
+        <v>8849266</v>
       </c>
       <c r="E37" t="s">
         <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H37">
-        <v>-0.0098563114600306</v>
+        <v>-0.02233943505871682</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>43359427</v>
+        <v>8849264</v>
       </c>
       <c r="D38">
-        <v>43359429</v>
+        <v>8849266</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="H38">
-        <v>-0.01434120890770851</v>
+        <v>-0.02233943505871682</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>23083970</v>
+        <v>8849264</v>
       </c>
       <c r="D39">
-        <v>23083972</v>
+        <v>8849266</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H39">
-        <v>-0.01818681621288601</v>
+        <v>-0.02233943505871682</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C40">
-        <v>22729886</v>
+        <v>26183486</v>
       </c>
       <c r="D40">
-        <v>22729888</v>
+        <v>26183488</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H40">
-        <v>-0.02561066316641609</v>
+        <v>-0.02476780421963121</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C41">
-        <v>36488359</v>
+        <v>159470190</v>
       </c>
       <c r="D41">
-        <v>36488361</v>
+        <v>159470192</v>
       </c>
       <c r="E41" t="s">
         <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H41">
-        <v>-0.03334516997438289</v>
+        <v>-0.03283389759504269</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C42">
-        <v>206218878</v>
+        <v>159470190</v>
       </c>
       <c r="D42">
-        <v>206218880</v>
+        <v>159470192</v>
       </c>
       <c r="E42" t="s">
         <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H42">
-        <v>-0.03811800441046756</v>
+        <v>-0.03283389759504269</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C43">
-        <v>206218878</v>
+        <v>247416803</v>
       </c>
       <c r="D43">
-        <v>206218880</v>
+        <v>247416805</v>
       </c>
       <c r="E43" t="s">
         <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H43">
-        <v>-0.03811800441046756</v>
+        <v>-0.03376291584568818</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C44">
-        <v>73634112</v>
+        <v>23083970</v>
       </c>
       <c r="D44">
-        <v>73634114</v>
+        <v>23083972</v>
       </c>
       <c r="E44" t="s">
         <v>181</v>
@@ -2385,24 +2385,24 @@
         <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H44">
-        <v>-0.03829428674365475</v>
+        <v>-0.04547147108027048</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C45">
-        <v>65057810</v>
+        <v>31737495</v>
       </c>
       <c r="D45">
-        <v>65057812</v>
+        <v>31737497</v>
       </c>
       <c r="E45" t="s">
         <v>182</v>
@@ -2411,24 +2411,24 @@
         <v>273</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H45">
-        <v>-0.04357036263220986</v>
+        <v>-0.05198826148803065</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C46">
-        <v>150052438</v>
+        <v>11138900</v>
       </c>
       <c r="D46">
-        <v>150052440</v>
+        <v>11138902</v>
       </c>
       <c r="E46" t="s">
         <v>183</v>
@@ -2437,50 +2437,50 @@
         <v>273</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H46">
-        <v>-0.04611824485098032</v>
+        <v>-0.05366957586384106</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C47">
-        <v>11138900</v>
+        <v>22729886</v>
       </c>
       <c r="D47">
-        <v>11138902</v>
+        <v>22729888</v>
       </c>
       <c r="E47" t="s">
         <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H47">
-        <v>-0.04927656585879921</v>
+        <v>-0.05401243073294633</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C48">
-        <v>45344681</v>
+        <v>32837792</v>
       </c>
       <c r="D48">
-        <v>45344683</v>
+        <v>32837794</v>
       </c>
       <c r="E48" t="s">
         <v>185</v>
@@ -2489,197 +2489,197 @@
         <v>273</v>
       </c>
       <c r="G48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H48">
-        <v>-0.05319910377039012</v>
+        <v>-0.05886755624782943</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C49">
-        <v>6295210</v>
+        <v>32837792</v>
       </c>
       <c r="D49">
-        <v>6295212</v>
+        <v>32837794</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H49">
-        <v>-0.06086235841852027</v>
+        <v>-0.05886755624782943</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C50">
-        <v>159470190</v>
+        <v>6295210</v>
       </c>
       <c r="D50">
-        <v>159470192</v>
+        <v>6295212</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="H50">
-        <v>-0.06141729491327257</v>
+        <v>-0.06355358282433916</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51">
-        <v>159470190</v>
+        <v>116089464</v>
       </c>
       <c r="D51">
-        <v>159470192</v>
+        <v>116089466</v>
       </c>
       <c r="E51" t="s">
         <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H51">
-        <v>-0.06141729491327257</v>
+        <v>-0.07444553000335843</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C52">
-        <v>87152629</v>
+        <v>17213452</v>
       </c>
       <c r="D52">
-        <v>87152631</v>
+        <v>17213454</v>
       </c>
       <c r="E52" t="s">
         <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G52" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H52">
-        <v>-0.0649074907576227</v>
+        <v>-0.07478326818156215</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C53">
-        <v>87152629</v>
+        <v>17213452</v>
       </c>
       <c r="D53">
-        <v>87152631</v>
+        <v>17213454</v>
       </c>
       <c r="E53" t="s">
         <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H53">
-        <v>-0.0649074907576227</v>
+        <v>-0.07478326818156215</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C54">
-        <v>116089464</v>
+        <v>17213452</v>
       </c>
       <c r="D54">
-        <v>116089466</v>
+        <v>17213454</v>
       </c>
       <c r="E54" t="s">
         <v>190</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H54">
-        <v>-0.06867172216786149</v>
+        <v>-0.07478326818156215</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C55">
-        <v>58358093</v>
+        <v>150052438</v>
       </c>
       <c r="D55">
-        <v>58358095</v>
+        <v>150052440</v>
       </c>
       <c r="E55" t="s">
         <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H55">
-        <v>-0.0728860122580702</v>
+        <v>-0.08299007026270404</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>123</v>
@@ -2694,53 +2694,53 @@
         <v>192</v>
       </c>
       <c r="F56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H56">
-        <v>-0.0728860122580702</v>
+        <v>-0.08315072448729258</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>123</v>
       </c>
       <c r="C57">
-        <v>74466024</v>
+        <v>58358093</v>
       </c>
       <c r="D57">
-        <v>74466026</v>
+        <v>58358095</v>
       </c>
       <c r="E57" t="s">
         <v>193</v>
       </c>
       <c r="F57" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H57">
-        <v>-0.08281294693287762</v>
+        <v>-0.08315072448729258</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C58">
-        <v>228215425</v>
+        <v>36488359</v>
       </c>
       <c r="D58">
-        <v>228215427</v>
+        <v>36488361</v>
       </c>
       <c r="E58" t="s">
         <v>194</v>
@@ -2749,24 +2749,24 @@
         <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="H58">
-        <v>-0.08380339425222497</v>
+        <v>-0.08726055001358998</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59">
-        <v>32837792</v>
+        <v>35041783</v>
       </c>
       <c r="D59">
-        <v>32837794</v>
+        <v>35041785</v>
       </c>
       <c r="E59" t="s">
         <v>195</v>
@@ -2775,24 +2775,24 @@
         <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H59">
-        <v>-0.08993546969897427</v>
+        <v>-0.08903409444264614</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C60">
-        <v>32837792</v>
+        <v>74466024</v>
       </c>
       <c r="D60">
-        <v>32837794</v>
+        <v>74466026</v>
       </c>
       <c r="E60" t="s">
         <v>196</v>
@@ -2801,44 +2801,44 @@
         <v>273</v>
       </c>
       <c r="G60" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="H60">
-        <v>-0.08993546969897427</v>
+        <v>-0.09043688591530277</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C61">
-        <v>46436715</v>
+        <v>65057810</v>
       </c>
       <c r="D61">
-        <v>46436717</v>
+        <v>65057812</v>
       </c>
       <c r="E61" t="s">
         <v>197</v>
       </c>
       <c r="F61" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="H61">
-        <v>-0.1003718028015233</v>
+        <v>-0.09586825985567174</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C62">
         <v>46436715</v>
@@ -2850,105 +2850,105 @@
         <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H62">
-        <v>-0.1003718028015233</v>
+        <v>-0.1027008462433813</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63">
-        <v>49597729</v>
+        <v>46436715</v>
       </c>
       <c r="D63">
-        <v>49597731</v>
+        <v>46436717</v>
       </c>
       <c r="E63" t="s">
         <v>199</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G63" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H63">
-        <v>-0.1161233196517505</v>
+        <v>-0.1027008462433813</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C64">
-        <v>17213452</v>
+        <v>87152629</v>
       </c>
       <c r="D64">
-        <v>17213454</v>
+        <v>87152631</v>
       </c>
       <c r="E64" t="s">
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G64" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="H64">
-        <v>-0.1234430780547046</v>
+        <v>-0.1052670793832488</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C65">
-        <v>17213452</v>
+        <v>87152629</v>
       </c>
       <c r="D65">
-        <v>17213454</v>
+        <v>87152631</v>
       </c>
       <c r="E65" t="s">
         <v>201</v>
       </c>
       <c r="F65" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="H65">
-        <v>-0.1234430780547046</v>
+        <v>-0.1052670793832488</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C66">
-        <v>17213452</v>
+        <v>228215425</v>
       </c>
       <c r="D66">
-        <v>17213454</v>
+        <v>228215427</v>
       </c>
       <c r="E66" t="s">
         <v>202</v>
@@ -2957,18 +2957,18 @@
         <v>273</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="H66">
-        <v>-0.1234430780547046</v>
+        <v>-0.1098926780921018</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C67">
         <v>597816</v>
@@ -2983,24 +2983,24 @@
         <v>273</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H67">
-        <v>-0.177067289390147</v>
+        <v>-0.1150601430790805</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C68">
-        <v>98245946</v>
+        <v>49597729</v>
       </c>
       <c r="D68">
-        <v>98245948</v>
+        <v>49597731</v>
       </c>
       <c r="E68" t="s">
         <v>204</v>
@@ -3009,24 +3009,24 @@
         <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="H68">
-        <v>-0.1861071015031957</v>
+        <v>-0.1380260655868398</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C69">
-        <v>35041783</v>
+        <v>98245946</v>
       </c>
       <c r="D69">
-        <v>35041785</v>
+        <v>98245948</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
@@ -3035,133 +3035,133 @@
         <v>273</v>
       </c>
       <c r="G69" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="H69">
-        <v>-0.2336774790662929</v>
+        <v>-0.1951275516773548</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C70">
-        <v>215843654</v>
+        <v>43359427</v>
       </c>
       <c r="D70">
-        <v>215843656</v>
+        <v>43359429</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="F70" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C71">
-        <v>25088770</v>
+        <v>215843654</v>
       </c>
       <c r="D71">
-        <v>25088772</v>
+        <v>215843656</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F71" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C72">
-        <v>78977907</v>
+        <v>25088770</v>
       </c>
       <c r="D72">
-        <v>78977909</v>
+        <v>25088772</v>
       </c>
       <c r="E72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G72" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C73">
-        <v>72032668</v>
+        <v>78977907</v>
       </c>
       <c r="D73">
-        <v>72032670</v>
+        <v>78977909</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C74">
-        <v>141444469</v>
+        <v>72032668</v>
       </c>
       <c r="D74">
-        <v>141444471</v>
+        <v>72032670</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C75">
         <v>141444469</v>
@@ -3170,21 +3170,21 @@
         <v>141444471</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F75" t="s">
         <v>273</v>
       </c>
       <c r="G75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C76">
         <v>141444469</v>
@@ -3193,21 +3193,21 @@
         <v>141444471</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
         <v>273</v>
       </c>
       <c r="G76" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C77">
         <v>141444469</v>
@@ -3216,21 +3216,21 @@
         <v>141444471</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
         <v>273</v>
       </c>
       <c r="G77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C78">
         <v>141444469</v>
@@ -3239,21 +3239,21 @@
         <v>141444471</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
         <v>273</v>
       </c>
       <c r="G78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C79">
         <v>141444469</v>
@@ -3262,21 +3262,21 @@
         <v>141444471</v>
       </c>
       <c r="E79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F79" t="s">
         <v>273</v>
       </c>
       <c r="G79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80">
         <v>141444469</v>
@@ -3285,21 +3285,21 @@
         <v>141444471</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F80" t="s">
         <v>273</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C81">
         <v>141444469</v>
@@ -3308,21 +3308,21 @@
         <v>141444471</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
         <v>273</v>
       </c>
       <c r="G81" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C82">
         <v>141444469</v>
@@ -3331,21 +3331,21 @@
         <v>141444471</v>
       </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
         <v>273</v>
       </c>
       <c r="G82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C83">
         <v>141444469</v>
@@ -3354,21 +3354,21 @@
         <v>141444471</v>
       </c>
       <c r="E83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
         <v>273</v>
       </c>
       <c r="G83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C84">
         <v>141444469</v>
@@ -3377,21 +3377,21 @@
         <v>141444471</v>
       </c>
       <c r="E84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F84" t="s">
         <v>273</v>
       </c>
       <c r="G84" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C85">
         <v>141444469</v>
@@ -3400,21 +3400,21 @@
         <v>141444471</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F85" t="s">
         <v>273</v>
       </c>
       <c r="G85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C86">
         <v>141444469</v>
@@ -3423,21 +3423,21 @@
         <v>141444471</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F86" t="s">
         <v>273</v>
       </c>
       <c r="G86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C87">
         <v>141444469</v>
@@ -3446,21 +3446,21 @@
         <v>141444471</v>
       </c>
       <c r="E87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F87" t="s">
         <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C88">
         <v>141444469</v>
@@ -3469,21 +3469,21 @@
         <v>141444471</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
         <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89">
         <v>141444469</v>
@@ -3492,21 +3492,21 @@
         <v>141444471</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
         <v>273</v>
       </c>
       <c r="G89" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C90">
         <v>141444469</v>
@@ -3515,21 +3515,21 @@
         <v>141444471</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F90" t="s">
         <v>273</v>
       </c>
       <c r="G90" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91">
         <v>141444469</v>
@@ -3538,21 +3538,21 @@
         <v>141444471</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F91" t="s">
         <v>273</v>
       </c>
       <c r="G91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92">
         <v>141444469</v>
@@ -3561,113 +3561,113 @@
         <v>141444471</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F92" t="s">
         <v>273</v>
       </c>
       <c r="G92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C93">
-        <v>209496087</v>
+        <v>141444469</v>
       </c>
       <c r="D93">
-        <v>209496089</v>
+        <v>141444471</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F93" t="s">
         <v>273</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C94">
-        <v>100761836</v>
+        <v>209496087</v>
       </c>
       <c r="D94">
-        <v>100761838</v>
+        <v>209496089</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="F94" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95">
-        <v>44677142</v>
+        <v>100761836</v>
       </c>
       <c r="D95">
-        <v>44677144</v>
+        <v>100761838</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="F95" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96">
-        <v>98478400</v>
+        <v>44677142</v>
       </c>
       <c r="D96">
-        <v>98478402</v>
+        <v>44677144</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F96" t="s">
         <v>273</v>
       </c>
       <c r="G96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97">
         <v>119240673</v>
@@ -3676,125 +3676,125 @@
         <v>119240675</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F97" t="s">
         <v>273</v>
       </c>
       <c r="G97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C98">
-        <v>19578939</v>
+        <v>128180711</v>
       </c>
       <c r="D98">
-        <v>19578941</v>
+        <v>128180713</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C99">
-        <v>22820528</v>
+        <v>19578939</v>
       </c>
       <c r="D99">
-        <v>22820530</v>
+        <v>19578941</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F99" t="s">
         <v>273</v>
       </c>
       <c r="G99" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
         <v>136</v>
       </c>
       <c r="C100">
-        <v>63492831</v>
+        <v>22820528</v>
       </c>
       <c r="D100">
-        <v>63492833</v>
+        <v>22820530</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G100" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C101">
-        <v>17579056</v>
+        <v>63492831</v>
       </c>
       <c r="D101">
-        <v>17579058</v>
+        <v>63492833</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="F101" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C102">
-        <v>2756010</v>
+        <v>17579056</v>
       </c>
       <c r="D102">
-        <v>2756012</v>
+        <v>17579058</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="F102" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s">
         <v>287</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C103">
-        <v>132715433</v>
+        <v>73634112</v>
       </c>
       <c r="D103">
-        <v>132715435</v>
+        <v>73634114</v>
       </c>
       <c r="E103" t="s">
         <v>235</v>
@@ -3820,107 +3820,107 @@
         <v>273</v>
       </c>
       <c r="G103" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C104">
-        <v>184408209</v>
+        <v>2756010</v>
       </c>
       <c r="D104">
-        <v>184408211</v>
+        <v>2756012</v>
       </c>
       <c r="E104" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="F104" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C105">
-        <v>109493047</v>
+        <v>132715433</v>
       </c>
       <c r="D105">
-        <v>109493049</v>
+        <v>132715435</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F105" t="s">
         <v>273</v>
       </c>
       <c r="G105" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C106">
-        <v>8849048</v>
+        <v>184408209</v>
       </c>
       <c r="D106">
-        <v>8849050</v>
+        <v>184408211</v>
       </c>
       <c r="E106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>8849048</v>
+        <v>109493047</v>
       </c>
       <c r="D107">
-        <v>8849050</v>
+        <v>109493049</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F107" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G107" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108">
         <v>8849048</v>
@@ -3929,182 +3929,182 @@
         <v>8849050</v>
       </c>
       <c r="E108" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="F108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C109">
-        <v>247416803</v>
+        <v>8849048</v>
       </c>
       <c r="D109">
-        <v>247416805</v>
+        <v>8849050</v>
       </c>
       <c r="E109" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="F109" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110">
-        <v>171347336</v>
+        <v>8849048</v>
       </c>
       <c r="D110">
-        <v>171347338</v>
+        <v>8849050</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="F110" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C111">
-        <v>85651326</v>
+        <v>171347336</v>
       </c>
       <c r="D111">
-        <v>85651328</v>
+        <v>171347338</v>
       </c>
       <c r="E111" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F111" t="s">
         <v>273</v>
       </c>
       <c r="G111" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C112">
-        <v>61323104</v>
+        <v>85651326</v>
       </c>
       <c r="D112">
-        <v>61323106</v>
+        <v>85651328</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C113">
-        <v>74319354</v>
+        <v>54903891</v>
       </c>
       <c r="D113">
-        <v>74319356</v>
+        <v>54903893</v>
       </c>
       <c r="E113" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114">
-        <v>74466094</v>
+        <v>74319354</v>
       </c>
       <c r="D114">
-        <v>74466096</v>
+        <v>74319356</v>
       </c>
       <c r="E114" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="F114" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C115">
-        <v>121286029</v>
+        <v>74466094</v>
       </c>
       <c r="D115">
-        <v>121286031</v>
+        <v>74466096</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="F115" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116">
         <v>121286029</v>
@@ -4113,113 +4113,113 @@
         <v>121286031</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G116" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C117">
-        <v>71892529</v>
+        <v>121286029</v>
       </c>
       <c r="D117">
-        <v>71892531</v>
+        <v>121286031</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="G117" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118">
-        <v>116267257</v>
+        <v>71892529</v>
       </c>
       <c r="D118">
-        <v>116267259</v>
+        <v>71892531</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="F118" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C119">
-        <v>108854549</v>
+        <v>116267257</v>
       </c>
       <c r="D119">
-        <v>108854551</v>
+        <v>116267259</v>
       </c>
       <c r="E119" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F119" t="s">
         <v>273</v>
       </c>
       <c r="G119" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C120">
-        <v>43368914</v>
+        <v>108854549</v>
       </c>
       <c r="D120">
-        <v>43368916</v>
+        <v>108854551</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G120" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>4501145</v>
@@ -4228,18 +4228,18 @@
         <v>4501147</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F121" t="s">
         <v>273</v>
       </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -4251,18 +4251,18 @@
         <v>57750678</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -4274,18 +4274,18 @@
         <v>43369029</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F123" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
@@ -4297,21 +4297,21 @@
         <v>16014347</v>
       </c>
       <c r="E124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F124" t="s">
         <v>273</v>
       </c>
       <c r="G124" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C125">
         <v>26913986</v>
@@ -4320,21 +4320,21 @@
         <v>26913988</v>
       </c>
       <c r="E125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F125" t="s">
         <v>273</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>26913986</v>
@@ -4343,21 +4343,21 @@
         <v>26913988</v>
       </c>
       <c r="E126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F126" t="s">
         <v>273</v>
       </c>
       <c r="G126" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C127">
         <v>116727544</v>
@@ -4366,119 +4366,119 @@
         <v>116727546</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
         <v>273</v>
       </c>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C128">
-        <v>8849264</v>
+        <v>93923489</v>
       </c>
       <c r="D128">
-        <v>8849266</v>
+        <v>93923491</v>
       </c>
       <c r="E128" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G128" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C129">
-        <v>8849264</v>
+        <v>50508282</v>
       </c>
       <c r="D129">
-        <v>8849266</v>
+        <v>50508284</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C130">
-        <v>8849264</v>
+        <v>50508282</v>
       </c>
       <c r="D130">
-        <v>8849266</v>
+        <v>50508284</v>
       </c>
       <c r="E130" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G130" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C131">
-        <v>145872879</v>
+        <v>43368834</v>
       </c>
       <c r="D131">
-        <v>145872881</v>
+        <v>43368836</v>
       </c>
       <c r="E131" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="F131" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G131" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C132">
-        <v>17936094</v>
+        <v>145872879</v>
       </c>
       <c r="D132">
-        <v>17936096</v>
+        <v>145872881</v>
       </c>
       <c r="E132" t="s">
         <v>255</v>
@@ -4487,38 +4487,38 @@
         <v>273</v>
       </c>
       <c r="G132" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C133">
-        <v>26183486</v>
+        <v>17936094</v>
       </c>
       <c r="D133">
-        <v>26183488</v>
+        <v>17936096</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C134">
         <v>129315049</v>
@@ -4527,21 +4527,21 @@
         <v>129315051</v>
       </c>
       <c r="E134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C135">
         <v>129315049</v>
@@ -4550,18 +4550,18 @@
         <v>129315051</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G135" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
         <v>123</v>
@@ -4573,21 +4573,21 @@
         <v>65057879</v>
       </c>
       <c r="E136" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F136" t="s">
         <v>273</v>
       </c>
       <c r="G136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C137">
         <v>77933530</v>
@@ -4596,21 +4596,21 @@
         <v>77933532</v>
       </c>
       <c r="E137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
         <v>273</v>
       </c>
       <c r="G137" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>60396748</v>
@@ -4619,21 +4619,21 @@
         <v>60396750</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
         <v>273</v>
       </c>
       <c r="G138" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B139" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C139">
         <v>45366841</v>
@@ -4642,21 +4642,21 @@
         <v>45366843</v>
       </c>
       <c r="E139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
         <v>273</v>
       </c>
       <c r="G139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C140">
         <v>150562302</v>
@@ -4665,21 +4665,21 @@
         <v>150562304</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
         <v>283</v>
       </c>
       <c r="G140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C141">
         <v>163347378</v>
@@ -4688,21 +4688,21 @@
         <v>163347380</v>
       </c>
       <c r="E141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C142">
         <v>11766014</v>
@@ -4711,10 +4711,10 @@
         <v>11766016</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F142" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G142" t="s">
         <v>289</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C143">
         <v>156002132</v>
@@ -4734,59 +4734,59 @@
         <v>156002134</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G143" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C144">
-        <v>7439785</v>
+        <v>32390316</v>
       </c>
       <c r="D144">
-        <v>7439787</v>
+        <v>32390318</v>
       </c>
       <c r="E144" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G144" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C145">
-        <v>7439785</v>
+        <v>16183799</v>
       </c>
       <c r="D145">
-        <v>7439787</v>
+        <v>16183801</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G145" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4794,22 +4794,22 @@
         <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C146">
-        <v>7439785</v>
+        <v>206218878</v>
       </c>
       <c r="D146">
-        <v>7439787</v>
+        <v>206218880</v>
       </c>
       <c r="E146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
         <v>284</v>
       </c>
       <c r="G146" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4817,22 +4817,22 @@
         <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C147">
-        <v>7439785</v>
+        <v>206218878</v>
       </c>
       <c r="D147">
-        <v>7439787</v>
+        <v>206218880</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F147" t="s">
         <v>284</v>
       </c>
       <c r="G147" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4840,68 +4840,68 @@
         <v>113</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C148">
-        <v>32390316</v>
+        <v>67438836</v>
       </c>
       <c r="D148">
-        <v>32390318</v>
+        <v>67438838</v>
       </c>
       <c r="E148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
         <v>273</v>
       </c>
       <c r="G148" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C149">
-        <v>16183799</v>
+        <v>67438836</v>
       </c>
       <c r="D149">
-        <v>16183801</v>
+        <v>67438838</v>
       </c>
       <c r="E149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F149" t="s">
         <v>273</v>
       </c>
       <c r="G149" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C150">
-        <v>67438836</v>
+        <v>77456017</v>
       </c>
       <c r="D150">
-        <v>67438838</v>
+        <v>77456019</v>
       </c>
       <c r="E150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
         <v>273</v>
       </c>
       <c r="G150" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4909,19 +4909,19 @@
         <v>115</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C151">
-        <v>67438836</v>
+        <v>50333271</v>
       </c>
       <c r="D151">
-        <v>67438838</v>
+        <v>50333273</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="F151" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G151" t="s">
         <v>285</v>
@@ -4932,13 +4932,13 @@
         <v>116</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C152">
-        <v>77456017</v>
+        <v>23182669</v>
       </c>
       <c r="D152">
-        <v>77456019</v>
+        <v>23182671</v>
       </c>
       <c r="E152" t="s">
         <v>270</v>
@@ -4947,7 +4947,7 @@
         <v>273</v>
       </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4955,22 +4955,22 @@
         <v>117</v>
       </c>
       <c r="B153" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C153">
-        <v>23182669</v>
+        <v>46882240</v>
       </c>
       <c r="D153">
-        <v>23182671</v>
+        <v>46882242</v>
       </c>
       <c r="E153" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="F153" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G153" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4978,22 +4978,22 @@
         <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C154">
-        <v>46882240</v>
+        <v>124898657</v>
       </c>
       <c r="D154">
-        <v>46882242</v>
+        <v>124898659</v>
       </c>
       <c r="E154" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="F154" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="G154" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5001,13 +5001,13 @@
         <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C155">
-        <v>124898657</v>
+        <v>44398616</v>
       </c>
       <c r="D155">
-        <v>124898659</v>
+        <v>44398618</v>
       </c>
       <c r="E155" t="s">
         <v>272</v>
@@ -5016,7 +5016,7 @@
         <v>273</v>
       </c>
       <c r="G155" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/MethylScoreAML_Px_167_cpg_genes.xlsx
+++ b/data/MethylScoreAML_Px_167_cpg_genes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="420">
   <si>
     <t>chrm</t>
   </si>
@@ -40,841 +40,1231 @@
     <t>probeID</t>
   </si>
   <si>
-    <t>cg12026095</t>
+    <t>cg20219911</t>
   </si>
   <si>
     <t>cg02678414</t>
   </si>
   <si>
-    <t>cg14910406</t>
-  </si>
-  <si>
-    <t>cg12708336</t>
-  </si>
-  <si>
-    <t>cg06400255</t>
-  </si>
-  <si>
-    <t>cg05299836</t>
-  </si>
-  <si>
-    <t>cg02320937</t>
-  </si>
-  <si>
-    <t>cg26888941</t>
+    <t>cg00151914</t>
+  </si>
+  <si>
+    <t>cg14978242</t>
+  </si>
+  <si>
+    <t>cg25035655</t>
+  </si>
+  <si>
+    <t>cg14882966</t>
+  </si>
+  <si>
+    <t>cg17099306</t>
+  </si>
+  <si>
+    <t>cg10089193</t>
+  </si>
+  <si>
+    <t>cg16147063</t>
+  </si>
+  <si>
+    <t>cg09890699</t>
+  </si>
+  <si>
+    <t>cg17389427</t>
+  </si>
+  <si>
+    <t>cg04665204</t>
+  </si>
+  <si>
+    <t>cg00532502</t>
+  </si>
+  <si>
+    <t>cg05800336</t>
+  </si>
+  <si>
+    <t>cg17669009</t>
+  </si>
+  <si>
+    <t>cg04663203</t>
+  </si>
+  <si>
+    <t>cg19706516</t>
+  </si>
+  <si>
+    <t>cg05348324</t>
+  </si>
+  <si>
+    <t>cg19839026</t>
+  </si>
+  <si>
+    <t>cg04516952</t>
+  </si>
+  <si>
+    <t>cg18072388</t>
+  </si>
+  <si>
+    <t>cg13440692</t>
+  </si>
+  <si>
+    <t>cg10098541</t>
+  </si>
+  <si>
+    <t>cg00945409</t>
+  </si>
+  <si>
+    <t>cg04092699</t>
+  </si>
+  <si>
+    <t>cg06785302</t>
+  </si>
+  <si>
+    <t>cg13360395</t>
+  </si>
+  <si>
+    <t>cg03601372</t>
+  </si>
+  <si>
+    <t>cg04205653</t>
+  </si>
+  <si>
+    <t>cg11064395</t>
+  </si>
+  <si>
+    <t>cg23458843</t>
+  </si>
+  <si>
+    <t>cg21170304</t>
+  </si>
+  <si>
+    <t>cg11818438</t>
+  </si>
+  <si>
+    <t>cg07080653</t>
+  </si>
+  <si>
+    <t>cg18964582</t>
+  </si>
+  <si>
+    <t>cg10280339</t>
+  </si>
+  <si>
+    <t>cg13702536</t>
+  </si>
+  <si>
+    <t>cg18156551</t>
+  </si>
+  <si>
+    <t>cg00059652</t>
+  </si>
+  <si>
+    <t>cg14928764</t>
+  </si>
+  <si>
+    <t>cg26223555</t>
+  </si>
+  <si>
+    <t>cg16424082</t>
+  </si>
+  <si>
+    <t>cg08900363</t>
+  </si>
+  <si>
+    <t>cg06748884</t>
+  </si>
+  <si>
+    <t>cg06339275</t>
+  </si>
+  <si>
+    <t>cg17632028</t>
+  </si>
+  <si>
+    <t>cg04839706</t>
+  </si>
+  <si>
+    <t>cg02905663</t>
+  </si>
+  <si>
+    <t>cg00920892</t>
+  </si>
+  <si>
+    <t>cg08404702</t>
+  </si>
+  <si>
+    <t>cg01543603</t>
   </si>
   <si>
     <t>cg00192882</t>
   </si>
   <si>
-    <t>cg02474542</t>
-  </si>
-  <si>
-    <t>cg12586594</t>
-  </si>
-  <si>
-    <t>cg03258927</t>
-  </si>
-  <si>
-    <t>cg03116016</t>
-  </si>
-  <si>
-    <t>cg00375146</t>
-  </si>
-  <si>
-    <t>cg09432758</t>
-  </si>
-  <si>
-    <t>cg26124526</t>
+    <t>cg08329113</t>
+  </si>
+  <si>
+    <t>cg20018344</t>
+  </si>
+  <si>
+    <t>cg26361535</t>
+  </si>
+  <si>
+    <t>cg01052291</t>
+  </si>
+  <si>
+    <t>cg05430997</t>
+  </si>
+  <si>
+    <t>cg07660635</t>
+  </si>
+  <si>
+    <t>cg04220636</t>
+  </si>
+  <si>
+    <t>cg07143043</t>
+  </si>
+  <si>
+    <t>cg18062721</t>
+  </si>
+  <si>
+    <t>cg19432033</t>
+  </si>
+  <si>
+    <t>cg22410826</t>
+  </si>
+  <si>
+    <t>cg22760287</t>
+  </si>
+  <si>
+    <t>cg25292309</t>
+  </si>
+  <si>
+    <t>cg20310759</t>
+  </si>
+  <si>
+    <t>cg27049094</t>
+  </si>
+  <si>
+    <t>cg11801959</t>
+  </si>
+  <si>
+    <t>cg06585893</t>
+  </si>
+  <si>
+    <t>cg03801691</t>
+  </si>
+  <si>
+    <t>cg27064178</t>
+  </si>
+  <si>
+    <t>cg15787807</t>
+  </si>
+  <si>
+    <t>cg10009497</t>
+  </si>
+  <si>
+    <t>cg13213755</t>
+  </si>
+  <si>
+    <t>cg21229337</t>
+  </si>
+  <si>
+    <t>cg20703895</t>
+  </si>
+  <si>
+    <t>cg04857395</t>
+  </si>
+  <si>
+    <t>cg13984533</t>
+  </si>
+  <si>
+    <t>cg19708903</t>
+  </si>
+  <si>
+    <t>cg00206490</t>
+  </si>
+  <si>
+    <t>cg10187365</t>
+  </si>
+  <si>
+    <t>cg18886274</t>
+  </si>
+  <si>
+    <t>cg05480169</t>
+  </si>
+  <si>
+    <t>cg18437839</t>
+  </si>
+  <si>
+    <t>cg10057841</t>
+  </si>
+  <si>
+    <t>cg16958939</t>
+  </si>
+  <si>
+    <t>cg05102794</t>
+  </si>
+  <si>
+    <t>cg16429055</t>
+  </si>
+  <si>
+    <t>cg21094613</t>
+  </si>
+  <si>
+    <t>cg00460983</t>
+  </si>
+  <si>
+    <t>cg01771213</t>
+  </si>
+  <si>
+    <t>cg20964021</t>
+  </si>
+  <si>
+    <t>cg16822174</t>
+  </si>
+  <si>
+    <t>cg05413061</t>
+  </si>
+  <si>
+    <t>cg13720395</t>
+  </si>
+  <si>
+    <t>cg08467866</t>
+  </si>
+  <si>
+    <t>cg20429981</t>
+  </si>
+  <si>
+    <t>cg08480739</t>
+  </si>
+  <si>
+    <t>cg01312394</t>
+  </si>
+  <si>
+    <t>cg02988730</t>
+  </si>
+  <si>
+    <t>cg13846675</t>
+  </si>
+  <si>
+    <t>cg00598235</t>
+  </si>
+  <si>
+    <t>cg10817441</t>
+  </si>
+  <si>
+    <t>cg21617903</t>
+  </si>
+  <si>
+    <t>cg16179125</t>
+  </si>
+  <si>
+    <t>cg14037250</t>
+  </si>
+  <si>
+    <t>cg19345219</t>
+  </si>
+  <si>
+    <t>cg15576082</t>
+  </si>
+  <si>
+    <t>cg26310429</t>
+  </si>
+  <si>
+    <t>cg00549798</t>
+  </si>
+  <si>
+    <t>cg11823637</t>
+  </si>
+  <si>
+    <t>cg25376409</t>
+  </si>
+  <si>
+    <t>cg03092447</t>
+  </si>
+  <si>
+    <t>cg18151487</t>
+  </si>
+  <si>
+    <t>cg15586054</t>
+  </si>
+  <si>
+    <t>cg21739530</t>
+  </si>
+  <si>
+    <t>cg17511968</t>
+  </si>
+  <si>
+    <t>cg19137417</t>
+  </si>
+  <si>
+    <t>cg16449402</t>
+  </si>
+  <si>
+    <t>cg21750233</t>
+  </si>
+  <si>
+    <t>cg02348449</t>
+  </si>
+  <si>
+    <t>cg12762600</t>
+  </si>
+  <si>
+    <t>cg23152216</t>
+  </si>
+  <si>
+    <t>cg23128949</t>
+  </si>
+  <si>
+    <t>cg13857210</t>
+  </si>
+  <si>
+    <t>cg07536737</t>
+  </si>
+  <si>
+    <t>cg16721321</t>
+  </si>
+  <si>
+    <t>cg09140274</t>
+  </si>
+  <si>
+    <t>cg21262032</t>
+  </si>
+  <si>
+    <t>cg10759293</t>
+  </si>
+  <si>
+    <t>cg06605704</t>
+  </si>
+  <si>
+    <t>cg04400145</t>
+  </si>
+  <si>
+    <t>cg21932513</t>
+  </si>
+  <si>
+    <t>cg02957270</t>
+  </si>
+  <si>
+    <t>cg10591771</t>
+  </si>
+  <si>
+    <t>cg17078656</t>
   </si>
   <si>
     <t>cg15830431</t>
   </si>
   <si>
-    <t>cg06666376</t>
-  </si>
-  <si>
-    <t>cg11851174</t>
-  </si>
-  <si>
-    <t>cg04578362</t>
-  </si>
-  <si>
-    <t>cg12172163</t>
-  </si>
-  <si>
-    <t>cg19380581</t>
-  </si>
-  <si>
-    <t>cg02767093</t>
-  </si>
-  <si>
-    <t>cg14978242</t>
-  </si>
-  <si>
-    <t>cg18112681</t>
-  </si>
-  <si>
-    <t>cg00795277</t>
-  </si>
-  <si>
-    <t>cg17078656</t>
-  </si>
-  <si>
-    <t>cg18866597</t>
-  </si>
-  <si>
-    <t>cg27018309</t>
-  </si>
-  <si>
-    <t>cg25828093</t>
-  </si>
-  <si>
-    <t>cg11975397</t>
-  </si>
-  <si>
-    <t>cg26112639</t>
-  </si>
-  <si>
-    <t>cg14928764</t>
-  </si>
-  <si>
-    <t>cg21769117</t>
-  </si>
-  <si>
-    <t>cg06748884</t>
-  </si>
-  <si>
-    <t>cg11823637</t>
-  </si>
-  <si>
-    <t>cg08998192</t>
-  </si>
-  <si>
-    <t>cg10601624</t>
-  </si>
-  <si>
-    <t>cg23409168</t>
-  </si>
-  <si>
-    <t>cg21637653</t>
-  </si>
-  <si>
-    <t>cg06024557</t>
-  </si>
-  <si>
-    <t>cg04544475</t>
-  </si>
-  <si>
-    <t>cg04314978</t>
-  </si>
-  <si>
-    <t>cg16317961</t>
-  </si>
-  <si>
-    <t>cg23443627</t>
-  </si>
-  <si>
-    <t>cg24747122</t>
-  </si>
-  <si>
-    <t>cg07499292</t>
-  </si>
-  <si>
-    <t>cg20310759</t>
-  </si>
-  <si>
-    <t>cg06806210</t>
-  </si>
-  <si>
-    <t>cg08900363</t>
-  </si>
-  <si>
-    <t>cg07049515</t>
-  </si>
-  <si>
-    <t>cg17540192</t>
-  </si>
-  <si>
-    <t>cg25922105</t>
-  </si>
-  <si>
-    <t>cg08729279</t>
-  </si>
-  <si>
-    <t>cg12449049</t>
-  </si>
-  <si>
-    <t>cg00945409</t>
-  </si>
-  <si>
-    <t>cg08069883</t>
-  </si>
-  <si>
-    <t>cg05197036</t>
-  </si>
-  <si>
-    <t>cg17875657</t>
-  </si>
-  <si>
-    <t>cg13958583</t>
-  </si>
-  <si>
-    <t>cg01048810</t>
-  </si>
-  <si>
-    <t>cg15215077</t>
-  </si>
-  <si>
-    <t>cg08079170</t>
-  </si>
-  <si>
-    <t>cg14722693</t>
-  </si>
-  <si>
-    <t>cg19599045</t>
-  </si>
-  <si>
-    <t>cg26971423</t>
-  </si>
-  <si>
-    <t>cg00598235</t>
-  </si>
-  <si>
-    <t>cg13213755</t>
-  </si>
-  <si>
-    <t>cg24422027</t>
-  </si>
-  <si>
-    <t>cg01052291</t>
-  </si>
-  <si>
-    <t>cg05075308</t>
-  </si>
-  <si>
-    <t>cg09372525</t>
-  </si>
-  <si>
-    <t>cg06130562</t>
-  </si>
-  <si>
-    <t>cg11269166</t>
-  </si>
-  <si>
-    <t>cg06845655</t>
-  </si>
-  <si>
-    <t>cg08314781</t>
-  </si>
-  <si>
-    <t>cg25535982</t>
-  </si>
-  <si>
-    <t>cg24320673</t>
-  </si>
-  <si>
-    <t>cg14399183</t>
-  </si>
-  <si>
-    <t>cg06529643</t>
-  </si>
-  <si>
-    <t>cg18564075</t>
-  </si>
-  <si>
-    <t>cg13033858</t>
-  </si>
-  <si>
-    <t>cg06605704</t>
-  </si>
-  <si>
-    <t>cg00041989</t>
-  </si>
-  <si>
-    <t>cg16270222</t>
-  </si>
-  <si>
-    <t>cg23361265</t>
-  </si>
-  <si>
-    <t>cg06650260</t>
-  </si>
-  <si>
-    <t>cg06985664</t>
-  </si>
-  <si>
-    <t>cg08855705</t>
-  </si>
-  <si>
-    <t>cg25152348</t>
-  </si>
-  <si>
-    <t>cg24607181</t>
-  </si>
-  <si>
-    <t>cg21611262</t>
-  </si>
-  <si>
-    <t>cg03376089</t>
-  </si>
-  <si>
-    <t>cg11578066</t>
-  </si>
-  <si>
-    <t>cg17413194</t>
-  </si>
-  <si>
-    <t>cg02960777</t>
-  </si>
-  <si>
-    <t>cg14397690</t>
-  </si>
-  <si>
-    <t>cg24180227</t>
-  </si>
-  <si>
-    <t>cg22162847</t>
-  </si>
-  <si>
-    <t>cg20867674</t>
-  </si>
-  <si>
-    <t>cg02898412</t>
-  </si>
-  <si>
-    <t>cg15507449</t>
-  </si>
-  <si>
-    <t>cg06935361</t>
-  </si>
-  <si>
-    <t>cg05413061</t>
-  </si>
-  <si>
-    <t>cg11937508</t>
-  </si>
-  <si>
-    <t>cg12044599</t>
-  </si>
-  <si>
-    <t>cg27627381</t>
-  </si>
-  <si>
-    <t>cg24397815</t>
-  </si>
-  <si>
-    <t>cg10196861</t>
-  </si>
-  <si>
-    <t>cg01312394</t>
-  </si>
-  <si>
-    <t>cg03572680</t>
-  </si>
-  <si>
-    <t>cg23886101</t>
+    <t>cg00223135</t>
+  </si>
+  <si>
+    <t>cg17104202</t>
+  </si>
+  <si>
+    <t>cg03071245</t>
+  </si>
+  <si>
+    <t>cg19357999</t>
+  </si>
+  <si>
+    <t>cg11887376</t>
+  </si>
+  <si>
+    <t>cg19479744</t>
+  </si>
+  <si>
+    <t>cg18586780</t>
+  </si>
+  <si>
+    <t>cg26984593</t>
+  </si>
+  <si>
+    <t>cg13689831</t>
+  </si>
+  <si>
+    <t>cg26373351</t>
+  </si>
+  <si>
+    <t>cg03596113</t>
+  </si>
+  <si>
+    <t>cg23613253</t>
+  </si>
+  <si>
+    <t>cg18898209</t>
+  </si>
+  <si>
+    <t>cg27658601</t>
+  </si>
+  <si>
+    <t>cg03922381</t>
+  </si>
+  <si>
+    <t>cg19980929</t>
+  </si>
+  <si>
+    <t>cg03762237</t>
+  </si>
+  <si>
+    <t>cg01881444</t>
+  </si>
+  <si>
+    <t>cg20435097</t>
+  </si>
+  <si>
+    <t>cg05482050</t>
+  </si>
+  <si>
+    <t>cg09632163</t>
+  </si>
+  <si>
+    <t>cg22266824</t>
+  </si>
+  <si>
+    <t>cg01983248</t>
+  </si>
+  <si>
+    <t>cg10526478</t>
+  </si>
+  <si>
+    <t>cg06142946</t>
+  </si>
+  <si>
+    <t>cg00550080</t>
+  </si>
+  <si>
+    <t>cg19827511</t>
+  </si>
+  <si>
+    <t>cg15346842</t>
+  </si>
+  <si>
+    <t>cg03445800</t>
+  </si>
+  <si>
+    <t>cg15119221</t>
+  </si>
+  <si>
+    <t>cg26379258</t>
+  </si>
+  <si>
+    <t>cg13691108</t>
+  </si>
+  <si>
+    <t>cg20378520</t>
+  </si>
+  <si>
+    <t>cg02205013</t>
+  </si>
+  <si>
+    <t>cg21477075</t>
+  </si>
+  <si>
+    <t>cg14134256</t>
+  </si>
+  <si>
+    <t>cg13696545</t>
+  </si>
+  <si>
+    <t>cg13844237</t>
+  </si>
+  <si>
+    <t>cg18482303</t>
+  </si>
+  <si>
+    <t>cg09796602</t>
+  </si>
+  <si>
+    <t>cg16451525</t>
+  </si>
+  <si>
+    <t>cg16512727</t>
+  </si>
+  <si>
+    <t>cg02642565</t>
+  </si>
+  <si>
+    <t>cg09187054</t>
+  </si>
+  <si>
+    <t>cg22624391</t>
+  </si>
+  <si>
+    <t>cg22560020</t>
+  </si>
+  <si>
+    <t>cg04371567</t>
+  </si>
+  <si>
+    <t>cg06721473</t>
+  </si>
+  <si>
+    <t>cg25737891</t>
+  </si>
+  <si>
+    <t>cg15022671</t>
+  </si>
+  <si>
+    <t>cg21093005</t>
+  </si>
+  <si>
+    <t>cg03272932</t>
+  </si>
+  <si>
+    <t>chr3</t>
+  </si>
+  <si>
+    <t>chr16</t>
+  </si>
+  <si>
+    <t>chr17</t>
+  </si>
+  <si>
+    <t>chr5</t>
+  </si>
+  <si>
+    <t>chr11</t>
+  </si>
+  <si>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr14</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>chr10</t>
   </si>
   <si>
     <t>chr19</t>
   </si>
   <si>
-    <t>chr16</t>
-  </si>
-  <si>
-    <t>chr2</t>
-  </si>
-  <si>
-    <t>chr17</t>
-  </si>
-  <si>
-    <t>chr11</t>
+    <t>chr8</t>
+  </si>
+  <si>
+    <t>chr21</t>
   </si>
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>chr1</t>
-  </si>
-  <si>
-    <t>chr5</t>
-  </si>
-  <si>
-    <t>chr8</t>
-  </si>
-  <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr18</t>
+    <t>chr12</t>
+  </si>
+  <si>
+    <t>chr9</t>
+  </si>
+  <si>
+    <t>chr4</t>
+  </si>
+  <si>
+    <t>chr15</t>
   </si>
   <si>
     <t>chr20</t>
   </si>
   <si>
-    <t>chr12</t>
-  </si>
-  <si>
     <t>chr7</t>
   </si>
   <si>
-    <t>chr10</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
-    <t>chr14</t>
-  </si>
-  <si>
-    <t>chr15</t>
-  </si>
-  <si>
-    <t>chr4</t>
-  </si>
-  <si>
-    <t>chr9</t>
-  </si>
-  <si>
     <t>chr22</t>
   </si>
   <si>
-    <t>FTL</t>
+    <t>ITIH1</t>
   </si>
   <si>
     <t>TRAF7</t>
   </si>
   <si>
-    <t>DNAJB2</t>
+    <t>RASL10B</t>
+  </si>
+  <si>
+    <t>TAF15</t>
+  </si>
+  <si>
+    <t>SERINC5</t>
+  </si>
+  <si>
+    <t>MTL5</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>FAM57B</t>
-  </si>
-  <si>
-    <t>ALDOA</t>
-  </si>
-  <si>
-    <t>BCKDK</t>
-  </si>
-  <si>
-    <t>AC135050.1</t>
-  </si>
-  <si>
-    <t>PHRF1</t>
-  </si>
-  <si>
-    <t>SYNGAP1</t>
+    <t>RCBTB1</t>
+  </si>
+  <si>
+    <t>C1QTNF8</t>
+  </si>
+  <si>
+    <t>GTF2A1</t>
+  </si>
+  <si>
+    <t>CTD-2506P8.6</t>
+  </si>
+  <si>
+    <t>SSBP3</t>
+  </si>
+  <si>
+    <t>BAHCC1</t>
+  </si>
+  <si>
+    <t>LINC01341</t>
+  </si>
+  <si>
+    <t>KIF28P</t>
+  </si>
+  <si>
+    <t>SIGLEC10</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>RP11-68I18.10</t>
+  </si>
+  <si>
+    <t>PYGL</t>
+  </si>
+  <si>
+    <t>CTB-147C22.9</t>
+  </si>
+  <si>
+    <t>KLK6</t>
+  </si>
+  <si>
+    <t>RAVER1</t>
+  </si>
+  <si>
+    <t>RP5-902P8.12</t>
+  </si>
+  <si>
+    <t>PDIA5</t>
+  </si>
+  <si>
+    <t>ZMIZ1-AS1</t>
+  </si>
+  <si>
+    <t>LRRTM4</t>
+  </si>
+  <si>
+    <t>EXT1</t>
+  </si>
+  <si>
+    <t>CTD-2162K18.3</t>
+  </si>
+  <si>
+    <t>CTD-2162K18.4</t>
+  </si>
+  <si>
+    <t>SUMO3</t>
+  </si>
+  <si>
+    <t>MICA</t>
+  </si>
+  <si>
+    <t>HCP5</t>
+  </si>
+  <si>
+    <t>TSPAN31</t>
+  </si>
+  <si>
+    <t>AGAP2</t>
+  </si>
+  <si>
+    <t>FIP1L1</t>
+  </si>
+  <si>
+    <t>LNX1-AS1</t>
+  </si>
+  <si>
+    <t>LNX1</t>
+  </si>
+  <si>
+    <t>EDARADD</t>
+  </si>
+  <si>
+    <t>HCAR1</t>
+  </si>
+  <si>
+    <t>NUDT22</t>
+  </si>
+  <si>
+    <t>TRPT1</t>
+  </si>
+  <si>
+    <t>LINC01483</t>
+  </si>
+  <si>
+    <t>CD93</t>
+  </si>
+  <si>
+    <t>FPR3</t>
+  </si>
+  <si>
+    <t>METTL7A</t>
+  </si>
+  <si>
+    <t>PRKAR1B</t>
+  </si>
+  <si>
+    <t>CLEC16A</t>
+  </si>
+  <si>
+    <t>LINC00698</t>
+  </si>
+  <si>
+    <t>PDE6B</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>RAB11FIP1</t>
+  </si>
+  <si>
+    <t>TSC2</t>
+  </si>
+  <si>
+    <t>ANKRD11</t>
+  </si>
+  <si>
+    <t>RP1-168P16.2</t>
   </si>
   <si>
     <t>MFAP4</t>
   </si>
   <si>
-    <t>PDE2A</t>
-  </si>
-  <si>
-    <t>MYADM</t>
-  </si>
-  <si>
-    <t>AC008753.6</t>
-  </si>
-  <si>
-    <t>OLFML3</t>
-  </si>
-  <si>
-    <t>C16orf45</t>
-  </si>
-  <si>
-    <t>RP11-1021N1.1</t>
-  </si>
-  <si>
-    <t>MUC5AC</t>
-  </si>
-  <si>
-    <t>TCF3</t>
+    <t>VAC14</t>
+  </si>
+  <si>
+    <t>ITPA</t>
+  </si>
+  <si>
+    <t>ZC3H3</t>
+  </si>
+  <si>
+    <t>VNN1</t>
+  </si>
+  <si>
+    <t>IRF8</t>
+  </si>
+  <si>
+    <t>CBFA2T3</t>
+  </si>
+  <si>
+    <t>RP11-45A17.2</t>
+  </si>
+  <si>
+    <t>BNIP3</t>
+  </si>
+  <si>
+    <t>VGLL4</t>
+  </si>
+  <si>
+    <t>FXR2</t>
+  </si>
+  <si>
+    <t>SHBG</t>
+  </si>
+  <si>
+    <t>LINC01122</t>
+  </si>
+  <si>
+    <t>RP5-1052I5.2</t>
+  </si>
+  <si>
+    <t>LINC01140</t>
+  </si>
+  <si>
+    <t>HK2</t>
+  </si>
+  <si>
+    <t>RP11-99J16__A.2</t>
+  </si>
+  <si>
+    <t>CAPN9</t>
+  </si>
+  <si>
+    <t>BRD1</t>
+  </si>
+  <si>
+    <t>RASGRP2</t>
+  </si>
+  <si>
+    <t>RP11-449P15.1</t>
+  </si>
+  <si>
+    <t>GPR146</t>
+  </si>
+  <si>
+    <t>C7orf50</t>
+  </si>
+  <si>
+    <t>NPTN</t>
+  </si>
+  <si>
+    <t>PI16</t>
+  </si>
+  <si>
+    <t>LRPAP1</t>
+  </si>
+  <si>
+    <t>MANEAL</t>
+  </si>
+  <si>
+    <t>DNAJC28</t>
+  </si>
+  <si>
+    <t>SEMA3D</t>
+  </si>
+  <si>
+    <t>APLP2</t>
+  </si>
+  <si>
+    <t>RREB1</t>
+  </si>
+  <si>
+    <t>ACSF3</t>
+  </si>
+  <si>
+    <t>MPRIP</t>
+  </si>
+  <si>
+    <t>TENM4</t>
+  </si>
+  <si>
+    <t>LIPA</t>
+  </si>
+  <si>
+    <t>DAB1</t>
+  </si>
+  <si>
+    <t>LINC01006</t>
+  </si>
+  <si>
+    <t>RNF32</t>
+  </si>
+  <si>
+    <t>AEBP2</t>
+  </si>
+  <si>
+    <t>GALNT15</t>
+  </si>
+  <si>
+    <t>YWHAG</t>
+  </si>
+  <si>
+    <t>CTRB2</t>
+  </si>
+  <si>
+    <t>SLC35E2B</t>
+  </si>
+  <si>
+    <t>MMP23B</t>
+  </si>
+  <si>
+    <t>CDK11B</t>
+  </si>
+  <si>
+    <t>UNC93B1</t>
+  </si>
+  <si>
+    <t>AMPD2</t>
+  </si>
+  <si>
+    <t>ST18</t>
+  </si>
+  <si>
+    <t>LAP3</t>
+  </si>
+  <si>
+    <t>PSMB9</t>
+  </si>
+  <si>
+    <t>CTSZ</t>
+  </si>
+  <si>
+    <t>RP11-374P20.4</t>
+  </si>
+  <si>
+    <t>BRD3</t>
+  </si>
+  <si>
+    <t>ACRBP</t>
+  </si>
+  <si>
+    <t>AC114730.3</t>
+  </si>
+  <si>
+    <t>NEU4</t>
+  </si>
+  <si>
+    <t>SLC39A11</t>
+  </si>
+  <si>
+    <t>MKL1</t>
+  </si>
+  <si>
+    <t>RP11-114G22.1</t>
+  </si>
+  <si>
+    <t>CHMP6</t>
+  </si>
+  <si>
+    <t>ARL3</t>
+  </si>
+  <si>
+    <t>SFXN2</t>
+  </si>
+  <si>
+    <t>PDE10A</t>
+  </si>
+  <si>
+    <t>GALNT7</t>
+  </si>
+  <si>
+    <t>RP11-1055B8.4</t>
+  </si>
+  <si>
+    <t>BRPF1</t>
+  </si>
+  <si>
+    <t>TIMM10B</t>
+  </si>
+  <si>
+    <t>ZSCAN18</t>
+  </si>
+  <si>
+    <t>KIF7</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>NCOR2</t>
+  </si>
+  <si>
+    <t>SPON2</t>
+  </si>
+  <si>
+    <t>CTBP1-AS</t>
+  </si>
+  <si>
+    <t>IL6R</t>
+  </si>
+  <si>
+    <t>NAA20</t>
+  </si>
+  <si>
+    <t>HMOX2</t>
+  </si>
+  <si>
+    <t>RP5-858L17.1</t>
+  </si>
+  <si>
+    <t>SIRPA</t>
+  </si>
+  <si>
+    <t>RCC2</t>
+  </si>
+  <si>
+    <t>SKAP1</t>
+  </si>
+  <si>
+    <t>AC004637.1</t>
+  </si>
+  <si>
+    <t>PIP5K1C</t>
+  </si>
+  <si>
+    <t>VPS13D</t>
   </si>
   <si>
     <t>STK3</t>
   </si>
   <si>
-    <t>SMIM24</t>
-  </si>
-  <si>
-    <t>RAI1</t>
-  </si>
-  <si>
-    <t>TEX41</t>
-  </si>
-  <si>
-    <t>PROZ</t>
-  </si>
-  <si>
-    <t>PSTPIP2</t>
-  </si>
-  <si>
-    <t>STK24</t>
-  </si>
-  <si>
-    <t>SERINC5</t>
-  </si>
-  <si>
-    <t>RARRES3</t>
-  </si>
-  <si>
-    <t>RP11-104H15.10</t>
-  </si>
-  <si>
-    <t>RP11-104H15.8</t>
-  </si>
-  <si>
-    <t>FGF11</t>
-  </si>
-  <si>
-    <t>RP11-104H15.7</t>
-  </si>
-  <si>
-    <t>VPS13D</t>
-  </si>
-  <si>
-    <t>SDC4</t>
-  </si>
-  <si>
-    <t>RP11-77H9.2</t>
-  </si>
-  <si>
-    <t>RP11-152P23.2</t>
-  </si>
-  <si>
-    <t>PMM2</t>
-  </si>
-  <si>
-    <t>RP11-550P17.5</t>
-  </si>
-  <si>
-    <t>RP11-180D21.3</t>
-  </si>
-  <si>
-    <t>NLRP3</t>
-  </si>
-  <si>
-    <t>CD93</t>
-  </si>
-  <si>
-    <t>CLIC1</t>
-  </si>
-  <si>
-    <t>CLEC16A</t>
-  </si>
-  <si>
-    <t>RP11-114G22.1</t>
-  </si>
-  <si>
-    <t>TAP2</t>
-  </si>
-  <si>
-    <t>XXbac-BPG246D15.9</t>
-  </si>
-  <si>
-    <t>LINC00536</t>
-  </si>
-  <si>
-    <t>FLCN</t>
-  </si>
-  <si>
-    <t>RP11-45M22.4</t>
-  </si>
-  <si>
-    <t>MPRIP</t>
-  </si>
-  <si>
-    <t>HMGXB3</t>
-  </si>
-  <si>
-    <t>RNF43</t>
-  </si>
-  <si>
-    <t>BZRAP1-AS1</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>MAPRE2</t>
-  </si>
-  <si>
-    <t>CD300A</t>
-  </si>
-  <si>
-    <t>GNA13</t>
-  </si>
-  <si>
-    <t>AL137797.1</t>
-  </si>
-  <si>
-    <t>FAAHP1</t>
-  </si>
-  <si>
-    <t>LINC01140</t>
-  </si>
-  <si>
-    <t>RP5-1052I5.2</t>
-  </si>
-  <si>
-    <t>OBSCN</t>
-  </si>
-  <si>
-    <t>PRKAR1B</t>
-  </si>
-  <si>
-    <t>PRR12</t>
-  </si>
-  <si>
-    <t>TECPR1</t>
-  </si>
-  <si>
-    <t>LINC00607</t>
-  </si>
-  <si>
-    <t>CMAHP</t>
-  </si>
-  <si>
-    <t>ZMIZ1-AS1</t>
-  </si>
-  <si>
-    <t>PCDHGA3</t>
-  </si>
-  <si>
-    <t>PCDHGB7</t>
-  </si>
-  <si>
-    <t>PCDHGA9</t>
-  </si>
-  <si>
-    <t>PCDHGA4</t>
-  </si>
-  <si>
-    <t>PCDHGB3</t>
-  </si>
-  <si>
-    <t>PCDHGA2</t>
-  </si>
-  <si>
-    <t>PCDHGB1</t>
-  </si>
-  <si>
-    <t>PCDHGB5</t>
-  </si>
-  <si>
-    <t>PCDHGA8</t>
-  </si>
-  <si>
-    <t>PCDHGB6</t>
-  </si>
-  <si>
-    <t>PCDHGA1</t>
-  </si>
-  <si>
-    <t>PCDHGA5</t>
-  </si>
-  <si>
-    <t>PCDHGA11</t>
-  </si>
-  <si>
-    <t>PCDHGA12</t>
-  </si>
-  <si>
-    <t>PCDHGB4</t>
-  </si>
-  <si>
-    <t>PCDHGA10</t>
-  </si>
-  <si>
-    <t>PCDHGA7</t>
-  </si>
-  <si>
-    <t>PCDHGA6</t>
-  </si>
-  <si>
-    <t>PCDHGB2</t>
-  </si>
-  <si>
-    <t>MAP2</t>
-  </si>
-  <si>
-    <t>C1orf228</t>
-  </si>
-  <si>
-    <t>MAN1A1</t>
-  </si>
-  <si>
-    <t>RP11-702B10.2</t>
-  </si>
-  <si>
-    <t>CSGALNACT1</t>
-  </si>
-  <si>
-    <t>SLC7A7</t>
-  </si>
-  <si>
-    <t>LAP3</t>
-  </si>
-  <si>
-    <t>NPTN</t>
-  </si>
-  <si>
-    <t>VNN1</t>
-  </si>
-  <si>
-    <t>IRF2</t>
-  </si>
-  <si>
-    <t>CYB561D1</t>
-  </si>
-  <si>
-    <t>METTL8</t>
-  </si>
-  <si>
-    <t>TMEM126A</t>
-  </si>
-  <si>
-    <t>EML6</t>
-  </si>
-  <si>
-    <t>RP11-632K5.3</t>
-  </si>
-  <si>
-    <t>GSN</t>
-  </si>
-  <si>
-    <t>GSN-AS1</t>
-  </si>
-  <si>
-    <t>MED13L</t>
-  </si>
-  <si>
-    <t>SSH1</t>
-  </si>
-  <si>
-    <t>HMOX2</t>
-  </si>
-  <si>
-    <t>TTC19</t>
-  </si>
-  <si>
-    <t>NUDC</t>
-  </si>
-  <si>
-    <t>NR0B2</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>PDP1</t>
-  </si>
-  <si>
-    <t>LMF2</t>
-  </si>
-  <si>
-    <t>NCAPH2</t>
-  </si>
-  <si>
-    <t>GRXCR2</t>
-  </si>
-  <si>
-    <t>TOM1L2</t>
-  </si>
-  <si>
-    <t>H1FX-AS1</t>
-  </si>
-  <si>
-    <t>H1FX</t>
-  </si>
-  <si>
-    <t>PHTF2</t>
-  </si>
-  <si>
-    <t>ANXA2</t>
-  </si>
-  <si>
-    <t>ERCC2</t>
-  </si>
-  <si>
-    <t>ADAMTSL4-AS1</t>
-  </si>
-  <si>
-    <t>BRCA2</t>
-  </si>
-  <si>
-    <t>GALNT15</t>
-  </si>
-  <si>
-    <t>GPR1-AS</t>
-  </si>
-  <si>
-    <t>GPR1</t>
-  </si>
-  <si>
-    <t>PTPRCAP</t>
-  </si>
-  <si>
-    <t>CORO1B</t>
-  </si>
-  <si>
-    <t>SEPT9</t>
-  </si>
-  <si>
-    <t>SCNN1G</t>
-  </si>
-  <si>
-    <t>ROBO4</t>
-  </si>
-  <si>
-    <t>NUDCD3</t>
+    <t>TP53BP1</t>
+  </si>
+  <si>
+    <t>PRDM16</t>
+  </si>
+  <si>
+    <t>SMAD9</t>
+  </si>
+  <si>
+    <t>P2RX4</t>
+  </si>
+  <si>
+    <t>SH3BP4</t>
+  </si>
+  <si>
+    <t>FRMD4A</t>
+  </si>
+  <si>
+    <t>ADCK3</t>
+  </si>
+  <si>
+    <t>ETV6</t>
+  </si>
+  <si>
+    <t>SHANK2</t>
+  </si>
+  <si>
+    <t>PRSS23</t>
+  </si>
+  <si>
+    <t>TBCD</t>
+  </si>
+  <si>
+    <t>ZNF750</t>
+  </si>
+  <si>
+    <t>RP11-227H15.4</t>
+  </si>
+  <si>
+    <t>YAF2</t>
+  </si>
+  <si>
+    <t>PPHLN1</t>
+  </si>
+  <si>
+    <t>EOGT</t>
+  </si>
+  <si>
+    <t>FAM53B</t>
+  </si>
+  <si>
+    <t>RP11-12J10.3</t>
+  </si>
+  <si>
+    <t>RP11-1252I4.2</t>
+  </si>
+  <si>
+    <t>ABCA3</t>
+  </si>
+  <si>
+    <t>C4orf45</t>
+  </si>
+  <si>
+    <t>C5orf28</t>
+  </si>
+  <si>
+    <t>RP11-159F24.3</t>
+  </si>
+  <si>
+    <t>NCR3LG1</t>
+  </si>
+  <si>
+    <t>TRIM10</t>
+  </si>
+  <si>
+    <t>ITPK1</t>
+  </si>
+  <si>
+    <t>AC007131.2</t>
+  </si>
+  <si>
+    <t>AC007131.1</t>
+  </si>
+  <si>
+    <t>RP11-444A22.1</t>
+  </si>
+  <si>
+    <t>TRAF3IP2-AS1</t>
+  </si>
+  <si>
+    <t>TRAF3IP2</t>
+  </si>
+  <si>
+    <t>PPP1R16B</t>
+  </si>
+  <si>
+    <t>TMEM132B</t>
+  </si>
+  <si>
+    <t>MAPK8IP3</t>
+  </si>
+  <si>
+    <t>KIF25</t>
+  </si>
+  <si>
+    <t>AMOTL1</t>
+  </si>
+  <si>
+    <t>ERC2</t>
+  </si>
+  <si>
+    <t>MAPKAP1</t>
+  </si>
+  <si>
+    <t>MGAT5</t>
+  </si>
+  <si>
+    <t>USP31</t>
+  </si>
+  <si>
+    <t>C12orf4</t>
+  </si>
+  <si>
+    <t>RAD51AP1</t>
+  </si>
+  <si>
+    <t>CDIP1</t>
+  </si>
+  <si>
+    <t>TUSC5</t>
+  </si>
+  <si>
+    <t>HYAL2</t>
+  </si>
+  <si>
+    <t>AC096559.1</t>
+  </si>
+  <si>
+    <t>AC125238.2</t>
+  </si>
+  <si>
+    <t>FOXK2</t>
   </si>
   <si>
     <t>protein_coding</t>
   </si>
   <si>
-    <t>protein_coding;miRNA</t>
-  </si>
-  <si>
     <t>protein_coding;antisense</t>
   </si>
   <si>
+    <t>processed_transcript;unitary_pseudogene</t>
+  </si>
+  <si>
+    <t>sense_overlapping</t>
+  </si>
+  <si>
     <t>lincRNA</t>
   </si>
   <si>
-    <t>protein_coding;antisense;processed_transcript</t>
-  </si>
-  <si>
-    <t>antisense;lincRNA</t>
-  </si>
-  <si>
-    <t>transcribed_unprocessed_pseudogene;miRNA</t>
-  </si>
-  <si>
-    <t>protein_coding;lincRNA</t>
-  </si>
-  <si>
-    <t>unitary_pseudogene</t>
-  </si>
-  <si>
     <t>antisense</t>
   </si>
   <si>
-    <t>processed_transcript</t>
-  </si>
-  <si>
-    <t>protein_coding;processed_transcript</t>
+    <t>sense_overlapping;protein_coding</t>
+  </si>
+  <si>
+    <t>protein_coding;sense_intronic</t>
+  </si>
+  <si>
+    <t>lincRNA;protein_coding</t>
+  </si>
+  <si>
+    <t>processed_transcript;protein_coding</t>
+  </si>
+  <si>
+    <t>processed_pseudogene</t>
+  </si>
+  <si>
+    <t>S_Shelf</t>
   </si>
   <si>
     <t>Island</t>
-  </si>
-  <si>
-    <t>S_Shelf</t>
   </si>
   <si>
     <t>S_Shore</t>
@@ -1241,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,25 +1668,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="C2">
-        <v>48965203</v>
+        <v>52779635</v>
       </c>
       <c r="D2">
-        <v>48965205</v>
+        <v>52779637</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="H2">
-        <v>0.2591492875775405</v>
+        <v>0.1082953774349345</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1304,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="C3">
         <v>2159838</v>
@@ -1313,16 +1703,16 @@
         <v>2159840</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="H3">
-        <v>0.1664115198342228</v>
+        <v>0.1040953621662024</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1330,77 +1720,77 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>219280584</v>
+        <v>35731530</v>
       </c>
       <c r="D4">
-        <v>219280586</v>
+        <v>35731532</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
       <c r="H4">
-        <v>0.1635417949704401</v>
+        <v>0.08327304477846875</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="C5">
-        <v>43368914</v>
+        <v>35731530</v>
       </c>
       <c r="D5">
-        <v>43368916</v>
+        <v>35731532</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
       <c r="H5">
-        <v>0.161087158424973</v>
+        <v>0.08327304477846875</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C6">
-        <v>30051724</v>
+        <v>80205311</v>
       </c>
       <c r="D6">
-        <v>30051726</v>
+        <v>80205313</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="H6">
-        <v>0.1546137674668997</v>
+        <v>0.08110785987852161</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1408,25 +1798,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C7">
-        <v>30051724</v>
+        <v>68751776</v>
       </c>
       <c r="D7">
-        <v>30051726</v>
+        <v>68751778</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="H7">
-        <v>0.1546137674668997</v>
+        <v>0.08106246417811806</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1434,103 +1824,103 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C8">
-        <v>31107745</v>
+        <v>3651762</v>
       </c>
       <c r="D8">
-        <v>31107747</v>
+        <v>3651764</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>416</v>
       </c>
       <c r="H8">
-        <v>0.1311319124555213</v>
+        <v>0.07902389633447442</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C9">
-        <v>31107745</v>
+        <v>49549508</v>
       </c>
       <c r="D9">
-        <v>31107747</v>
+        <v>49549510</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="H9">
-        <v>0.1311319124555213</v>
+        <v>0.06977752270553518</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="C10">
-        <v>582010</v>
+        <v>1090938</v>
       </c>
       <c r="D10">
-        <v>582012</v>
+        <v>1090940</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="H10">
-        <v>0.120326995066989</v>
+        <v>0.06703652009040027</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="C11">
-        <v>33430744</v>
+        <v>81221539</v>
       </c>
       <c r="D11">
-        <v>33430746</v>
+        <v>81221541</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>286</v>
+        <v>416</v>
       </c>
       <c r="H11">
-        <v>0.113997080987813</v>
+        <v>0.06478658752338748</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1538,25 +1928,25 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C12">
-        <v>19387806</v>
+        <v>81221539</v>
       </c>
       <c r="D12">
-        <v>19387808</v>
+        <v>81221541</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
       <c r="H12">
-        <v>0.1048119499391885</v>
+        <v>0.06478658752338748</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1564,25 +1954,25 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C13">
-        <v>72589846</v>
+        <v>54356179</v>
       </c>
       <c r="D13">
-        <v>72589848</v>
+        <v>54356181</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="H13">
-        <v>0.1025061535807513</v>
+        <v>0.06002809256124789</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1590,77 +1980,77 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="C14">
-        <v>53869454</v>
+        <v>129612142</v>
       </c>
       <c r="D14">
-        <v>53869456</v>
+        <v>129612144</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="H14">
-        <v>0.09920659110855276</v>
+        <v>0.05966805594326335</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C15">
-        <v>53869454</v>
+        <v>81453397</v>
       </c>
       <c r="D15">
-        <v>53869456</v>
+        <v>81453399</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G15" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="H15">
-        <v>0.09920659110855276</v>
+        <v>0.04972861736468917</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="C16">
-        <v>113981967</v>
+        <v>246789970</v>
       </c>
       <c r="D16">
-        <v>113981969</v>
+        <v>246789972</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="H16">
-        <v>0.09592800915910663</v>
+        <v>0.04280998663249659</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1668,207 +2058,207 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="C17">
-        <v>15489748</v>
+        <v>246789970</v>
       </c>
       <c r="D17">
-        <v>15489750</v>
+        <v>246789972</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="H17">
-        <v>0.08637918618456072</v>
+        <v>0.04280998663249659</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="C18">
-        <v>15489748</v>
+        <v>131453805</v>
       </c>
       <c r="D18">
-        <v>15489750</v>
+        <v>131453807</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H18">
-        <v>0.08637918618456072</v>
+        <v>0.04032395698839157</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="C19">
-        <v>1200585</v>
+        <v>51417630</v>
       </c>
       <c r="D19">
-        <v>1200587</v>
+        <v>51417632</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="H19">
-        <v>0.08493272739364863</v>
+        <v>0.03769915692331773</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C20">
-        <v>1649123</v>
+        <v>47851211</v>
       </c>
       <c r="D20">
-        <v>1649125</v>
+        <v>47851213</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>416</v>
       </c>
       <c r="H20">
-        <v>0.07847214160743192</v>
+        <v>0.03552855649638785</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C21">
-        <v>61323104</v>
+        <v>151131392</v>
       </c>
       <c r="D21">
-        <v>61323106</v>
+        <v>151131394</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>407</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
       <c r="H21">
-        <v>0.07716933378187874</v>
+        <v>0.02695641539391929</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="C22">
-        <v>98940362</v>
+        <v>119797455</v>
       </c>
       <c r="D22">
-        <v>98940364</v>
+        <v>119797457</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="H22">
-        <v>0.06615371387492294</v>
+        <v>0.02612313616891102</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="C23">
-        <v>3480597</v>
+        <v>50943782</v>
       </c>
       <c r="D23">
-        <v>3480599</v>
+        <v>50943784</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="H23">
-        <v>0.06454611652527223</v>
+        <v>0.01315698528053809</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C24">
-        <v>17809294</v>
+        <v>50968785</v>
       </c>
       <c r="D24">
-        <v>17809296</v>
+        <v>50968787</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G24" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="H24">
-        <v>0.0639625256058961</v>
+        <v>0.008944448300397242</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1876,25 +2266,25 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="C25">
-        <v>144835191</v>
+        <v>50968785</v>
       </c>
       <c r="D25">
-        <v>144835193</v>
+        <v>50968787</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H25">
-        <v>0.05982559031181382</v>
+        <v>0.008944448300397242</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1902,25 +2292,25 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="C26">
-        <v>113171639</v>
+        <v>10323084</v>
       </c>
       <c r="D26">
-        <v>113171641</v>
+        <v>10323086</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="H26">
-        <v>0.05556174783122718</v>
+        <v>0.00313700819463819</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1928,25 +2318,25 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="C27">
-        <v>46031990</v>
+        <v>1250976</v>
       </c>
       <c r="D27">
-        <v>46031992</v>
+        <v>1250978</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="G27" t="s">
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="H27">
-        <v>0.04728749958848848</v>
+        <v>0.002857093017325928</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1954,25 +2344,25 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="C28">
-        <v>98478400</v>
+        <v>123066802</v>
       </c>
       <c r="D28">
-        <v>98478402</v>
+        <v>123066804</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G28" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
       <c r="H28">
-        <v>0.04303323517274604</v>
+        <v>-0.0009132314588743843</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1980,25 +2370,25 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C29">
-        <v>80205311</v>
+        <v>78977907</v>
       </c>
       <c r="D29">
-        <v>80205313</v>
+        <v>78977909</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H29">
-        <v>0.04006616945307193</v>
+        <v>-0.00133121386152957</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2006,25 +2396,25 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C30">
-        <v>63535926</v>
+        <v>76748093</v>
       </c>
       <c r="D30">
-        <v>63535928</v>
+        <v>76748095</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H30">
-        <v>0.0323463182781408</v>
+        <v>-0.003507174507702085</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2032,2991 +2422,4617 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="C31">
-        <v>7439785</v>
+        <v>118111811</v>
       </c>
       <c r="D31">
-        <v>7439787</v>
+        <v>118111813</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>404</v>
       </c>
       <c r="G31" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="H31">
-        <v>0.03066158855730902</v>
+        <v>-0.004781790567458419</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C32">
-        <v>7439785</v>
+        <v>123907703</v>
       </c>
       <c r="D32">
-        <v>7439787</v>
+        <v>123907705</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="H32">
-        <v>0.03066158855730902</v>
+        <v>-0.006693995840380561</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C33">
-        <v>7439785</v>
+        <v>36776123</v>
       </c>
       <c r="D33">
-        <v>7439787</v>
+        <v>36776125</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="H33">
-        <v>0.03066158855730902</v>
+        <v>-0.008281159474425677</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C34">
-        <v>7439785</v>
+        <v>36776123</v>
       </c>
       <c r="D34">
-        <v>7439787</v>
+        <v>36776125</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>416</v>
       </c>
       <c r="H34">
-        <v>0.03066158855730902</v>
+        <v>-0.008281159474425677</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="C35">
-        <v>12475057</v>
+        <v>44805974</v>
       </c>
       <c r="D35">
-        <v>12475059</v>
+        <v>44805976</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H35">
-        <v>0.01553148190818358</v>
+        <v>-0.009027806405595371</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="C36">
-        <v>45344681</v>
+        <v>31407526</v>
       </c>
       <c r="D36">
-        <v>45344683</v>
+        <v>31407528</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="G36" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="H36">
-        <v>-0.02145337732663468</v>
+        <v>-0.01054014097111469</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="C37">
-        <v>8849264</v>
+        <v>31407526</v>
       </c>
       <c r="D37">
-        <v>8849266</v>
+        <v>31407528</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H37">
-        <v>-0.02233943505871682</v>
+        <v>-0.01054014097111469</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="C38">
-        <v>8849264</v>
+        <v>57742661</v>
       </c>
       <c r="D38">
-        <v>8849266</v>
+        <v>57742663</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H38">
-        <v>-0.02233943505871682</v>
+        <v>-0.01336348679339404</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="C39">
-        <v>8849264</v>
+        <v>57742661</v>
       </c>
       <c r="D39">
-        <v>8849266</v>
+        <v>57742663</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H39">
-        <v>-0.02233943505871682</v>
+        <v>-0.01336348679339404</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="C40">
-        <v>26183486</v>
+        <v>135987756</v>
       </c>
       <c r="D40">
-        <v>26183488</v>
+        <v>135987758</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
       <c r="H40">
-        <v>-0.02476780421963121</v>
+        <v>-0.01658501230993631</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="C41">
-        <v>159470190</v>
+        <v>118904290</v>
       </c>
       <c r="D41">
-        <v>159470192</v>
+        <v>118904292</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H41">
-        <v>-0.03283389759504269</v>
+        <v>-0.01698725408228861</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C42">
-        <v>159470190</v>
+        <v>53508081</v>
       </c>
       <c r="D42">
-        <v>159470192</v>
+        <v>53508083</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H42">
-        <v>-0.03283389759504269</v>
+        <v>-0.02607585522978094</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C43">
-        <v>247416803</v>
+        <v>53508081</v>
       </c>
       <c r="D43">
-        <v>247416805</v>
+        <v>53508083</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H43">
-        <v>-0.03376291584568818</v>
+        <v>-0.02607585522978094</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="C44">
-        <v>23083970</v>
+        <v>53508081</v>
       </c>
       <c r="D44">
-        <v>23083972</v>
+        <v>53508083</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H44">
-        <v>-0.04547147108027048</v>
+        <v>-0.02607585522978094</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C45">
-        <v>31737495</v>
+        <v>236393881</v>
       </c>
       <c r="D45">
-        <v>31737497</v>
+        <v>236393883</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="H45">
-        <v>-0.05198826148803065</v>
+        <v>-0.02862225431555634</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="C46">
-        <v>11138900</v>
+        <v>65519989</v>
       </c>
       <c r="D46">
-        <v>11138902</v>
+        <v>65519991</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
       <c r="H46">
-        <v>-0.05366957586384106</v>
+        <v>-0.04016091069646029</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="C47">
-        <v>22729886</v>
+        <v>122731005</v>
       </c>
       <c r="D47">
-        <v>22729888</v>
+        <v>122731007</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H47">
-        <v>-0.05401243073294633</v>
+        <v>-0.04147016090858773</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C48">
-        <v>32837792</v>
+        <v>64224444</v>
       </c>
       <c r="D48">
-        <v>32837794</v>
+        <v>64224446</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="H48">
-        <v>-0.05886755624782943</v>
+        <v>-0.0443534208481893</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C49">
-        <v>32837792</v>
+        <v>64224444</v>
       </c>
       <c r="D49">
-        <v>32837794</v>
+        <v>64224446</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F49" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="H49">
-        <v>-0.05886755624782943</v>
+        <v>-0.0443534208481893</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="C50">
-        <v>6295210</v>
+        <v>69609356</v>
       </c>
       <c r="D50">
-        <v>6295212</v>
+        <v>69609358</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="G50" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="H50">
-        <v>-0.06355358282433916</v>
+        <v>-0.04485602474945898</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="C51">
-        <v>116089464</v>
+        <v>23083970</v>
       </c>
       <c r="D51">
-        <v>116089466</v>
+        <v>23083972</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H51">
-        <v>-0.07444553000335843</v>
+        <v>-0.04972291985202267</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="C52">
-        <v>17213452</v>
+        <v>51824187</v>
       </c>
       <c r="D52">
-        <v>17213454</v>
+        <v>51824189</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H52">
-        <v>-0.07478326818156215</v>
+        <v>-0.05413614489080373</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C53">
-        <v>17213452</v>
+        <v>50929956</v>
       </c>
       <c r="D53">
-        <v>17213454</v>
+        <v>50929958</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G53" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H53">
-        <v>-0.07478326818156215</v>
+        <v>-0.06127032123491515</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="C54">
-        <v>17213452</v>
+        <v>597816</v>
       </c>
       <c r="D54">
-        <v>17213454</v>
+        <v>597818</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H54">
-        <v>-0.07478326818156215</v>
+        <v>-0.06408591373606032</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="C55">
-        <v>150052438</v>
+        <v>11138900</v>
       </c>
       <c r="D55">
-        <v>150052440</v>
+        <v>11138902</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H55">
-        <v>-0.08299007026270404</v>
+        <v>-0.06570391394541118</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C56">
-        <v>58358093</v>
+        <v>62948996</v>
       </c>
       <c r="D56">
-        <v>58358095</v>
+        <v>62948998</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="F56" t="s">
-        <v>275</v>
+        <v>408</v>
       </c>
       <c r="G56" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="H56">
-        <v>-0.08315072448729258</v>
+        <v>-0.06935141275916963</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="C57">
-        <v>58358093</v>
+        <v>652752</v>
       </c>
       <c r="D57">
-        <v>58358095</v>
+        <v>652754</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="F57" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G57" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="H57">
-        <v>-0.08315072448729258</v>
+        <v>-0.07064618763917556</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="C58">
-        <v>36488359</v>
+        <v>46886162</v>
       </c>
       <c r="D58">
-        <v>36488361</v>
+        <v>46886164</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="H58">
-        <v>-0.08726055001358998</v>
+        <v>-0.07353450393290362</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="C59">
-        <v>35041783</v>
+        <v>118111467</v>
       </c>
       <c r="D59">
-        <v>35041785</v>
+        <v>118111469</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="F59" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="H59">
-        <v>-0.08903409444264614</v>
+        <v>-0.08026084203120593</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="C60">
-        <v>74466024</v>
+        <v>37874705</v>
       </c>
       <c r="D60">
-        <v>74466026</v>
+        <v>37874707</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60">
-        <v>-0.09043688591530277</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="C61">
-        <v>65057810</v>
+        <v>2083386</v>
       </c>
       <c r="D61">
-        <v>65057812</v>
+        <v>2083388</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G61" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61">
-        <v>-0.09586825985567174</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C62">
-        <v>46436715</v>
+        <v>89403132</v>
       </c>
       <c r="D62">
-        <v>46436717</v>
+        <v>89403134</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62">
-        <v>-0.1027008462433813</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C63">
-        <v>46436715</v>
+        <v>89403132</v>
       </c>
       <c r="D63">
-        <v>46436717</v>
+        <v>89403134</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63">
-        <v>-0.1027008462433813</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C64">
+        <v>19387806</v>
+      </c>
+      <c r="D64">
+        <v>19387808</v>
+      </c>
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65">
+        <v>70737238</v>
+      </c>
+      <c r="D65">
+        <v>70737240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" t="s">
+        <v>404</v>
+      </c>
+      <c r="G65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66">
+        <v>3223491</v>
+      </c>
+      <c r="D66">
+        <v>3223493</v>
+      </c>
+      <c r="E66" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" t="s">
+        <v>404</v>
+      </c>
+      <c r="G66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67">
+        <v>143494433</v>
+      </c>
+      <c r="D67">
+        <v>143494435</v>
+      </c>
+      <c r="E67" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68">
+        <v>132715433</v>
+      </c>
+      <c r="D68">
+        <v>132715435</v>
+      </c>
+      <c r="E68" t="s">
+        <v>276</v>
+      </c>
+      <c r="F68" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69">
+        <v>109744841</v>
+      </c>
+      <c r="D69">
+        <v>109744843</v>
+      </c>
+      <c r="E69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70">
+        <v>85902540</v>
+      </c>
+      <c r="D70">
+        <v>85902542</v>
+      </c>
+      <c r="E70" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" t="s">
+        <v>404</v>
+      </c>
+      <c r="G70" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71">
+        <v>88967679</v>
+      </c>
+      <c r="D71">
+        <v>88967681</v>
+      </c>
+      <c r="E71" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" t="s">
+        <v>404</v>
+      </c>
+      <c r="G71" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72">
+        <v>131970793</v>
+      </c>
+      <c r="D72">
+        <v>131970795</v>
+      </c>
+      <c r="E72" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" t="s">
+        <v>405</v>
+      </c>
+      <c r="G72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73">
+        <v>131970793</v>
+      </c>
+      <c r="D73">
+        <v>131970795</v>
+      </c>
+      <c r="E73" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" t="s">
+        <v>405</v>
+      </c>
+      <c r="G73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74">
+        <v>11601952</v>
+      </c>
+      <c r="D74">
+        <v>11601954</v>
+      </c>
+      <c r="E74" t="s">
+        <v>281</v>
+      </c>
+      <c r="F74" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75">
+        <v>7613901</v>
+      </c>
+      <c r="D75">
+        <v>7613903</v>
+      </c>
+      <c r="E75" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" t="s">
+        <v>404</v>
+      </c>
+      <c r="G75" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76">
+        <v>7613901</v>
+      </c>
+      <c r="D76">
+        <v>7613903</v>
+      </c>
+      <c r="E76" t="s">
+        <v>283</v>
+      </c>
+      <c r="F76" t="s">
+        <v>404</v>
+      </c>
+      <c r="G76" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77">
+        <v>109744594</v>
+      </c>
+      <c r="D77">
+        <v>109744596</v>
+      </c>
+      <c r="E77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F77" t="s">
+        <v>224</v>
+      </c>
+      <c r="G77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78">
+        <v>107705174</v>
+      </c>
+      <c r="D78">
+        <v>107705176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" t="s">
+        <v>224</v>
+      </c>
+      <c r="G78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79">
+        <v>58762291</v>
+      </c>
+      <c r="D79">
+        <v>58762293</v>
+      </c>
+      <c r="E79" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80">
         <v>87152629</v>
       </c>
-      <c r="D64">
+      <c r="D80">
         <v>87152631</v>
       </c>
-      <c r="E64" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" t="s">
-        <v>280</v>
-      </c>
-      <c r="G64" t="s">
-        <v>287</v>
-      </c>
-      <c r="H64">
-        <v>-0.1052670793832488</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65">
-        <v>87152629</v>
-      </c>
-      <c r="D65">
-        <v>87152631</v>
-      </c>
-      <c r="E65" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" t="s">
-        <v>280</v>
-      </c>
-      <c r="G65" t="s">
-        <v>287</v>
-      </c>
-      <c r="H65">
-        <v>-0.1052670793832488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66">
-        <v>228215425</v>
-      </c>
-      <c r="D66">
-        <v>228215427</v>
-      </c>
-      <c r="E66" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" t="s">
-        <v>273</v>
-      </c>
-      <c r="G66" t="s">
-        <v>288</v>
-      </c>
-      <c r="H66">
-        <v>-0.1098926780921018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67">
-        <v>597816</v>
-      </c>
-      <c r="D67">
-        <v>597818</v>
-      </c>
-      <c r="E67" t="s">
-        <v>203</v>
-      </c>
-      <c r="F67" t="s">
-        <v>273</v>
-      </c>
-      <c r="G67" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67">
-        <v>-0.1150601430790805</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68">
-        <v>49597729</v>
-      </c>
-      <c r="D68">
-        <v>49597731</v>
-      </c>
-      <c r="E68" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" t="s">
-        <v>273</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="E80" t="s">
         <v>285</v>
       </c>
-      <c r="H68">
-        <v>-0.1380260655868398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69">
-        <v>98245946</v>
-      </c>
-      <c r="D69">
-        <v>98245948</v>
-      </c>
-      <c r="E69" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" t="s">
-        <v>273</v>
-      </c>
-      <c r="G69" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69">
-        <v>-0.1951275516773548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70">
-        <v>43359427</v>
-      </c>
-      <c r="D70">
-        <v>43359429</v>
-      </c>
-      <c r="E70" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71">
-        <v>215843654</v>
-      </c>
-      <c r="D71">
-        <v>215843656</v>
-      </c>
-      <c r="E71" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72">
-        <v>25088770</v>
-      </c>
-      <c r="D72">
-        <v>25088772</v>
-      </c>
-      <c r="E72" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" t="s">
-        <v>281</v>
-      </c>
-      <c r="G72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73">
-        <v>78977907</v>
-      </c>
-      <c r="D73">
-        <v>78977909</v>
-      </c>
-      <c r="E73" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" t="s">
-        <v>282</v>
-      </c>
-      <c r="G73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74">
-        <v>72032668</v>
-      </c>
-      <c r="D74">
-        <v>72032670</v>
-      </c>
-      <c r="E74" t="s">
-        <v>144</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75">
-        <v>141444469</v>
-      </c>
-      <c r="D75">
-        <v>141444471</v>
-      </c>
-      <c r="E75" t="s">
-        <v>209</v>
-      </c>
-      <c r="F75" t="s">
-        <v>273</v>
-      </c>
-      <c r="G75" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76">
-        <v>141444469</v>
-      </c>
-      <c r="D76">
-        <v>141444471</v>
-      </c>
-      <c r="E76" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B77" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77">
-        <v>141444469</v>
-      </c>
-      <c r="D77">
-        <v>141444471</v>
-      </c>
-      <c r="E77" t="s">
-        <v>211</v>
-      </c>
-      <c r="F77" t="s">
-        <v>273</v>
-      </c>
-      <c r="G77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78">
-        <v>141444469</v>
-      </c>
-      <c r="D78">
-        <v>141444471</v>
-      </c>
-      <c r="E78" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" t="s">
-        <v>273</v>
-      </c>
-      <c r="G78" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79">
-        <v>141444469</v>
-      </c>
-      <c r="D79">
-        <v>141444471</v>
-      </c>
-      <c r="E79" t="s">
-        <v>213</v>
-      </c>
-      <c r="F79" t="s">
-        <v>273</v>
-      </c>
-      <c r="G79" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80">
-        <v>141444469</v>
-      </c>
-      <c r="D80">
-        <v>141444471</v>
-      </c>
-      <c r="E80" t="s">
-        <v>214</v>
-      </c>
       <c r="F80" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="G80" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C81">
-        <v>141444469</v>
+        <v>87152629</v>
       </c>
       <c r="D81">
-        <v>141444471</v>
+        <v>87152631</v>
       </c>
       <c r="E81" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="F81" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="G81" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C82">
-        <v>141444469</v>
+        <v>74840588</v>
       </c>
       <c r="D82">
-        <v>141444471</v>
+        <v>74840590</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G82" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="C83">
-        <v>141444469</v>
+        <v>49549476</v>
       </c>
       <c r="D83">
-        <v>141444471</v>
+        <v>49549478</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G83" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C84">
-        <v>141444469</v>
+        <v>230747805</v>
       </c>
       <c r="D84">
-        <v>141444471</v>
+        <v>230747807</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="F84" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G84" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C85">
-        <v>141444469</v>
+        <v>230747805</v>
       </c>
       <c r="D85">
-        <v>141444471</v>
+        <v>230747807</v>
       </c>
       <c r="E85" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="F85" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G85" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C86">
-        <v>141444469</v>
+        <v>11558341</v>
       </c>
       <c r="D86">
-        <v>141444471</v>
+        <v>11558343</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="F86" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G86" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C87">
-        <v>141444469</v>
+        <v>49784571</v>
       </c>
       <c r="D87">
-        <v>141444471</v>
+        <v>49784573</v>
       </c>
       <c r="E87" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G87" t="s">
-        <v>286</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C88">
-        <v>141444469</v>
+        <v>64741618</v>
       </c>
       <c r="D88">
-        <v>141444471</v>
+        <v>64741620</v>
       </c>
       <c r="E88" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G88" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C89">
-        <v>141444469</v>
+        <v>1055779</v>
       </c>
       <c r="D89">
-        <v>141444471</v>
+        <v>1055781</v>
       </c>
       <c r="E89" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G89" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C90">
-        <v>141444469</v>
+        <v>1055779</v>
       </c>
       <c r="D90">
-        <v>141444471</v>
+        <v>1055781</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G90" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C91">
-        <v>141444469</v>
+        <v>1055779</v>
       </c>
       <c r="D91">
-        <v>141444471</v>
+        <v>1055781</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G91" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="C92">
-        <v>141444469</v>
+        <v>73634112</v>
       </c>
       <c r="D92">
-        <v>141444471</v>
+        <v>73634114</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="F92" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G92" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="C93">
-        <v>141444469</v>
+        <v>36963766</v>
       </c>
       <c r="D93">
-        <v>141444471</v>
+        <v>36963768</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G93" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C94">
-        <v>209496087</v>
+        <v>157438011</v>
       </c>
       <c r="D94">
-        <v>209496089</v>
+        <v>157438013</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F94" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G94" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="C95">
-        <v>100761836</v>
+        <v>3514909</v>
       </c>
       <c r="D95">
-        <v>100761838</v>
+        <v>3514911</v>
       </c>
       <c r="E95" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="F95" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G95" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="C96">
-        <v>44677142</v>
+        <v>37796839</v>
       </c>
       <c r="D96">
-        <v>44677144</v>
+        <v>37796841</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="F96" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G96" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="C97">
-        <v>119240673</v>
+        <v>131970803</v>
       </c>
       <c r="D97">
-        <v>119240675</v>
+        <v>131970805</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="F97" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="C98">
-        <v>128180711</v>
+        <v>131970803</v>
       </c>
       <c r="D98">
-        <v>128180713</v>
+        <v>131970805</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="F98" t="s">
-        <v>276</v>
+        <v>405</v>
       </c>
       <c r="G98" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C99">
-        <v>19578939</v>
+        <v>89403320</v>
       </c>
       <c r="D99">
-        <v>19578941</v>
+        <v>89403322</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>273</v>
+        <v>411</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="C100">
-        <v>22820528</v>
+        <v>89403320</v>
       </c>
       <c r="D100">
-        <v>22820530</v>
+        <v>89403322</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>273</v>
+        <v>411</v>
       </c>
       <c r="G100" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C101">
-        <v>63492831</v>
+        <v>33488648</v>
       </c>
       <c r="D101">
-        <v>63492833</v>
+        <v>33488650</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="C102">
-        <v>17579056</v>
+        <v>85160554</v>
       </c>
       <c r="D102">
-        <v>17579058</v>
+        <v>85160556</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="F102" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G102" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C103">
-        <v>73634112</v>
+        <v>133253903</v>
       </c>
       <c r="D103">
-        <v>73634114</v>
+        <v>133253905</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F103" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="C104">
-        <v>2756010</v>
+        <v>201476584</v>
       </c>
       <c r="D104">
-        <v>2756012</v>
+        <v>201476586</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F104" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="C105">
-        <v>132715433</v>
+        <v>130126348</v>
       </c>
       <c r="D105">
-        <v>132715435</v>
+        <v>130126350</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="F105" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G105" t="s">
-        <v>144</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C106">
-        <v>184408209</v>
+        <v>7224989</v>
       </c>
       <c r="D106">
-        <v>184408211</v>
+        <v>7224991</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="F106" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G106" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C107">
-        <v>109493047</v>
+        <v>89101072</v>
       </c>
       <c r="D107">
-        <v>109493049</v>
+        <v>89101074</v>
       </c>
       <c r="E107" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="F107" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G107" t="s">
-        <v>288</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C108">
-        <v>8849048</v>
+        <v>17051538</v>
       </c>
       <c r="D108">
-        <v>8849050</v>
+        <v>17051540</v>
       </c>
       <c r="E108" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="F108" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G108" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C109">
-        <v>8849048</v>
+        <v>79189641</v>
       </c>
       <c r="D109">
-        <v>8849050</v>
+        <v>79189643</v>
       </c>
       <c r="E109" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="F109" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="C110">
-        <v>8849048</v>
+        <v>89374183</v>
       </c>
       <c r="D110">
-        <v>8849050</v>
+        <v>89374185</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="F110" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="C111">
-        <v>171347336</v>
+        <v>57270164</v>
       </c>
       <c r="D111">
-        <v>171347338</v>
+        <v>57270166</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="F111" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G111" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="C112">
-        <v>85651326</v>
+        <v>156641708</v>
       </c>
       <c r="D112">
-        <v>85651328</v>
+        <v>156641710</v>
       </c>
       <c r="E112" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="G112" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="C113">
-        <v>54903891</v>
+        <v>156641708</v>
       </c>
       <c r="D113">
-        <v>54903893</v>
+        <v>156641710</v>
       </c>
       <c r="E113" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
-        <v>273</v>
+        <v>412</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="C114">
-        <v>74319354</v>
+        <v>19483011</v>
       </c>
       <c r="D114">
-        <v>74319356</v>
+        <v>19483013</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="F114" t="s">
-        <v>276</v>
+        <v>404</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C115">
-        <v>74466094</v>
+        <v>16183799</v>
       </c>
       <c r="D115">
-        <v>74466096</v>
+        <v>16183801</v>
       </c>
       <c r="E115" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G115" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="C116">
-        <v>121286029</v>
+        <v>76328584</v>
       </c>
       <c r="D116">
-        <v>121286031</v>
+        <v>76328586</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G116" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="C117">
-        <v>121286029</v>
+        <v>75208215</v>
       </c>
       <c r="D117">
-        <v>121286031</v>
+        <v>75208217</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="F117" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G117" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="C118">
-        <v>71892529</v>
+        <v>1678532</v>
       </c>
       <c r="D118">
-        <v>71892531</v>
+        <v>1678534</v>
       </c>
       <c r="E118" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="F118" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G118" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C119">
-        <v>116267257</v>
+        <v>1678532</v>
       </c>
       <c r="D119">
-        <v>116267259</v>
+        <v>1678534</v>
       </c>
       <c r="E119" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="F119" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G119" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="C120">
-        <v>108854549</v>
+        <v>1678532</v>
       </c>
       <c r="D120">
-        <v>108854551</v>
+        <v>1678534</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="F120" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G120" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C121">
-        <v>4501145</v>
+        <v>67997549</v>
       </c>
       <c r="D121">
-        <v>4501147</v>
+        <v>67997551</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="F121" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G121" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C122">
-        <v>57750676</v>
+        <v>46882240</v>
       </c>
       <c r="D122">
-        <v>57750678</v>
+        <v>46882242</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G122" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="C123">
-        <v>43369027</v>
+        <v>109624886</v>
       </c>
       <c r="D123">
-        <v>43369029</v>
+        <v>109624888</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G123" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="C124">
-        <v>16014345</v>
+        <v>52168344</v>
       </c>
       <c r="D124">
-        <v>16014347</v>
+        <v>52168346</v>
       </c>
       <c r="E124" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="F124" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C125">
-        <v>26913986</v>
+        <v>17579056</v>
       </c>
       <c r="D125">
-        <v>26913988</v>
+        <v>17579058</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G125" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="C126">
-        <v>26913986</v>
+        <v>32855950</v>
       </c>
       <c r="D126">
-        <v>26913988</v>
+        <v>32855952</v>
       </c>
       <c r="E126" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="F126" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G126" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="C127">
-        <v>116727544</v>
+        <v>11558238</v>
       </c>
       <c r="D127">
-        <v>116727546</v>
+        <v>11558240</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="F127" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G127" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="C128">
-        <v>93923489</v>
+        <v>59007065</v>
       </c>
       <c r="D128">
-        <v>93923491</v>
+        <v>59007067</v>
       </c>
       <c r="E128" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="F128" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G128" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C129">
-        <v>50508282</v>
+        <v>134053771</v>
       </c>
       <c r="D129">
-        <v>50508284</v>
+        <v>134053773</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="F129" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G129" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C130">
-        <v>50508282</v>
+        <v>134053771</v>
       </c>
       <c r="D130">
-        <v>50508284</v>
+        <v>134053773</v>
       </c>
       <c r="E130" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="F130" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G130" t="s">
-        <v>285</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C131">
-        <v>43368834</v>
+        <v>6638238</v>
       </c>
       <c r="D131">
-        <v>43368836</v>
+        <v>6638240</v>
       </c>
       <c r="E131" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G131" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C132">
-        <v>145872879</v>
+        <v>241813194</v>
       </c>
       <c r="D132">
-        <v>145872881</v>
+        <v>241813196</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="F132" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G132" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C133">
-        <v>17936094</v>
+        <v>241813194</v>
       </c>
       <c r="D133">
-        <v>17936096</v>
+        <v>241813196</v>
       </c>
       <c r="E133" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="F133" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G133" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="C134">
-        <v>129315049</v>
+        <v>73028309</v>
       </c>
       <c r="D134">
-        <v>129315051</v>
+        <v>73028311</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G134" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="C135">
-        <v>129315049</v>
+        <v>40418426</v>
       </c>
       <c r="D135">
-        <v>129315051</v>
+        <v>40418428</v>
       </c>
       <c r="E135" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="F135" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="G135" t="s">
-        <v>285</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C136">
-        <v>65057877</v>
+        <v>22729886</v>
       </c>
       <c r="D136">
-        <v>65057879</v>
+        <v>22729888</v>
       </c>
       <c r="E136" t="s">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="F136" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="G136" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C137">
-        <v>77933530</v>
+        <v>80999487</v>
       </c>
       <c r="D137">
-        <v>77933532</v>
+        <v>80999489</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="F137" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G137" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="C138">
-        <v>60396748</v>
+        <v>89275990</v>
       </c>
       <c r="D138">
-        <v>60396750</v>
+        <v>89275992</v>
       </c>
       <c r="E138" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G138" t="s">
-        <v>288</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="C139">
-        <v>45366841</v>
+        <v>102715582</v>
       </c>
       <c r="D139">
-        <v>45366843</v>
+        <v>102715584</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="F139" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G139" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C140">
-        <v>150562302</v>
+        <v>102715582</v>
       </c>
       <c r="D140">
-        <v>150562304</v>
+        <v>102715584</v>
       </c>
       <c r="E140" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="F140" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="G140" t="s">
-        <v>287</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="C141">
-        <v>163347378</v>
+        <v>165658541</v>
       </c>
       <c r="D141">
-        <v>163347380</v>
+        <v>165658543</v>
       </c>
       <c r="E141" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G141" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="C142">
-        <v>11766014</v>
+        <v>173264916</v>
       </c>
       <c r="D142">
-        <v>11766016</v>
+        <v>173264918</v>
       </c>
       <c r="E142" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="F142" t="s">
-        <v>144</v>
+        <v>404</v>
       </c>
       <c r="G142" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C143">
-        <v>156002132</v>
+        <v>218856441</v>
       </c>
       <c r="D143">
-        <v>156002134</v>
+        <v>218856443</v>
       </c>
       <c r="E143" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G143" t="s">
-        <v>144</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C144">
-        <v>32390316</v>
+        <v>81389134</v>
       </c>
       <c r="D144">
-        <v>32390318</v>
+        <v>81389136</v>
       </c>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="F144" t="s">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="G144" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B145" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="C145">
-        <v>16183799</v>
+        <v>9733040</v>
       </c>
       <c r="D145">
-        <v>16183801</v>
+        <v>9733042</v>
       </c>
       <c r="E145" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="F145" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G145" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="C146">
-        <v>206218878</v>
+        <v>6483080</v>
       </c>
       <c r="D146">
-        <v>206218880</v>
+        <v>6483082</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>338</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="G146" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="C147">
-        <v>206218878</v>
+        <v>58119061</v>
       </c>
       <c r="D147">
-        <v>206218880</v>
+        <v>58119063</v>
       </c>
       <c r="E147" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="G147" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="C148">
-        <v>67438836</v>
+        <v>89647922</v>
       </c>
       <c r="D148">
-        <v>67438838</v>
+        <v>89647924</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="F148" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G148" t="s">
-        <v>286</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="C149">
-        <v>67438836</v>
+        <v>25252150</v>
       </c>
       <c r="D149">
-        <v>67438838</v>
+        <v>25252152</v>
       </c>
       <c r="E149" t="s">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="F149" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G149" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C150">
-        <v>77456017</v>
+        <v>124501577</v>
       </c>
       <c r="D150">
-        <v>77456019</v>
+        <v>124501579</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="F150" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="G150" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="C151">
-        <v>50333271</v>
+        <v>136107370</v>
       </c>
       <c r="D151">
-        <v>50333273</v>
+        <v>136107372</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="F151" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G151" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C152">
-        <v>23182669</v>
+        <v>98013627</v>
       </c>
       <c r="D152">
-        <v>23182671</v>
+        <v>98013629</v>
       </c>
       <c r="E152" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="F152" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="G152" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="C153">
-        <v>46882240</v>
+        <v>1208907</v>
       </c>
       <c r="D153">
-        <v>46882242</v>
+        <v>1208909</v>
       </c>
       <c r="E153" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="F153" t="s">
-        <v>144</v>
+        <v>405</v>
       </c>
       <c r="G153" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="C154">
-        <v>124898657</v>
+        <v>1208907</v>
       </c>
       <c r="D154">
-        <v>124898659</v>
+        <v>1208909</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="F154" t="s">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="G154" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="C155">
-        <v>44398616</v>
+        <v>220896850</v>
       </c>
       <c r="D155">
-        <v>44398618</v>
+        <v>220896852</v>
       </c>
       <c r="E155" t="s">
+        <v>224</v>
+      </c>
+      <c r="F155" t="s">
+        <v>224</v>
+      </c>
+      <c r="G155" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156">
+        <v>154465216</v>
+      </c>
+      <c r="D156">
+        <v>154465218</v>
+      </c>
+      <c r="E156" t="s">
+        <v>345</v>
+      </c>
+      <c r="F156" t="s">
+        <v>404</v>
+      </c>
+      <c r="G156" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" t="s">
+        <v>215</v>
+      </c>
+      <c r="C157">
+        <v>20018581</v>
+      </c>
+      <c r="D157">
+        <v>20018583</v>
+      </c>
+      <c r="E157" t="s">
+        <v>346</v>
+      </c>
+      <c r="F157" t="s">
+        <v>404</v>
+      </c>
+      <c r="G157" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158">
+        <v>4501145</v>
+      </c>
+      <c r="D158">
+        <v>4501147</v>
+      </c>
+      <c r="E158" t="s">
+        <v>347</v>
+      </c>
+      <c r="F158" t="s">
+        <v>404</v>
+      </c>
+      <c r="G158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B159" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159">
+        <v>1893035</v>
+      </c>
+      <c r="D159">
+        <v>1893037</v>
+      </c>
+      <c r="E159" t="s">
+        <v>348</v>
+      </c>
+      <c r="F159" t="s">
+        <v>405</v>
+      </c>
+      <c r="G159" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B160" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160">
+        <v>1893035</v>
+      </c>
+      <c r="D160">
+        <v>1893037</v>
+      </c>
+      <c r="E160" t="s">
+        <v>349</v>
+      </c>
+      <c r="F160" t="s">
+        <v>405</v>
+      </c>
+      <c r="G160" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" t="s">
+        <v>205</v>
+      </c>
+      <c r="C161">
+        <v>17425477</v>
+      </c>
+      <c r="D161">
+        <v>17425479</v>
+      </c>
+      <c r="E161" t="s">
+        <v>350</v>
+      </c>
+      <c r="F161" t="s">
+        <v>404</v>
+      </c>
+      <c r="G161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" t="s">
+        <v>199</v>
+      </c>
+      <c r="C162">
+        <v>48430734</v>
+      </c>
+      <c r="D162">
+        <v>48430736</v>
+      </c>
+      <c r="E162" t="s">
+        <v>351</v>
+      </c>
+      <c r="F162" t="s">
+        <v>404</v>
+      </c>
+      <c r="G162" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C163">
+        <v>3671119</v>
+      </c>
+      <c r="D163">
+        <v>3671121</v>
+      </c>
+      <c r="E163" t="s">
+        <v>352</v>
+      </c>
+      <c r="F163" t="s">
+        <v>405</v>
+      </c>
+      <c r="G163" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164">
+        <v>3671119</v>
+      </c>
+      <c r="D164">
+        <v>3671121</v>
+      </c>
+      <c r="E164" t="s">
+        <v>353</v>
+      </c>
+      <c r="F164" t="s">
+        <v>405</v>
+      </c>
+      <c r="G164" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B165" t="s">
+        <v>205</v>
+      </c>
+      <c r="C165">
+        <v>12475057</v>
+      </c>
+      <c r="D165">
+        <v>12475059</v>
+      </c>
+      <c r="E165" t="s">
+        <v>354</v>
+      </c>
+      <c r="F165" t="s">
+        <v>404</v>
+      </c>
+      <c r="G165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166">
+        <v>98940362</v>
+      </c>
+      <c r="D166">
+        <v>98940364</v>
+      </c>
+      <c r="E166" t="s">
+        <v>355</v>
+      </c>
+      <c r="F166" t="s">
+        <v>404</v>
+      </c>
+      <c r="G166" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B167" t="s">
+        <v>214</v>
+      </c>
+      <c r="C167">
+        <v>43507046</v>
+      </c>
+      <c r="D167">
+        <v>43507048</v>
+      </c>
+      <c r="E167" t="s">
+        <v>356</v>
+      </c>
+      <c r="F167" t="s">
+        <v>404</v>
+      </c>
+      <c r="G167" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" t="s">
+        <v>205</v>
+      </c>
+      <c r="C168">
+        <v>3245839</v>
+      </c>
+      <c r="D168">
+        <v>3245841</v>
+      </c>
+      <c r="E168" t="s">
+        <v>357</v>
+      </c>
+      <c r="F168" t="s">
+        <v>404</v>
+      </c>
+      <c r="G168" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169">
+        <v>36888896</v>
+      </c>
+      <c r="D169">
+        <v>36888898</v>
+      </c>
+      <c r="E169" t="s">
+        <v>358</v>
+      </c>
+      <c r="F169" t="s">
+        <v>404</v>
+      </c>
+      <c r="G169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" t="s">
+        <v>211</v>
+      </c>
+      <c r="C170">
+        <v>121223958</v>
+      </c>
+      <c r="D170">
+        <v>121223960</v>
+      </c>
+      <c r="E170" t="s">
+        <v>359</v>
+      </c>
+      <c r="F170" t="s">
+        <v>404</v>
+      </c>
+      <c r="G170" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171">
+        <v>1118554</v>
+      </c>
+      <c r="D171">
+        <v>1118556</v>
+      </c>
+      <c r="E171" t="s">
+        <v>224</v>
+      </c>
+      <c r="F171" t="s">
+        <v>224</v>
+      </c>
+      <c r="G171" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" t="s">
+        <v>210</v>
+      </c>
+      <c r="C172">
+        <v>155701180</v>
+      </c>
+      <c r="D172">
+        <v>155701182</v>
+      </c>
+      <c r="E172" t="s">
+        <v>224</v>
+      </c>
+      <c r="F172" t="s">
+        <v>224</v>
+      </c>
+      <c r="G172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173">
+        <v>235044659</v>
+      </c>
+      <c r="D173">
+        <v>235044661</v>
+      </c>
+      <c r="E173" t="s">
+        <v>360</v>
+      </c>
+      <c r="F173" t="s">
+        <v>404</v>
+      </c>
+      <c r="G173" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174">
+        <v>14009636</v>
+      </c>
+      <c r="D174">
+        <v>14009638</v>
+      </c>
+      <c r="E174" t="s">
+        <v>361</v>
+      </c>
+      <c r="F174" t="s">
+        <v>404</v>
+      </c>
+      <c r="G174" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" t="s">
+        <v>205</v>
+      </c>
+      <c r="C175">
+        <v>226987375</v>
+      </c>
+      <c r="D175">
+        <v>226987377</v>
+      </c>
+      <c r="E175" t="s">
+        <v>362</v>
+      </c>
+      <c r="F175" t="s">
+        <v>404</v>
+      </c>
+      <c r="G175" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B176" t="s">
+        <v>211</v>
+      </c>
+      <c r="C176">
+        <v>11878369</v>
+      </c>
+      <c r="D176">
+        <v>11878371</v>
+      </c>
+      <c r="E176" t="s">
+        <v>363</v>
+      </c>
+      <c r="F176" t="s">
+        <v>404</v>
+      </c>
+      <c r="G176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B177" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177">
+        <v>3213404</v>
+      </c>
+      <c r="D177">
+        <v>3213406</v>
+      </c>
+      <c r="E177" t="s">
+        <v>357</v>
+      </c>
+      <c r="F177" t="s">
+        <v>404</v>
+      </c>
+      <c r="G177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" t="s">
+        <v>201</v>
+      </c>
+      <c r="C178">
+        <v>70594241</v>
+      </c>
+      <c r="D178">
+        <v>70594243</v>
+      </c>
+      <c r="E178" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" t="s">
+        <v>404</v>
+      </c>
+      <c r="G178" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" t="s">
+        <v>201</v>
+      </c>
+      <c r="C179">
+        <v>86889207</v>
+      </c>
+      <c r="D179">
+        <v>86889209</v>
+      </c>
+      <c r="E179" t="s">
+        <v>365</v>
+      </c>
+      <c r="F179" t="s">
+        <v>404</v>
+      </c>
+      <c r="G179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C180">
+        <v>82836204</v>
+      </c>
+      <c r="D180">
+        <v>82836206</v>
+      </c>
+      <c r="E180" t="s">
+        <v>366</v>
+      </c>
+      <c r="F180" t="s">
+        <v>404</v>
+      </c>
+      <c r="G180" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B181" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181">
+        <v>82836204</v>
+      </c>
+      <c r="D181">
+        <v>82836206</v>
+      </c>
+      <c r="E181" t="s">
+        <v>367</v>
+      </c>
+      <c r="F181" t="s">
+        <v>404</v>
+      </c>
+      <c r="G181" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B182" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182">
+        <v>69217453</v>
+      </c>
+      <c r="D182">
+        <v>69217455</v>
+      </c>
+      <c r="E182" t="s">
+        <v>368</v>
+      </c>
+      <c r="F182" t="s">
+        <v>409</v>
+      </c>
+      <c r="G182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B183" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183">
+        <v>42239104</v>
+      </c>
+      <c r="D183">
+        <v>42239106</v>
+      </c>
+      <c r="E183" t="s">
+        <v>369</v>
+      </c>
+      <c r="F183" t="s">
+        <v>404</v>
+      </c>
+      <c r="G183" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184">
+        <v>42239104</v>
+      </c>
+      <c r="D184">
+        <v>42239106</v>
+      </c>
+      <c r="E184" t="s">
+        <v>370</v>
+      </c>
+      <c r="F184" t="s">
+        <v>404</v>
+      </c>
+      <c r="G184" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B185" t="s">
+        <v>202</v>
+      </c>
+      <c r="C185">
+        <v>98085052</v>
+      </c>
+      <c r="D185">
+        <v>98085054</v>
+      </c>
+      <c r="E185" t="s">
+        <v>224</v>
+      </c>
+      <c r="F185" t="s">
+        <v>224</v>
+      </c>
+      <c r="G185" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" t="s">
+        <v>197</v>
+      </c>
+      <c r="C186">
+        <v>69012423</v>
+      </c>
+      <c r="D186">
+        <v>69012425</v>
+      </c>
+      <c r="E186" t="s">
+        <v>371</v>
+      </c>
+      <c r="F186" t="s">
+        <v>404</v>
+      </c>
+      <c r="G186" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" t="s">
+        <v>206</v>
+      </c>
+      <c r="C187">
+        <v>124632254</v>
+      </c>
+      <c r="D187">
+        <v>124632256</v>
+      </c>
+      <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
+        <v>404</v>
+      </c>
+      <c r="G187" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188">
+        <v>124632254</v>
+      </c>
+      <c r="D188">
+        <v>124632256</v>
+      </c>
+      <c r="E188" t="s">
+        <v>373</v>
+      </c>
+      <c r="F188" t="s">
+        <v>404</v>
+      </c>
+      <c r="G188" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" t="s">
+        <v>200</v>
+      </c>
+      <c r="C189">
+        <v>177982332</v>
+      </c>
+      <c r="D189">
+        <v>177982334</v>
+      </c>
+      <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
+        <v>408</v>
+      </c>
+      <c r="G189" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" t="s">
+        <v>198</v>
+      </c>
+      <c r="C190">
+        <v>2289290</v>
+      </c>
+      <c r="D190">
+        <v>2289292</v>
+      </c>
+      <c r="E190" t="s">
+        <v>375</v>
+      </c>
+      <c r="F190" t="s">
+        <v>404</v>
+      </c>
+      <c r="G190" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B191" t="s">
+        <v>213</v>
+      </c>
+      <c r="C191">
+        <v>158996903</v>
+      </c>
+      <c r="D191">
+        <v>158996905</v>
+      </c>
+      <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
+        <v>404</v>
+      </c>
+      <c r="G191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192" t="s">
+        <v>200</v>
+      </c>
+      <c r="C192">
+        <v>43482701</v>
+      </c>
+      <c r="D192">
+        <v>43482703</v>
+      </c>
+      <c r="E192" t="s">
+        <v>377</v>
+      </c>
+      <c r="F192" t="s">
+        <v>413</v>
+      </c>
+      <c r="G192" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193">
+        <v>43482701</v>
+      </c>
+      <c r="D193">
+        <v>43482703</v>
+      </c>
+      <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
+        <v>413</v>
+      </c>
+      <c r="G193" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194">
+        <v>85902604</v>
+      </c>
+      <c r="D194">
+        <v>85902606</v>
+      </c>
+      <c r="E194" t="s">
+        <v>277</v>
+      </c>
+      <c r="F194" t="s">
+        <v>404</v>
+      </c>
+      <c r="G194" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195">
+        <v>17351576</v>
+      </c>
+      <c r="D195">
+        <v>17351578</v>
+      </c>
+      <c r="E195" t="s">
+        <v>379</v>
+      </c>
+      <c r="F195" t="s">
+        <v>404</v>
+      </c>
+      <c r="G195" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" t="s">
+        <v>210</v>
+      </c>
+      <c r="C196">
+        <v>30157014</v>
+      </c>
+      <c r="D196">
+        <v>30157016</v>
+      </c>
+      <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
+        <v>404</v>
+      </c>
+      <c r="G196" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197">
+        <v>93114298</v>
+      </c>
+      <c r="D197">
+        <v>93114300</v>
+      </c>
+      <c r="E197" t="s">
+        <v>381</v>
+      </c>
+      <c r="F197" t="s">
+        <v>404</v>
+      </c>
+      <c r="G197" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198">
+        <v>59249930</v>
+      </c>
+      <c r="D198">
+        <v>59249932</v>
+      </c>
+      <c r="E198" t="s">
+        <v>382</v>
+      </c>
+      <c r="F198" t="s">
+        <v>408</v>
+      </c>
+      <c r="G198" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199">
+        <v>59249930</v>
+      </c>
+      <c r="D199">
+        <v>59249932</v>
+      </c>
+      <c r="E199" t="s">
+        <v>383</v>
+      </c>
+      <c r="F199" t="s">
+        <v>408</v>
+      </c>
+      <c r="G199" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200">
+        <v>59249930</v>
+      </c>
+      <c r="D200">
+        <v>59249932</v>
+      </c>
+      <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
+        <v>408</v>
+      </c>
+      <c r="G200" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201" t="s">
+        <v>197</v>
+      </c>
+      <c r="C201">
+        <v>481328</v>
+      </c>
+      <c r="D201">
+        <v>481330</v>
+      </c>
+      <c r="E201" t="s">
+        <v>224</v>
+      </c>
+      <c r="F201" t="s">
+        <v>224</v>
+      </c>
+      <c r="G201" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202">
+        <v>19387441</v>
+      </c>
+      <c r="D202">
+        <v>19387443</v>
+      </c>
+      <c r="E202" t="s">
         <v>272</v>
       </c>
-      <c r="F155" t="s">
-        <v>273</v>
-      </c>
-      <c r="G155" t="s">
-        <v>144</v>
+      <c r="F202" t="s">
+        <v>404</v>
+      </c>
+      <c r="G202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203">
+        <v>111567242</v>
+      </c>
+      <c r="D203">
+        <v>111567244</v>
+      </c>
+      <c r="E203" t="s">
+        <v>385</v>
+      </c>
+      <c r="F203" t="s">
+        <v>405</v>
+      </c>
+      <c r="G203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B204" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204">
+        <v>111567242</v>
+      </c>
+      <c r="D204">
+        <v>111567244</v>
+      </c>
+      <c r="E204" t="s">
+        <v>386</v>
+      </c>
+      <c r="F204" t="s">
+        <v>405</v>
+      </c>
+      <c r="G204" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B205" t="s">
+        <v>215</v>
+      </c>
+      <c r="C205">
+        <v>38804603</v>
+      </c>
+      <c r="D205">
+        <v>38804605</v>
+      </c>
+      <c r="E205" t="s">
+        <v>387</v>
+      </c>
+      <c r="F205" t="s">
+        <v>404</v>
+      </c>
+      <c r="G205" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206">
+        <v>125219264</v>
+      </c>
+      <c r="D206">
+        <v>125219266</v>
+      </c>
+      <c r="E206" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" t="s">
+        <v>404</v>
+      </c>
+      <c r="G206" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B207" t="s">
+        <v>198</v>
+      </c>
+      <c r="C207">
+        <v>1708796</v>
+      </c>
+      <c r="D207">
+        <v>1708798</v>
+      </c>
+      <c r="E207" t="s">
+        <v>389</v>
+      </c>
+      <c r="F207" t="s">
+        <v>404</v>
+      </c>
+      <c r="G207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208">
+        <v>168032755</v>
+      </c>
+      <c r="D208">
+        <v>168032757</v>
+      </c>
+      <c r="E208" t="s">
+        <v>390</v>
+      </c>
+      <c r="F208" t="s">
+        <v>404</v>
+      </c>
+      <c r="G208" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" t="s">
+        <v>201</v>
+      </c>
+      <c r="C209">
+        <v>94769712</v>
+      </c>
+      <c r="D209">
+        <v>94769714</v>
+      </c>
+      <c r="E209" t="s">
+        <v>391</v>
+      </c>
+      <c r="F209" t="s">
+        <v>404</v>
+      </c>
+      <c r="G209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210">
+        <v>55750825</v>
+      </c>
+      <c r="D210">
+        <v>55750827</v>
+      </c>
+      <c r="E210" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" t="s">
+        <v>404</v>
+      </c>
+      <c r="G210" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211">
+        <v>125522544</v>
+      </c>
+      <c r="D211">
+        <v>125522546</v>
+      </c>
+      <c r="E211" t="s">
+        <v>393</v>
+      </c>
+      <c r="F211" t="s">
+        <v>404</v>
+      </c>
+      <c r="G211" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B212" t="s">
+        <v>202</v>
+      </c>
+      <c r="C212">
+        <v>134283808</v>
+      </c>
+      <c r="D212">
+        <v>134283810</v>
+      </c>
+      <c r="E212" t="s">
+        <v>394</v>
+      </c>
+      <c r="F212" t="s">
+        <v>404</v>
+      </c>
+      <c r="G212" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213">
+        <v>23144881</v>
+      </c>
+      <c r="D213">
+        <v>23144883</v>
+      </c>
+      <c r="E213" t="s">
+        <v>395</v>
+      </c>
+      <c r="F213" t="s">
+        <v>404</v>
+      </c>
+      <c r="G213" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B214" t="s">
+        <v>198</v>
+      </c>
+      <c r="C214">
+        <v>89100873</v>
+      </c>
+      <c r="D214">
+        <v>89100875</v>
+      </c>
+      <c r="E214" t="s">
+        <v>303</v>
+      </c>
+      <c r="F214" t="s">
+        <v>404</v>
+      </c>
+      <c r="G214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+      <c r="C215">
+        <v>4539969</v>
+      </c>
+      <c r="D215">
+        <v>4539971</v>
+      </c>
+      <c r="E215" t="s">
+        <v>396</v>
+      </c>
+      <c r="F215" t="s">
+        <v>404</v>
+      </c>
+      <c r="G215" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" t="s">
+        <v>211</v>
+      </c>
+      <c r="C216">
+        <v>4539969</v>
+      </c>
+      <c r="D216">
+        <v>4539971</v>
+      </c>
+      <c r="E216" t="s">
+        <v>397</v>
+      </c>
+      <c r="F216" t="s">
+        <v>404</v>
+      </c>
+      <c r="G216" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217">
+        <v>4529400</v>
+      </c>
+      <c r="D217">
+        <v>4529402</v>
+      </c>
+      <c r="E217" t="s">
+        <v>398</v>
+      </c>
+      <c r="F217" t="s">
+        <v>404</v>
+      </c>
+      <c r="G217" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218">
+        <v>1298861</v>
+      </c>
+      <c r="D218">
+        <v>1298863</v>
+      </c>
+      <c r="E218" t="s">
+        <v>399</v>
+      </c>
+      <c r="F218" t="s">
+        <v>404</v>
+      </c>
+      <c r="G218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B219" t="s">
+        <v>201</v>
+      </c>
+      <c r="C219">
+        <v>1916226</v>
+      </c>
+      <c r="D219">
+        <v>1916228</v>
+      </c>
+      <c r="E219" t="s">
+        <v>224</v>
+      </c>
+      <c r="F219" t="s">
+        <v>224</v>
+      </c>
+      <c r="G219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B220" t="s">
+        <v>205</v>
+      </c>
+      <c r="C220">
+        <v>246789611</v>
+      </c>
+      <c r="D220">
+        <v>246789613</v>
+      </c>
+      <c r="E220" t="s">
+        <v>231</v>
+      </c>
+      <c r="F220" t="s">
+        <v>406</v>
+      </c>
+      <c r="G220" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221" t="s">
+        <v>205</v>
+      </c>
+      <c r="C221">
+        <v>246789611</v>
+      </c>
+      <c r="D221">
+        <v>246789613</v>
+      </c>
+      <c r="E221" t="s">
+        <v>232</v>
+      </c>
+      <c r="F221" t="s">
+        <v>406</v>
+      </c>
+      <c r="G221" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B222" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222">
+        <v>8247121</v>
+      </c>
+      <c r="D222">
+        <v>8247123</v>
+      </c>
+      <c r="E222" t="s">
+        <v>224</v>
+      </c>
+      <c r="F222" t="s">
+        <v>224</v>
+      </c>
+      <c r="G222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B223" t="s">
+        <v>197</v>
+      </c>
+      <c r="C223">
+        <v>50317984</v>
+      </c>
+      <c r="D223">
+        <v>50317986</v>
+      </c>
+      <c r="E223" t="s">
+        <v>400</v>
+      </c>
+      <c r="F223" t="s">
+        <v>404</v>
+      </c>
+      <c r="G223" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B224" t="s">
+        <v>202</v>
+      </c>
+      <c r="C224">
+        <v>11921150</v>
+      </c>
+      <c r="D224">
+        <v>11921152</v>
+      </c>
+      <c r="E224" t="s">
+        <v>401</v>
+      </c>
+      <c r="F224" t="s">
+        <v>408</v>
+      </c>
+      <c r="G224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B225" t="s">
+        <v>202</v>
+      </c>
+      <c r="C225">
+        <v>203637474</v>
+      </c>
+      <c r="D225">
+        <v>203637476</v>
+      </c>
+      <c r="E225" t="s">
+        <v>402</v>
+      </c>
+      <c r="F225" t="s">
+        <v>414</v>
+      </c>
+      <c r="G225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B226" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226">
+        <v>82584038</v>
+      </c>
+      <c r="D226">
+        <v>82584040</v>
+      </c>
+      <c r="E226" t="s">
+        <v>403</v>
+      </c>
+      <c r="F226" t="s">
+        <v>404</v>
+      </c>
+      <c r="G226" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" t="s">
+        <v>198</v>
+      </c>
+      <c r="C227">
+        <v>87555286</v>
+      </c>
+      <c r="D227">
+        <v>87555288</v>
+      </c>
+      <c r="E227" t="s">
+        <v>224</v>
+      </c>
+      <c r="F227" t="s">
+        <v>224</v>
+      </c>
+      <c r="G227" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
